--- a/lang/collect.xlsx
+++ b/lang/collect.xlsx
@@ -395,6 +395,9 @@
       <c r="A2" t="str">
         <v>ide.src.business-component.tag-analyze.charts-options.r0istg1b29l</v>
       </c>
+      <c r="B2" t="str">
+        <v>日期:  &lt;br/&gt;总调用次数: {paramsDataIndex}&lt;br/&gt;</v>
+      </c>
       <c r="C2" t="str">
         <v>日期:  &lt;br/&gt;总调用次数: {paramsDataIndex}&lt;br/&gt;</v>
       </c>
@@ -403,6 +406,9 @@
       <c r="A3" t="str">
         <v>ide.src.business-component.tag-analyze.charts-options.ycq3eg2bn5f</v>
       </c>
+      <c r="B3" t="str">
+        <v>标签调用次数</v>
+      </c>
       <c r="C3" t="str">
         <v>标签调用次数</v>
       </c>
@@ -411,6 +417,9 @@
       <c r="A4" t="str">
         <v>ide.src.business-component.tag-analyze.charts-options.ef7k0b41v1v</v>
       </c>
+      <c r="B4" t="str">
+        <v>日期:  &lt;br/&gt;空值数: {paramsValue}</v>
+      </c>
       <c r="C4" t="str">
         <v>日期:  &lt;br/&gt;空值数: {paramsValue}</v>
       </c>
@@ -419,6 +428,9 @@
       <c r="A5" t="str">
         <v>ide.src.business-component.tag-analyze.charts-options.t4m39f4vn7l</v>
       </c>
+      <c r="B5" t="str">
+        <v>总计</v>
+      </c>
       <c r="C5" t="str">
         <v>总计</v>
       </c>
@@ -427,6 +439,9 @@
       <c r="A6" t="str">
         <v>ide.src.business-component.tag-analyze.charts-options.2utgfv4u6kl</v>
       </c>
+      <c r="B6" t="str">
+        <v>{chartsCount}个</v>
+      </c>
       <c r="C6" t="str">
         <v>{chartsCount}个</v>
       </c>
@@ -435,6 +450,9 @@
       <c r="A7" t="str">
         <v>ide.src.business-component.tag-analyze.charts-options.28atjkrczpj</v>
       </c>
+      <c r="B7" t="str">
+        <v>标签名称: {info[0]}&lt;br /&gt;标签占比: {info[1]}&lt;br /&gt;标签数量: {info[2]}</v>
+      </c>
       <c r="C7" t="str">
         <v>标签名称: {info[0]}&lt;br /&gt;标签占比: {info[1]}&lt;br /&gt;标签数量: {info[2]}</v>
       </c>
@@ -443,6 +461,9 @@
       <c r="A8" t="str">
         <v>ide.src.business-component.tag-analyze.store.pd114xvd4s</v>
       </c>
+      <c r="B8" t="str">
+        <v>正在更新</v>
+      </c>
       <c r="C8" t="str">
         <v>正在更新</v>
       </c>
@@ -451,6 +472,9 @@
       <c r="A9" t="str">
         <v>ide.src.business-component.tag-analyze.tag-analyze.r4bflvdfh3f</v>
       </c>
+      <c r="B9" t="str">
+        <v>值域分布</v>
+      </c>
       <c r="C9" t="str">
         <v>值域分布</v>
       </c>
@@ -459,6 +483,9 @@
       <c r="A10" t="str">
         <v>ide.src.business-component.tag-analyze.tag-analyze.3lashi9hb7l</v>
       </c>
+      <c r="B10" t="str">
+        <v>更新</v>
+      </c>
       <c r="C10" t="str">
         <v>更新</v>
       </c>
@@ -467,6 +494,9 @@
       <c r="A11" t="str">
         <v>ide.src.business-component.tag-analyze.tag-analyze.4hcdsnvdk6d</v>
       </c>
+      <c r="B11" t="str">
+        <v>%的实体拥有{name}这个标签</v>
+      </c>
       <c r="C11" t="str">
         <v>%的实体拥有{name}这个标签</v>
       </c>
@@ -475,6 +505,9 @@
       <c r="A12" t="str">
         <v>ide.src.business-component.tag-relate.dag-box.bhzleo4vj5g</v>
       </c>
+      <c r="B12" t="str">
+        <v>字段</v>
+      </c>
       <c r="C12" t="str">
         <v>字段</v>
       </c>
@@ -483,6 +516,9 @@
       <c r="A13" t="str">
         <v>ide.src.business-component.tag-relate.dag-box.co39wa8uxw5</v>
       </c>
+      <c r="B13" t="str">
+        <v>字段名称</v>
+      </c>
       <c r="C13" t="str">
         <v>字段名称</v>
       </c>
@@ -491,6 +527,9 @@
       <c r="A14" t="str">
         <v>ide.src.business-component.tag-relate.dag-box.xr0hezmhuj</v>
       </c>
+      <c r="B14" t="str">
+        <v>字段类型</v>
+      </c>
       <c r="C14" t="str">
         <v>字段类型</v>
       </c>
@@ -499,6 +538,9 @@
       <c r="A15" t="str">
         <v>ide.src.business-component.tag-relate.dag-box.az1mmko8h38</v>
       </c>
+      <c r="B15" t="str">
+        <v>数据表名</v>
+      </c>
       <c r="C15" t="str">
         <v>数据表名</v>
       </c>
@@ -507,6 +549,9 @@
       <c r="A16" t="str">
         <v>ide.src.business-component.tag-relate.dag-box.9mzk7452ggp</v>
       </c>
+      <c r="B16" t="str">
+        <v>数据源</v>
+      </c>
       <c r="C16" t="str">
         <v>数据源</v>
       </c>
@@ -515,6 +560,9 @@
       <c r="A17" t="str">
         <v>ide.src.business-component.tag-relate.dag-box.xs30zaqk60p</v>
       </c>
+      <c r="B17" t="str">
+        <v>标签标识</v>
+      </c>
       <c r="C17" t="str">
         <v>标签标识</v>
       </c>
@@ -523,6 +571,9 @@
       <c r="A18" t="str">
         <v>ide.src.business-component.tag-relate.dag-box.zfaw0a4v7jh</v>
       </c>
+      <c r="B18" t="str">
+        <v>数据类型</v>
+      </c>
       <c r="C18" t="str">
         <v>数据类型</v>
       </c>
@@ -531,6 +582,9 @@
       <c r="A19" t="str">
         <v>ide.src.business-component.tag-relate.dag-box.tm23no7bl7g</v>
       </c>
+      <c r="B19" t="str">
+        <v>衍生方案</v>
+      </c>
       <c r="C19" t="str">
         <v>衍生方案</v>
       </c>
@@ -539,6 +593,9 @@
       <c r="A20" t="str">
         <v>ide.src.business-component.tag-relate.dag-box.hbmtefgjkcm</v>
       </c>
+      <c r="B20" t="str">
+        <v>API名称</v>
+      </c>
       <c r="C20" t="str">
         <v>API名称</v>
       </c>
@@ -547,6 +604,9 @@
       <c r="A21" t="str">
         <v>ide.src.business-component.tag-relate.dag-box.tz31zzfzmu</v>
       </c>
+      <c r="B21" t="str">
+        <v>应用名称</v>
+      </c>
       <c r="C21" t="str">
         <v>应用名称</v>
       </c>
@@ -555,6 +615,9 @@
       <c r="A22" t="str">
         <v>ide.src.business-component.tag-trend.charts-options.sa0ejb96vk</v>
       </c>
+      <c r="B22" t="str">
+        <v>日期: {paramsAxisValue} &lt;br/&gt;空值数: {paramsValue}</v>
+      </c>
       <c r="C22" t="str">
         <v>日期: {paramsAxisValue} &lt;br/&gt;空值数: {paramsValue}</v>
       </c>
@@ -563,6 +626,9 @@
       <c r="A23" t="str">
         <v>ide.src.business-component.tag-trend.tag-trend.o18ga4b3ils</v>
       </c>
+      <c r="B23" t="str">
+        <v>暂无数据</v>
+      </c>
       <c r="C23" t="str">
         <v>暂无数据</v>
       </c>
@@ -571,6 +637,9 @@
       <c r="A24" t="str">
         <v>ide.src.business-component.tag-trend.tag-trend.40b08h2rq0b</v>
       </c>
+      <c r="B24" t="str">
+        <v>空值占比趋势</v>
+      </c>
       <c r="C24" t="str">
         <v>空值占比趋势</v>
       </c>
@@ -579,6 +648,9 @@
       <c r="A25" t="str">
         <v>ide.src.common.dict.z1n81lmrcs</v>
       </c>
+      <c r="B25" t="str">
+        <v>整数型</v>
+      </c>
       <c r="C25" t="str">
         <v>整数型</v>
       </c>
@@ -587,6 +659,9 @@
       <c r="A26" t="str">
         <v>ide.src.common.dict.o41130chdhe</v>
       </c>
+      <c r="B26" t="str">
+        <v>小数型</v>
+      </c>
       <c r="C26" t="str">
         <v>小数型</v>
       </c>
@@ -595,6 +670,9 @@
       <c r="A27" t="str">
         <v>ide.src.common.dict.vdvia4exsvj</v>
       </c>
+      <c r="B27" t="str">
+        <v>文本型</v>
+      </c>
       <c r="C27" t="str">
         <v>文本型</v>
       </c>
@@ -603,6 +681,9 @@
       <c r="A28" t="str">
         <v>ide.src.common.dict.k7axbetkeh9</v>
       </c>
+      <c r="B28" t="str">
+        <v>日期型</v>
+      </c>
       <c r="C28" t="str">
         <v>日期型</v>
       </c>
@@ -611,6 +692,9 @@
       <c r="A29" t="str">
         <v>ide.src.common.dict.yy6bfwytt9</v>
       </c>
+      <c r="B29" t="str">
+        <v>实体</v>
+      </c>
       <c r="C29" t="str">
         <v>实体</v>
       </c>
@@ -619,6 +703,9 @@
       <c r="A30" t="str">
         <v>ide.src.common.dict.g3kh6ck2ho6</v>
       </c>
+      <c r="B30" t="str">
+        <v>关系</v>
+      </c>
       <c r="C30" t="str">
         <v>关系</v>
       </c>
@@ -627,6 +714,9 @@
       <c r="A31" t="str">
         <v>ide.src.common.io-context.plcztu1haxa</v>
       </c>
+      <c r="B31" t="str">
+        <v>登录超时，请重新登录</v>
+      </c>
       <c r="C31" t="str">
         <v>登录超时，请重新登录</v>
       </c>
@@ -635,6 +725,9 @@
       <c r="A32" t="str">
         <v>ide.src.common.io-context.hlc2wrvgo68</v>
       </c>
+      <c r="B32" t="str">
+        <v>网络异常，请刷新页面重试！</v>
+      </c>
       <c r="C32" t="str">
         <v>网络异常，请刷新页面重试！</v>
       </c>
@@ -643,6 +736,9 @@
       <c r="A33" t="str">
         <v>ide.src.common.navList.rf1adwfz5e</v>
       </c>
+      <c r="B33" t="str">
+        <v>标签中心</v>
+      </c>
       <c r="C33" t="str">
         <v>标签中心</v>
       </c>
@@ -651,6 +747,9 @@
       <c r="A34" t="str">
         <v>ide.src.common.navList.ftbdjpmt406</v>
       </c>
+      <c r="B34" t="str">
+        <v>总览</v>
+      </c>
       <c r="C34" t="str">
         <v>总览</v>
       </c>
@@ -659,6 +758,9 @@
       <c r="A35" t="str">
         <v>ide.src.common.navList.2yybv92rzpp</v>
       </c>
+      <c r="B35" t="str">
+        <v>集市</v>
+      </c>
       <c r="C35" t="str">
         <v>集市</v>
       </c>
@@ -667,6 +769,9 @@
       <c r="A36" t="str">
         <v>ide.src.common.navList.au81mrbmeqo</v>
       </c>
+      <c r="B36" t="str">
+        <v>对象管理</v>
+      </c>
       <c r="C36" t="str">
         <v>对象管理</v>
       </c>
@@ -675,6 +780,9 @@
       <c r="A37" t="str">
         <v>ide.src.common.navList.c2lnohs0y4n</v>
       </c>
+      <c r="B37" t="str">
+        <v>对象列表</v>
+      </c>
       <c r="C37" t="str">
         <v>对象列表</v>
       </c>
@@ -683,6 +791,9 @@
       <c r="A38" t="str">
         <v>ide.src.common.navList.tskbk1cdaw</v>
       </c>
+      <c r="B38" t="str">
+        <v>对象详情</v>
+      </c>
       <c r="C38" t="str">
         <v>对象详情</v>
       </c>
@@ -691,6 +802,9 @@
       <c r="A39" t="str">
         <v>ide.src.common.navList.oerfqubqsve</v>
       </c>
+      <c r="B39" t="str">
+        <v>对象模型</v>
+      </c>
       <c r="C39" t="str">
         <v>对象模型</v>
       </c>
@@ -699,6 +813,9 @@
       <c r="A40" t="str">
         <v>ide.src.common.navList.yj7vyhgzmw8</v>
       </c>
+      <c r="B40" t="str">
+        <v>标签管理</v>
+      </c>
       <c r="C40" t="str">
         <v>标签管理</v>
       </c>
@@ -707,6 +824,9 @@
       <c r="A41" t="str">
         <v>ide.src.common.navList.1u4wc7wzm02</v>
       </c>
+      <c r="B41" t="str">
+        <v>对象配置</v>
+      </c>
       <c r="C41" t="str">
         <v>对象配置</v>
       </c>
@@ -715,6 +835,9 @@
       <c r="A42" t="str">
         <v>ide.src.common.navList.8mxknj3zxe</v>
       </c>
+      <c r="B42" t="str">
+        <v>标签仓库</v>
+      </c>
       <c r="C42" t="str">
         <v>标签仓库</v>
       </c>
@@ -723,6 +846,9 @@
       <c r="A43" t="str">
         <v>ide.src.common.navList.bmnnu96l68r</v>
       </c>
+      <c r="B43" t="str">
+        <v>标签模型</v>
+      </c>
       <c r="C43" t="str">
         <v>标签模型</v>
       </c>
@@ -731,6 +857,9 @@
       <c r="A44" t="str">
         <v>ide.src.common.navList.sxgp2b02lvc</v>
       </c>
+      <c r="B44" t="str">
+        <v>标签详情</v>
+      </c>
       <c r="C44" t="str">
         <v>标签详情</v>
       </c>
@@ -739,6 +868,9 @@
       <c r="A45" t="str">
         <v>ide.src.common.navList.9asijq2ikmn</v>
       </c>
+      <c r="B45" t="str">
+        <v>标签加工</v>
+      </c>
       <c r="C45" t="str">
         <v>标签加工</v>
       </c>
@@ -747,6 +879,9 @@
       <c r="A46" t="str">
         <v>ide.src.common.navList.stsyfv7j7wk</v>
       </c>
+      <c r="B46" t="str">
+        <v>TQL加工方案</v>
+      </c>
       <c r="C46" t="str">
         <v>TQL加工方案</v>
       </c>
@@ -755,6 +890,9 @@
       <c r="A47" t="str">
         <v>ide.src.common.navList.tbcpwwe2gcf</v>
       </c>
+      <c r="B47" t="str">
+        <v>加工方案详情</v>
+      </c>
       <c r="C47" t="str">
         <v>加工方案详情</v>
       </c>
@@ -763,6 +901,9 @@
       <c r="A48" t="str">
         <v>ide.src.common.navList.ytx92v611jp</v>
       </c>
+      <c r="B48" t="str">
+        <v>标签应用</v>
+      </c>
       <c r="C48" t="str">
         <v>标签应用</v>
       </c>
@@ -771,6 +912,9 @@
       <c r="A49" t="str">
         <v>ide.src.common.navList.x8t1yry6bqg</v>
       </c>
+      <c r="B49" t="str">
+        <v>场景管理</v>
+      </c>
       <c r="C49" t="str">
         <v>场景管理</v>
       </c>
@@ -779,6 +923,9 @@
       <c r="A50" t="str">
         <v>ide.src.common.navList.2xlwze2zjd8</v>
       </c>
+      <c r="B50" t="str">
+        <v>场景详情</v>
+      </c>
       <c r="C50" t="str">
         <v>场景详情</v>
       </c>
@@ -787,6 +934,9 @@
       <c r="A51" t="str">
         <v>ide.src.common.navList.5ywghq8b76s</v>
       </c>
+      <c r="B51" t="str">
+        <v>标签列表</v>
+      </c>
       <c r="C51" t="str">
         <v>标签列表</v>
       </c>
@@ -795,6 +945,9 @@
       <c r="A52" t="str">
         <v>ide.src.common.navList.mg5ofl3blh</v>
       </c>
+      <c r="B52" t="str">
+        <v>标签同步</v>
+      </c>
       <c r="C52" t="str">
         <v>标签同步</v>
       </c>
@@ -803,6 +956,9 @@
       <c r="A53" t="str">
         <v>ide.src.common.navList.5pko0l7i7qx</v>
       </c>
+      <c r="B53" t="str">
+        <v>同步计划</v>
+      </c>
       <c r="C53" t="str">
         <v>同步计划</v>
       </c>
@@ -811,6 +967,9 @@
       <c r="A54" t="str">
         <v>ide.src.common.navList.6z5wxn0hlbe</v>
       </c>
+      <c r="B54" t="str">
+        <v>同步详情</v>
+      </c>
       <c r="C54" t="str">
         <v>同步详情</v>
       </c>
@@ -819,6 +978,9 @@
       <c r="A55" t="str">
         <v>ide.src.common.navList.popzae466x</v>
       </c>
+      <c r="B55" t="str">
+        <v>同步结果</v>
+      </c>
       <c r="C55" t="str">
         <v>同步结果</v>
       </c>
@@ -827,6 +989,9 @@
       <c r="A56" t="str">
         <v>ide.src.common.navList.f777ubhv3uk</v>
       </c>
+      <c r="B56" t="str">
+        <v>目的源管理</v>
+      </c>
       <c r="C56" t="str">
         <v>目的源管理</v>
       </c>
@@ -835,6 +1000,9 @@
       <c r="A57" t="str">
         <v>ide.src.common.navList.szfh0z4atrb</v>
       </c>
+      <c r="B57" t="str">
+        <v>目的源详情</v>
+      </c>
       <c r="C57" t="str">
         <v>目的源详情</v>
       </c>
@@ -843,6 +1011,9 @@
       <c r="A58" t="str">
         <v>ide.src.common.navList.fvd0xuxo22s</v>
       </c>
+      <c r="B58" t="str">
+        <v>公共模块</v>
+      </c>
       <c r="C58" t="str">
         <v>公共模块</v>
       </c>
@@ -851,6 +1022,9 @@
       <c r="A59" t="str">
         <v>ide.src.common.navList.uu6h9e6gaqq</v>
       </c>
+      <c r="B59" t="str">
+        <v>项目列表</v>
+      </c>
       <c r="C59" t="str">
         <v>项目列表</v>
       </c>
@@ -859,6 +1033,9 @@
       <c r="A60" t="str">
         <v>ide.src.common.navList.papz1oc75mi</v>
       </c>
+      <c r="B60" t="str">
+        <v>项目配置</v>
+      </c>
       <c r="C60" t="str">
         <v>项目配置</v>
       </c>
@@ -867,6 +1044,9 @@
       <c r="A61" t="str">
         <v>ide.src.common.navList.0ujwqvq35vi</v>
       </c>
+      <c r="B61" t="str">
+        <v>审批管理</v>
+      </c>
       <c r="C61" t="str">
         <v>审批管理</v>
       </c>
@@ -875,6 +1055,9 @@
       <c r="A62" t="str">
         <v>ide.src.common.navList.k354hf8mkg</v>
       </c>
+      <c r="B62" t="str">
+        <v>我的申请</v>
+      </c>
       <c r="C62" t="str">
         <v>我的申请</v>
       </c>
@@ -883,6 +1066,9 @@
       <c r="A63" t="str">
         <v>ide.src.common.navList.qocqf1s16e</v>
       </c>
+      <c r="B63" t="str">
+        <v>待我审批</v>
+      </c>
       <c r="C63" t="str">
         <v>待我审批</v>
       </c>
@@ -891,6 +1077,9 @@
       <c r="A64" t="str">
         <v>ide.src.common.navList.khg0gyovpy7</v>
       </c>
+      <c r="B64" t="str">
+        <v>我已审批</v>
+      </c>
       <c r="C64" t="str">
         <v>我已审批</v>
       </c>
@@ -899,6 +1088,9 @@
       <c r="A65" t="str">
         <v>ide.src.common.navList.z7iaipxmhrk</v>
       </c>
+      <c r="B65" t="str">
+        <v>可视化方案</v>
+      </c>
       <c r="C65" t="str">
         <v>可视化方案</v>
       </c>
@@ -907,6 +1099,9 @@
       <c r="A66" t="str">
         <v>ide.src.common.navList.vlaex0afh6e</v>
       </c>
+      <c r="B66" t="str">
+        <v>方案配置</v>
+      </c>
       <c r="C66" t="str">
         <v>方案配置</v>
       </c>
@@ -915,6 +1110,9 @@
       <c r="A67" t="str">
         <v>ide.src.common.navList.61na6elu3os</v>
       </c>
+      <c r="B67" t="str">
+        <v>方案详情</v>
+      </c>
       <c r="C67" t="str">
         <v>方案详情</v>
       </c>
@@ -923,6 +1121,9 @@
       <c r="A68" t="str">
         <v>ide.src.common.navList.15k7i49v1if</v>
       </c>
+      <c r="B68" t="str">
+        <v>衍生标签列表</v>
+      </c>
       <c r="C68" t="str">
         <v>衍生标签列表</v>
       </c>
@@ -931,6 +1132,9 @@
       <c r="A69" t="str">
         <v>ide.src.common.util.mpt4ptuae2s</v>
       </c>
+      <c r="B69" t="str">
+        <v>不能超过{max}个字符</v>
+      </c>
       <c r="C69" t="str">
         <v>不能超过{max}个字符</v>
       </c>
@@ -939,6 +1143,9 @@
       <c r="A70" t="str">
         <v>ide.src.common.util.d4u4r0px524</v>
       </c>
+      <c r="B70" t="str">
+        <v>格式不正确，允许输入中文/英文/数字/下划线/()</v>
+      </c>
       <c r="C70" t="str">
         <v>格式不正确，允许输入中文/英文/数字/下划线/()</v>
       </c>
@@ -947,6 +1154,9 @@
       <c r="A71" t="str">
         <v>ide.src.common.util.j8lka5wk2d</v>
       </c>
+      <c r="B71" t="str">
+        <v>不允许下划线开头</v>
+      </c>
       <c r="C71" t="str">
         <v>不允许下划线开头</v>
       </c>
@@ -955,6 +1165,9 @@
       <c r="A72" t="str">
         <v>ide.src.common.util.bkf8048nej</v>
       </c>
+      <c r="B72" t="str">
+        <v>不允许数栖开头</v>
+      </c>
       <c r="C72" t="str">
         <v>不允许数栖开头</v>
       </c>
@@ -963,6 +1176,9 @@
       <c r="A73" t="str">
         <v>ide.src.common.util.vbn5a21vyy</v>
       </c>
+      <c r="B73" t="str">
+        <v>格式不正确，允许输入英文/数字/下划线，必须以英文开头</v>
+      </c>
       <c r="C73" t="str">
         <v>格式不正确，允许输入英文/数字/下划线，必须以英文开头</v>
       </c>
@@ -971,6 +1187,9 @@
       <c r="A74" t="str">
         <v>ide.src.component.auth-box.auth-box1.r5dx4pm4hk</v>
       </c>
+      <c r="B74" t="str">
+        <v>需配置权限code</v>
+      </c>
       <c r="C74" t="str">
         <v>需配置权限code</v>
       </c>
@@ -979,6 +1198,9 @@
       <c r="A75" t="str">
         <v>ide.src.component.comp.search.w8q224fq9jt</v>
       </c>
+      <c r="B75" t="str">
+        <v>申请类型</v>
+      </c>
       <c r="C75" t="str">
         <v>申请类型</v>
       </c>
@@ -987,6 +1209,9 @@
       <c r="A76" t="str">
         <v>ide.src.component.comp.search.h5l3m6s8dn7</v>
       </c>
+      <c r="B76" t="str">
+        <v>所属项目</v>
+      </c>
       <c r="C76" t="str">
         <v>所属项目</v>
       </c>
@@ -995,6 +1220,9 @@
       <c r="A77" t="str">
         <v>ide.src.component.comp.search.e0mn12fihkg</v>
       </c>
+      <c r="B77" t="str">
+        <v>全部</v>
+      </c>
       <c r="C77" t="str">
         <v>全部</v>
       </c>
@@ -1003,6 +1231,9 @@
       <c r="A78" t="str">
         <v>ide.src.component.comp.search.bld1br247f</v>
       </c>
+      <c r="B78" t="str">
+        <v>申请时间</v>
+      </c>
       <c r="C78" t="str">
         <v>申请时间</v>
       </c>
@@ -1011,6 +1242,9 @@
       <c r="A79" t="str">
         <v>ide.src.component.comp.search.bvm9ca9vbu</v>
       </c>
+      <c r="B79" t="str">
+        <v>申请人</v>
+      </c>
       <c r="C79" t="str">
         <v>申请人</v>
       </c>
@@ -1019,6 +1253,9 @@
       <c r="A80" t="str">
         <v>ide.src.component.comp.search.plbscsdczmg</v>
       </c>
+      <c r="B80" t="str">
+        <v>申请状态</v>
+      </c>
       <c r="C80" t="str">
         <v>申请状态</v>
       </c>
@@ -1027,6 +1264,9 @@
       <c r="A81" t="str">
         <v>ide.src.component.comp.search.9dwmj8rn5ha</v>
       </c>
+      <c r="B81" t="str">
+        <v>申请内容</v>
+      </c>
       <c r="C81" t="str">
         <v>申请内容</v>
       </c>
@@ -1035,6 +1275,9 @@
       <c r="A82" t="str">
         <v>ide.src.component.detail-header.detail-header.u39g9giydpt</v>
       </c>
+      <c r="B82" t="str">
+        <v>描述：</v>
+      </c>
       <c r="C82" t="str">
         <v>描述：</v>
       </c>
@@ -1043,6 +1286,9 @@
       <c r="A83" t="str">
         <v>ide.src.component.form-component.40x2p26iwqa</v>
       </c>
+      <c r="B83" t="str">
+        <v>请输入{label}</v>
+      </c>
       <c r="C83" t="str">
         <v>请输入{label}</v>
       </c>
@@ -1051,6 +1297,9 @@
       <c r="A84" t="str">
         <v>ide.src.component.form-component.fu8yqpy5l1</v>
       </c>
+      <c r="B84" t="str">
+        <v>请选择{label}</v>
+      </c>
       <c r="C84" t="str">
         <v>请选择{label}</v>
       </c>
@@ -1059,6 +1308,9 @@
       <c r="A85" t="str">
         <v>ide.src.component.form-component.03xp8ux32s3a</v>
       </c>
+      <c r="B85" t="str">
+        <v>是</v>
+      </c>
       <c r="C85" t="str">
         <v>是</v>
       </c>
@@ -1067,6 +1319,9 @@
       <c r="A86" t="str">
         <v>ide.src.component.form-component.h7p1pcijouf</v>
       </c>
+      <c r="B86" t="str">
+        <v>否</v>
+      </c>
       <c r="C86" t="str">
         <v>否</v>
       </c>
@@ -1075,6 +1330,9 @@
       <c r="A87" t="str">
         <v>ide.src.component.form-component.bj8x5pmgnh</v>
       </c>
+      <c r="B87" t="str">
+        <v>输入不能超过32个字符</v>
+      </c>
       <c r="C87" t="str">
         <v>输入不能超过32个字符</v>
       </c>
@@ -1083,6 +1341,9 @@
       <c r="A88" t="str">
         <v>ide.src.component.form-component.8ftxftczpk7</v>
       </c>
+      <c r="B88" t="str">
+        <v>输入不能超过128个字符</v>
+      </c>
       <c r="C88" t="str">
         <v>输入不能超过128个字符</v>
       </c>
@@ -1091,6 +1352,9 @@
       <c r="A89" t="str">
         <v>ide.src.component.label-item.label-item.slnqvyqvv7</v>
       </c>
+      <c r="B89" t="str">
+        <v>编辑</v>
+      </c>
       <c r="C89" t="str">
         <v>编辑</v>
       </c>
@@ -1099,6 +1363,9 @@
       <c r="A90" t="str">
         <v>ide.src.component.list-content.list.yx24kr1o9ij</v>
       </c>
+      <c r="B90" t="str">
+        <v>合计{totalCount}条记录</v>
+      </c>
       <c r="C90" t="str">
         <v>合计{totalCount}条记录</v>
       </c>
@@ -1107,6 +1374,9 @@
       <c r="A91" t="str">
         <v>ide.src.component.list-content.search.m7y9nbekdco</v>
       </c>
+      <c r="B91" t="str">
+        <v>查询</v>
+      </c>
       <c r="C91" t="str">
         <v>查询</v>
       </c>
@@ -1115,6 +1385,9 @@
       <c r="A92" t="str">
         <v>ide.src.component.list-content.search.3yzvpuily5f</v>
       </c>
+      <c r="B92" t="str">
+        <v>重置</v>
+      </c>
       <c r="C92" t="str">
         <v>重置</v>
       </c>
@@ -1123,6 +1396,9 @@
       <c r="A93" t="str">
         <v>ide.src.component.modal-stroage-detail.main.mwdqg42vi</v>
       </c>
+      <c r="B93" t="str">
+        <v>名称</v>
+      </c>
       <c r="C93" t="str">
         <v>名称</v>
       </c>
@@ -1131,6 +1407,9 @@
       <c r="A94" t="str">
         <v>ide.src.component.modal-stroage-detail.main.s5yt1bpsch</v>
       </c>
+      <c r="B94" t="str">
+        <v>资源组</v>
+      </c>
       <c r="C94" t="str">
         <v>资源组</v>
       </c>
@@ -1139,6 +1418,9 @@
       <c r="A95" t="str">
         <v>ide.src.component.modal-stroage-detail.main.pstwvdyitir</v>
       </c>
+      <c r="B95" t="str">
+        <v>类型</v>
+      </c>
       <c r="C95" t="str">
         <v>类型</v>
       </c>
@@ -1147,6 +1429,9 @@
       <c r="A96" t="str">
         <v>ide.src.component.modal-stroage-detail.main.lko6v2zuhmq</v>
       </c>
+      <c r="B96" t="str">
+        <v>地址</v>
+      </c>
       <c r="C96" t="str">
         <v>地址</v>
       </c>
@@ -1155,6 +1440,9 @@
       <c r="A97" t="str">
         <v>ide.src.component.modal-stroage-detail.main.ik44jd7nhpb</v>
       </c>
+      <c r="B97" t="str">
+        <v>数据库</v>
+      </c>
       <c r="C97" t="str">
         <v>数据库</v>
       </c>
@@ -1163,6 +1451,9 @@
       <c r="A98" t="str">
         <v>ide.src.component.modal-stroage-detail.main.sxkhuy0rzpc</v>
       </c>
+      <c r="B98" t="str">
+        <v>用户名</v>
+      </c>
       <c r="C98" t="str">
         <v>用户名</v>
       </c>
@@ -1171,6 +1462,9 @@
       <c r="A99" t="str">
         <v>ide.src.component.modal-stroage-detail.main.lyqo7nv5t9h</v>
       </c>
+      <c r="B99" t="str">
+        <v>描述</v>
+      </c>
       <c r="C99" t="str">
         <v>描述</v>
       </c>
@@ -1179,6 +1473,9 @@
       <c r="A100" t="str">
         <v>ide.src.component.modal-stroage-detail.main.v6urtgjoxwd</v>
       </c>
+      <c r="B100" t="str">
+        <v>查看数据源</v>
+      </c>
       <c r="C100" t="str">
         <v>查看数据源</v>
       </c>
@@ -1187,6 +1484,9 @@
       <c r="A101" t="str">
         <v>ide.src.component.modal-stroage-detail.main.ph80bkiru5h</v>
       </c>
+      <c r="B101" t="str">
+        <v>关闭</v>
+      </c>
       <c r="C101" t="str">
         <v>关闭</v>
       </c>
@@ -1195,6 +1495,9 @@
       <c r="A102" t="str">
         <v>ide.src.component.noborder-input.noborder-input.xxeqxv2wh5</v>
       </c>
+      <c r="B102" t="str">
+        <v>请输入名称搜索</v>
+      </c>
       <c r="C102" t="str">
         <v>请输入名称搜索</v>
       </c>
@@ -1203,6 +1506,9 @@
       <c r="A103" t="str">
         <v>ide.src.component.project-provider.back-config.q1r9bbokqf9</v>
       </c>
+      <c r="B103" t="str">
+        <v>环境</v>
+      </c>
       <c r="C103" t="str">
         <v>环境</v>
       </c>
@@ -1211,6 +1517,9 @@
       <c r="A104" t="str">
         <v>ide.src.component.project-provider.back-config.jxcvund1fi</v>
       </c>
+      <c r="B104" t="str">
+        <v>环境配置</v>
+      </c>
       <c r="C104" t="str">
         <v>环境配置</v>
       </c>
@@ -1219,6 +1528,9 @@
       <c r="A105" t="str">
         <v>ide.src.component.project-provider.configModal.huo38php0h</v>
       </c>
+      <c r="B105" t="str">
+        <v>请选择</v>
+      </c>
       <c r="C105" t="str">
         <v>请选择</v>
       </c>
@@ -1227,6 +1539,9 @@
       <c r="A106" t="str">
         <v>ide.src.component.project-provider.configModal.nsvcxaje1d</v>
       </c>
+      <c r="B106" t="str">
+        <v>若无可用的环境，请到</v>
+      </c>
       <c r="C106" t="str">
         <v>若无可用的环境，请到</v>
       </c>
@@ -1235,6 +1550,9 @@
       <c r="A107" t="str">
         <v>ide.src.component.project-provider.configModal.6a8kalkyc5k</v>
       </c>
+      <c r="B107" t="str">
+        <v>项目管理-环境配置</v>
+      </c>
       <c r="C107" t="str">
         <v>项目管理-环境配置</v>
       </c>
@@ -1243,6 +1561,9 @@
       <c r="A108" t="str">
         <v>ide.src.component.project-provider.configModal.hwn5ae7rhkm</v>
       </c>
+      <c r="B108" t="str">
+        <v>中添加环境</v>
+      </c>
       <c r="C108" t="str">
         <v>中添加环境</v>
       </c>
@@ -1251,6 +1572,9 @@
       <c r="A109" t="str">
         <v>ide.src.component.project-provider.configModal.v4dizvi1i2</v>
       </c>
+      <c r="B109" t="str">
+        <v>初始化</v>
+      </c>
       <c r="C109" t="str">
         <v>初始化</v>
       </c>
@@ -1259,6 +1583,9 @@
       <c r="A110" t="str">
         <v>ide.src.component.project-provider.project-provider.x4k5gevdb1p</v>
       </c>
+      <c r="B110" t="str">
+        <v>无可用项目 去</v>
+      </c>
       <c r="C110" t="str">
         <v>无可用项目 去</v>
       </c>
@@ -1267,6 +1594,9 @@
       <c r="A111" t="str">
         <v>ide.src.component.project-provider.project-provider.454zmtzq66v</v>
       </c>
+      <c r="B111" t="str">
+        <v>项目管理</v>
+      </c>
       <c r="C111" t="str">
         <v>项目管理</v>
       </c>
@@ -1275,6 +1605,9 @@
       <c r="A112" t="str">
         <v>ide.src.component.project-provider.project-provider.vin2r66ukrj</v>
       </c>
+      <c r="B112" t="str">
+        <v>添加</v>
+      </c>
       <c r="C112" t="str">
         <v>添加</v>
       </c>
@@ -1283,6 +1616,9 @@
       <c r="A113" t="str">
         <v>ide.src.component.project-provider.project-provider.ms82mawvu1</v>
       </c>
+      <c r="B113" t="str">
+        <v>环境初始化成功</v>
+      </c>
       <c r="C113" t="str">
         <v>环境初始化成功</v>
       </c>
@@ -1291,6 +1627,9 @@
       <c r="A114" t="str">
         <v>ide.src.component.project-provider.project-provider.3m40uy2rt3i</v>
       </c>
+      <c r="B114" t="str">
+        <v>环境初始化失败</v>
+      </c>
       <c r="C114" t="str">
         <v>环境初始化失败</v>
       </c>
@@ -1299,6 +1638,9 @@
       <c r="A115" t="str">
         <v>ide.src.component.project-provider.project-provider.odc0bazjvxn</v>
       </c>
+      <c r="B115" t="str">
+        <v>后台配置</v>
+      </c>
       <c r="C115" t="str">
         <v>后台配置</v>
       </c>
@@ -1307,6 +1649,9 @@
       <c r="A116" t="str">
         <v>ide.src.component.project-provider.project-provider.nii0v2q34xd</v>
       </c>
+      <c r="B116" t="str">
+        <v>该项目下，标签中心的环境未初始化，请到</v>
+      </c>
       <c r="C116" t="str">
         <v>该项目下，标签中心的环境未初始化，请到</v>
       </c>
@@ -1315,6 +1660,9 @@
       <c r="A117" t="str">
         <v>ide.src.component.project-provider.project-provider.2dzlqg94wee</v>
       </c>
+      <c r="B117" t="str">
+        <v>后台配置-环境配置</v>
+      </c>
       <c r="C117" t="str">
         <v>后台配置-环境配置</v>
       </c>
@@ -1323,6 +1671,9 @@
       <c r="A118" t="str">
         <v>ide.src.component.project-provider.project-provider.tlo1so40hvf</v>
       </c>
+      <c r="B118" t="str">
+        <v>中初始化标签中心的环境</v>
+      </c>
       <c r="C118" t="str">
         <v>中初始化标签中心的环境</v>
       </c>
@@ -1331,6 +1682,9 @@
       <c r="A119" t="str">
         <v>ide.src.component.project-provider.project-provider.rzi2aqj07li</v>
       </c>
+      <c r="B119" t="str">
+        <v>初始化环境</v>
+      </c>
       <c r="C119" t="str">
         <v>初始化环境</v>
       </c>
@@ -1339,6 +1693,9 @@
       <c r="A120" t="str">
         <v>ide.src.component.project-provider.project-provider.zr9k0lkt2xj</v>
       </c>
+      <c r="B120" t="str">
+        <v>该项目下，标签中心的环境未初始化</v>
+      </c>
       <c r="C120" t="str">
         <v>该项目下，标签中心的环境未初始化</v>
       </c>
@@ -1347,6 +1704,9 @@
       <c r="A121" t="str">
         <v>ide.src.component.project-provider.project-provider.prabfw2c2x</v>
       </c>
+      <c r="B121" t="str">
+        <v>标签中心仅适配Hadoop集群</v>
+      </c>
       <c r="C121" t="str">
         <v>标签中心仅适配Hadoop集群</v>
       </c>
@@ -1355,6 +1715,9 @@
       <c r="A122" t="str">
         <v>ide.src.component.project-provider.store.2qjw8hay0zb</v>
       </c>
+      <c r="B122" t="str">
+        <v>初始化成功</v>
+      </c>
       <c r="C122" t="str">
         <v>初始化成功</v>
       </c>
@@ -1363,6 +1726,9 @@
       <c r="A123" t="str">
         <v>ide.src.component.status-img.status-img.w8tu0ta3x38</v>
       </c>
+      <c r="B123" t="str">
+        <v>有错误</v>
+      </c>
       <c r="C123" t="str">
         <v>有错误</v>
       </c>
@@ -1371,6 +1737,9 @@
       <c r="A124" t="str">
         <v>ide.src.component.tag.tag.ogvpoe5m3bg</v>
       </c>
+      <c r="B124" t="str">
+        <v>未使用</v>
+      </c>
       <c r="C124" t="str">
         <v>未使用</v>
       </c>
@@ -1379,6 +1748,9 @@
       <c r="A125" t="str">
         <v>ide.src.component.time-range.time-range.kxs7lnsi5kt</v>
       </c>
+      <c r="B125" t="str">
+        <v>时间设置</v>
+      </c>
       <c r="C125" t="str">
         <v>时间设置</v>
       </c>
@@ -1387,6 +1759,9 @@
       <c r="A126" t="str">
         <v>ide.src.component.time-range.time-range.fun3s4qcz29</v>
       </c>
+      <c r="B126" t="str">
+        <v>自定义</v>
+      </c>
       <c r="C126" t="str">
         <v>自定义</v>
       </c>
@@ -1395,6 +1770,9 @@
       <c r="A127" t="str">
         <v>ide.src.component.time-range.time-range.wkegjabbd2</v>
       </c>
+      <c r="B127" t="str">
+        <v>至</v>
+      </c>
       <c r="C127" t="str">
         <v>至</v>
       </c>
@@ -1403,6 +1781,9 @@
       <c r="A128" t="str">
         <v>ide.src.component.time-range.time-range.4ppflvb5etj</v>
       </c>
+      <c r="B128" t="str">
+        <v>最近7天</v>
+      </c>
       <c r="C128" t="str">
         <v>最近7天</v>
       </c>
@@ -1411,6 +1792,9 @@
       <c r="A129" t="str">
         <v>ide.src.component.time-range.time-range.7gd32bh9fxx</v>
       </c>
+      <c r="B129" t="str">
+        <v>最近30天</v>
+      </c>
       <c r="C129" t="str">
         <v>最近30天</v>
       </c>
@@ -1419,6 +1803,9 @@
       <c r="A130" t="str">
         <v>ide.src.index.0vfs5wb1tdjl</v>
       </c>
+      <c r="B130" t="str">
+        <v>审批中心</v>
+      </c>
       <c r="C130" t="str">
         <v>审批中心</v>
       </c>
@@ -1427,6 +1814,9 @@
       <c r="A131" t="str">
         <v>ide.src.page-common.approval.approved.main.1tcpwa6mu1</v>
       </c>
+      <c r="B131" t="str">
+        <v>操作</v>
+      </c>
       <c r="C131" t="str">
         <v>操作</v>
       </c>
@@ -1435,6 +1825,9 @@
       <c r="A132" t="str">
         <v>ide.src.page-common.approval.approved.main.yg5wf502tu</v>
       </c>
+      <c r="B132" t="str">
+        <v>查看详情</v>
+      </c>
       <c r="C132" t="str">
         <v>查看详情</v>
       </c>
@@ -1443,6 +1836,9 @@
       <c r="A133" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.t3wro86m2b</v>
       </c>
+      <c r="B133" t="str">
+        <v>非永久</v>
+      </c>
       <c r="C133" t="str">
         <v>非永久</v>
       </c>
@@ -1451,6 +1847,9 @@
       <c r="A134" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.5ltr1685i6c</v>
       </c>
+      <c r="B134" t="str">
+        <v>永久</v>
+      </c>
       <c r="C134" t="str">
         <v>永久</v>
       </c>
@@ -1459,6 +1858,9 @@
       <c r="A135" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.aykj300xgpu</v>
       </c>
+      <c r="B135" t="str">
+        <v>操作人</v>
+      </c>
       <c r="C135" t="str">
         <v>操作人</v>
       </c>
@@ -1467,6 +1869,9 @@
       <c r="A136" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.hk7pcchhcif</v>
       </c>
+      <c r="B136" t="str">
+        <v>操作时间</v>
+      </c>
       <c r="C136" t="str">
         <v>操作时间</v>
       </c>
@@ -1475,6 +1880,9 @@
       <c r="A137" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.nb8qntq7vug</v>
       </c>
+      <c r="B137" t="str">
+        <v>审批中</v>
+      </c>
       <c r="C137" t="str">
         <v>审批中</v>
       </c>
@@ -1483,6 +1891,9 @@
       <c r="A138" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.mf9x2yuz9r</v>
       </c>
+      <c r="B138" t="str">
+        <v>审批通过</v>
+      </c>
       <c r="C138" t="str">
         <v>审批通过</v>
       </c>
@@ -1491,6 +1902,9 @@
       <c r="A139" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.rngqapn411l</v>
       </c>
+      <c r="B139" t="str">
+        <v>审批不通过</v>
+      </c>
       <c r="C139" t="str">
         <v>审批不通过</v>
       </c>
@@ -1499,6 +1913,9 @@
       <c r="A140" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.2uelr28l96w</v>
       </c>
+      <c r="B140" t="str">
+        <v>已撤销</v>
+      </c>
       <c r="C140" t="str">
         <v>已撤销</v>
       </c>
@@ -1507,6 +1924,9 @@
       <c r="A141" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.krqu94eqqa</v>
       </c>
+      <c r="B141" t="str">
+        <v>申请信息</v>
+      </c>
       <c r="C141" t="str">
         <v>申请信息</v>
       </c>
@@ -1515,6 +1935,9 @@
       <c r="A142" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.csu4sgzdban</v>
       </c>
+      <c r="B142" t="str">
+        <v>权限归属</v>
+      </c>
       <c r="C142" t="str">
         <v>权限归属</v>
       </c>
@@ -1523,6 +1946,9 @@
       <c r="A143" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.4nobznc4k2w</v>
       </c>
+      <c r="B143" t="str">
+        <v>申请时长</v>
+      </c>
       <c r="C143" t="str">
         <v>申请时长</v>
       </c>
@@ -1531,6 +1957,9 @@
       <c r="A144" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.qskkf95ea1k</v>
       </c>
+      <c r="B144" t="str">
+        <v>申请理由</v>
+      </c>
       <c r="C144" t="str">
         <v>申请理由</v>
       </c>
@@ -1539,6 +1968,9 @@
       <c r="A145" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.5nya8zx0b8</v>
       </c>
+      <c r="B145" t="str">
+        <v>审批信息</v>
+      </c>
       <c r="C145" t="str">
         <v>审批信息</v>
       </c>
@@ -1547,6 +1979,9 @@
       <c r="A146" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.4yb7bvinvwv</v>
       </c>
+      <c r="B146" t="str">
+        <v>审批描述</v>
+      </c>
       <c r="C146" t="str">
         <v>审批描述</v>
       </c>
@@ -1555,6 +1990,9 @@
       <c r="A147" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.95e7aggc84w</v>
       </c>
+      <c r="B147" t="str">
+        <v>审批描述不可为空</v>
+      </c>
       <c r="C147" t="str">
         <v>审批描述不可为空</v>
       </c>
@@ -1563,6 +2001,9 @@
       <c r="A148" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-modal.pmbnoce2en</v>
       </c>
+      <c r="B148" t="str">
+        <v>请输入审批描述</v>
+      </c>
       <c r="C148" t="str">
         <v>请输入审批描述</v>
       </c>
@@ -1571,6 +2012,9 @@
       <c r="A149" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-status.xpk5ykezyb9</v>
       </c>
+      <c r="B149" t="str">
+        <v>审批未通过</v>
+      </c>
       <c r="C149" t="str">
         <v>审批未通过</v>
       </c>
@@ -1579,6 +2023,9 @@
       <c r="A150" t="str">
         <v>ide.src.page-common.approval.common.comp-approval-status.7w2tjfj53ix</v>
       </c>
+      <c r="B150" t="str">
+        <v>授权使用</v>
+      </c>
       <c r="C150" t="str">
         <v>授权使用</v>
       </c>
@@ -1587,6 +2034,9 @@
       <c r="A151" t="str">
         <v>ide.src.page-common.approval.my-requests.main.lx12rulh52h</v>
       </c>
+      <c r="B151" t="str">
+        <v>撤销</v>
+      </c>
       <c r="C151" t="str">
         <v>撤销</v>
       </c>
@@ -1595,6 +2045,9 @@
       <c r="A152" t="str">
         <v>ide.src.page-common.approval.my-requests.main.bdgrq9qdii</v>
       </c>
+      <c r="B152" t="str">
+        <v>撤销申请</v>
+      </c>
       <c r="C152" t="str">
         <v>撤销申请</v>
       </c>
@@ -1603,6 +2056,9 @@
       <c r="A153" t="str">
         <v>ide.src.page-common.approval.my-requests.modal-backout.9tx758kywlc</v>
       </c>
+      <c r="B153" t="str">
+        <v>描述不可为空</v>
+      </c>
       <c r="C153" t="str">
         <v>描述不可为空</v>
       </c>
@@ -1611,6 +2067,9 @@
       <c r="A154" t="str">
         <v>ide.src.page-common.approval.my-requests.modal-backout.ttfdehmnl3g</v>
       </c>
+      <c r="B154" t="str">
+        <v>请输入撤销申请描述</v>
+      </c>
       <c r="C154" t="str">
         <v>请输入撤销申请描述</v>
       </c>
@@ -1619,6 +2078,9 @@
       <c r="A155" t="str">
         <v>ide.src.page-common.approval.my-requests.store.ma910ajt74g</v>
       </c>
+      <c r="B155" t="str">
+        <v>撤销成功</v>
+      </c>
       <c r="C155" t="str">
         <v>撤销成功</v>
       </c>
@@ -1627,6 +2089,9 @@
       <c r="A156" t="str">
         <v>ide.src.page-common.approval.pending-approval.main.kdf7druy6o</v>
       </c>
+      <c r="B156" t="str">
+        <v>同意</v>
+      </c>
       <c r="C156" t="str">
         <v>同意</v>
       </c>
@@ -1635,6 +2100,9 @@
       <c r="A157" t="str">
         <v>ide.src.page-common.approval.pending-approval.main.4n513wpp10a</v>
       </c>
+      <c r="B157" t="str">
+        <v>拒绝</v>
+      </c>
       <c r="C157" t="str">
         <v>拒绝</v>
       </c>
@@ -1643,6 +2111,9 @@
       <c r="A158" t="str">
         <v>ide.src.page-common.approval.pending-approval.store.voydztk7y5m</v>
       </c>
+      <c r="B158" t="str">
+        <v>操作成功</v>
+      </c>
       <c r="C158" t="str">
         <v>操作成功</v>
       </c>
@@ -1651,6 +2122,9 @@
       <c r="A159" t="str">
         <v>ide.src.page-config.workspace-config.main.j2n3mkaqsw</v>
       </c>
+      <c r="B159" t="str">
+        <v>修改成功</v>
+      </c>
       <c r="C159" t="str">
         <v>修改成功</v>
       </c>
@@ -1659,6 +2133,9 @@
       <c r="A160" t="str">
         <v>ide.src.page-config.workspace-config.main.nwdqfz5kwj</v>
       </c>
+      <c r="B160" t="str">
+        <v>数据源名称</v>
+      </c>
       <c r="C160" t="str">
         <v>数据源名称</v>
       </c>
@@ -1667,6 +2144,9 @@
       <c r="A161" t="str">
         <v>ide.src.page-config.workspace-config.main.1b0l5lpgghm</v>
       </c>
+      <c r="B161" t="str">
+        <v>数据源类型</v>
+      </c>
       <c r="C161" t="str">
         <v>数据源类型</v>
       </c>
@@ -1675,6 +2155,9 @@
       <c r="A162" t="str">
         <v>ide.src.page-config.workspace-config.main.dd9xgr2e3he</v>
       </c>
+      <c r="B162" t="str">
+        <v>添加时间</v>
+      </c>
       <c r="C162" t="str">
         <v>添加时间</v>
       </c>
@@ -1683,6 +2166,9 @@
       <c r="A163" t="str">
         <v>ide.src.page-config.workspace-config.main.4eyw4o6e3dr</v>
       </c>
+      <c r="B163" t="str">
+        <v>使用状态</v>
+      </c>
       <c r="C163" t="str">
         <v>使用状态</v>
       </c>
@@ -1691,6 +2177,9 @@
       <c r="A164" t="str">
         <v>ide.src.page-config.workspace-config.main.ztbqzsc34bb</v>
       </c>
+      <c r="B164" t="str">
+        <v>使用中</v>
+      </c>
       <c r="C164" t="str">
         <v>使用中</v>
       </c>
@@ -1699,6 +2188,9 @@
       <c r="A165" t="str">
         <v>ide.src.page-config.workspace-config.main.i53j7u2d9hs</v>
       </c>
+      <c r="B165" t="str">
+        <v>移除</v>
+      </c>
       <c r="C165" t="str">
         <v>移除</v>
       </c>
@@ -1707,6 +2199,9 @@
       <c r="A166" t="str">
         <v>ide.src.page-config.workspace-config.main.8rob11wp0c</v>
       </c>
+      <c r="B166" t="str">
+        <v>你确定要移除该数据源吗？</v>
+      </c>
       <c r="C166" t="str">
         <v>你确定要移除该数据源吗？</v>
       </c>
@@ -1715,6 +2210,9 @@
       <c r="A167" t="str">
         <v>ide.src.page-config.workspace-config.main.91qopphasx</v>
       </c>
+      <c r="B167" t="str">
+        <v>添加成功</v>
+      </c>
       <c r="C167" t="str">
         <v>添加成功</v>
       </c>
@@ -1723,6 +2221,9 @@
       <c r="A168" t="str">
         <v>ide.src.page-config.workspace-config.main.e6ux8lx1pde</v>
       </c>
+      <c r="B168" t="str">
+        <v>移除成功</v>
+      </c>
       <c r="C168" t="str">
         <v>移除成功</v>
       </c>
@@ -1731,6 +2232,9 @@
       <c r="A169" t="str">
         <v>ide.src.page-config.workspace-config.main.vx86ea6qotd</v>
       </c>
+      <c r="B169" t="str">
+        <v>环境：</v>
+      </c>
       <c r="C169" t="str">
         <v>环境：</v>
       </c>
@@ -1739,6 +2243,9 @@
       <c r="A170" t="str">
         <v>ide.src.page-config.workspace-config.main.bfslcmhzzgi</v>
       </c>
+      <c r="B170" t="str">
+        <v>添加目的源</v>
+      </c>
       <c r="C170" t="str">
         <v>添加目的源</v>
       </c>
@@ -1747,6 +2254,9 @@
       <c r="A171" t="str">
         <v>ide.src.page-config.workspace-config.modal.b41d68h3bhg</v>
       </c>
+      <c r="B171" t="str">
+        <v>修改初始化</v>
+      </c>
       <c r="C171" t="str">
         <v>修改初始化</v>
       </c>
@@ -1755,6 +2265,9 @@
       <c r="A172" t="str">
         <v>ide.src.page-config.workspace-config.modal.xp905zufzth</v>
       </c>
+      <c r="B172" t="str">
+        <v>取消</v>
+      </c>
       <c r="C172" t="str">
         <v>取消</v>
       </c>
@@ -1763,6 +2276,9 @@
       <c r="A173" t="str">
         <v>ide.src.page-config.workspace-config.modal.wrk0nanr55b</v>
       </c>
+      <c r="B173" t="str">
+        <v>确定</v>
+      </c>
       <c r="C173" t="str">
         <v>确定</v>
       </c>
@@ -1771,6 +2287,9 @@
       <c r="A174" t="str">
         <v>ide.src.page-config.workspace-config.modal.rmrts2imzrk</v>
       </c>
+      <c r="B174" t="str">
+        <v>更改后原环境中的“标签体系、标签加工方案、标签同步计划、场景、</v>
+      </c>
       <c r="C174" t="str">
         <v>更改后原环境中的“标签体系、标签加工方案、标签同步计划、场景、</v>
       </c>
@@ -1779,6 +2298,9 @@
       <c r="A175" t="str">
         <v>ide.src.page-config.workspace-config.modal.jaknozm4pj</v>
       </c>
+      <c r="B175" t="str">
+        <v>我的查询、群体、API”都将会失效，请谨慎操作。</v>
+      </c>
       <c r="C175" t="str">
         <v>我的查询、群体、API”都将会失效，请谨慎操作。</v>
       </c>
@@ -1787,6 +2309,9 @@
       <c r="A176" t="str">
         <v>ide.src.page-config.workspace-config.modal.osxrfhrriz</v>
       </c>
+      <c r="B176" t="str">
+        <v>确认</v>
+      </c>
       <c r="C176" t="str">
         <v>确认</v>
       </c>
@@ -1795,6 +2320,9 @@
       <c r="A177" t="str">
         <v>ide.src.page-config.workspace-config.modal.rljhiqji2qs</v>
       </c>
+      <c r="B177" t="str">
+        <v>请选择环境</v>
+      </c>
       <c r="C177" t="str">
         <v>请选择环境</v>
       </c>
@@ -1803,6 +2331,9 @@
       <c r="A178" t="str">
         <v>ide.src.page-config.workspace-config.source-modal.tqu6sqn0s9j</v>
       </c>
+      <c r="B178" t="str">
+        <v>数据源已存在</v>
+      </c>
       <c r="C178" t="str">
         <v>数据源已存在</v>
       </c>
@@ -1811,6 +2342,9 @@
       <c r="A179" t="str">
         <v>ide.src.page-config.workspace-config.source-modal.sexnlhau4v</v>
       </c>
+      <c r="B179" t="str">
+        <v>请选择数据源类型</v>
+      </c>
       <c r="C179" t="str">
         <v>请选择数据源类型</v>
       </c>
@@ -1819,6 +2353,9 @@
       <c r="A180" t="str">
         <v>ide.src.page-config.workspace-config.source-modal.0oev0nqwsxun</v>
       </c>
+      <c r="B180" t="str">
+        <v>请选择数据源</v>
+      </c>
       <c r="C180" t="str">
         <v>请选择数据源</v>
       </c>
@@ -1827,6 +2364,9 @@
       <c r="A181" t="str">
         <v>ide.src.page-config.workspace-config.source-modal.xf669s6ye29</v>
       </c>
+      <c r="B181" t="str">
+        <v>若无可用的数据源，请到</v>
+      </c>
       <c r="C181" t="str">
         <v>若无可用的数据源，请到</v>
       </c>
@@ -1835,6 +2375,9 @@
       <c r="A182" t="str">
         <v>ide.src.page-config.workspace-config.source-modal.ch9vabxr7gd</v>
       </c>
+      <c r="B182" t="str">
+        <v>中添加数据源</v>
+      </c>
       <c r="C182" t="str">
         <v>中添加数据源</v>
       </c>
@@ -1843,6 +2386,9 @@
       <c r="A183" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.yjl6a0fdf2l</v>
       </c>
+      <c r="B183" t="str">
+        <v>字段列表</v>
+      </c>
       <c r="C183" t="str">
         <v>字段列表</v>
       </c>
@@ -1851,6 +2397,9 @@
       <c r="A184" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.tnm2e3sy0xa</v>
       </c>
+      <c r="B184" t="str">
+        <v>未映射</v>
+      </c>
       <c r="C184" t="str">
         <v>未映射</v>
       </c>
@@ -1859,6 +2408,9 @@
       <c r="A185" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.spk572wrny</v>
       </c>
+      <c r="B185" t="str">
+        <v>已映射</v>
+      </c>
       <c r="C185" t="str">
         <v>已映射</v>
       </c>
@@ -1867,6 +2419,9 @@
       <c r="A186" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.0w580oiww7pj</v>
       </c>
+      <c r="B186" t="str">
+        <v>字段描述</v>
+      </c>
       <c r="C186" t="str">
         <v>字段描述</v>
       </c>
@@ -1875,6 +2430,9 @@
       <c r="A187" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.9apxlnm9ue</v>
       </c>
+      <c r="B187" t="str">
+        <v>映射状态</v>
+      </c>
       <c r="C187" t="str">
         <v>映射状态</v>
       </c>
@@ -1883,6 +2441,9 @@
       <c r="A188" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.16o5qwy427p</v>
       </c>
+      <c r="B188" t="str">
+        <v>标签状态</v>
+      </c>
       <c r="C188" t="str">
         <v>标签状态</v>
       </c>
@@ -1891,6 +2452,9 @@
       <c r="A189" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.6iq9u8qb0ta</v>
       </c>
+      <c r="B189" t="str">
+        <v>已使用</v>
+      </c>
       <c r="C189" t="str">
         <v>已使用</v>
       </c>
@@ -1899,6 +2463,9 @@
       <c r="A190" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.63kvhqd3cw8</v>
       </c>
+      <c r="B190" t="str">
+        <v>标签名称</v>
+      </c>
       <c r="C190" t="str">
         <v>标签名称</v>
       </c>
@@ -1907,6 +2474,9 @@
       <c r="A191" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.b5l07cksuhm</v>
       </c>
+      <c r="B191" t="str">
+        <v>取消映射</v>
+      </c>
       <c r="C191" t="str">
         <v>取消映射</v>
       </c>
@@ -1915,6 +2485,9 @@
       <c r="A192" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.5h7cg2et1e2</v>
       </c>
+      <c r="B192" t="str">
+        <v>你确定要取消该字段的标签映射吗？</v>
+      </c>
       <c r="C192" t="str">
         <v>你确定要取消该字段的标签映射吗？</v>
       </c>
@@ -1923,6 +2496,9 @@
       <c r="A193" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.6pm0gqavven</v>
       </c>
+      <c r="B193" t="str">
+        <v>标签映射</v>
+      </c>
       <c r="C193" t="str">
         <v>标签映射</v>
       </c>
@@ -1931,6 +2507,9 @@
       <c r="A194" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.64wlzv1scpk</v>
       </c>
+      <c r="B194" t="str">
+        <v>同步对象</v>
+      </c>
       <c r="C194" t="str">
         <v>同步对象</v>
       </c>
@@ -1939,6 +2518,9 @@
       <c r="A195" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.ixa3qz2l6ie</v>
       </c>
+      <c r="B195" t="str">
+        <v>创建人</v>
+      </c>
       <c r="C195" t="str">
         <v>创建人</v>
       </c>
@@ -1947,6 +2529,9 @@
       <c r="A196" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.2vp94m4091h</v>
       </c>
+      <c r="B196" t="str">
+        <v>创建时间</v>
+      </c>
       <c r="C196" t="str">
         <v>创建时间</v>
       </c>
@@ -1955,6 +2540,9 @@
       <c r="A197" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.vzwvcfbgza</v>
       </c>
+      <c r="B197" t="str">
+        <v>目的表</v>
+      </c>
       <c r="C197" t="str">
         <v>目的表</v>
       </c>
@@ -1963,6 +2551,9 @@
       <c r="A198" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.tnko2ugpk7b</v>
       </c>
+      <c r="B198" t="str">
+        <v>请选择映射状态</v>
+      </c>
       <c r="C198" t="str">
         <v>请选择映射状态</v>
       </c>
@@ -1971,6 +2562,9 @@
       <c r="A199" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.main.gjtfxx6mbd</v>
       </c>
+      <c r="B199" t="str">
+        <v>请输入字段名称</v>
+      </c>
       <c r="C199" t="str">
         <v>请输入字段名称</v>
       </c>
@@ -1979,6 +2573,9 @@
       <c r="A200" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.modal.hdb36gt6rzf</v>
       </c>
+      <c r="B200" t="str">
+        <v>对象</v>
+      </c>
       <c r="C200" t="str">
         <v>对象</v>
       </c>
@@ -1987,6 +2584,9 @@
       <c r="A201" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.store.1kfmsl0hvys</v>
       </c>
+      <c r="B201" t="str">
+        <v>映射成功</v>
+      </c>
       <c r="C201" t="str">
         <v>映射成功</v>
       </c>
@@ -1995,6 +2595,9 @@
       <c r="A202" t="str">
         <v>ide.src.page-manage.page-aim-source.source-detail.store.w8sdt1vhiqg</v>
       </c>
+      <c r="B202" t="str">
+        <v>取消映射成功</v>
+      </c>
       <c r="C202" t="str">
         <v>取消映射成功</v>
       </c>
@@ -2003,6 +2606,9 @@
       <c r="A203" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.drawer.r6g2nr788q8</v>
       </c>
+      <c r="B203" t="str">
+        <v>新建目的源</v>
+      </c>
       <c r="C203" t="str">
         <v>新建目的源</v>
       </c>
@@ -2011,6 +2617,9 @@
       <c r="A204" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.drawer.u411cezuxlh</v>
       </c>
+      <c r="B204" t="str">
+        <v>目的源名称</v>
+      </c>
       <c r="C204" t="str">
         <v>目的源名称</v>
       </c>
@@ -2019,6 +2628,9 @@
       <c r="A205" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.drawer.nbl76uy5t6i</v>
       </c>
+      <c r="B205" t="str">
+        <v>目的源名称不能为空</v>
+      </c>
       <c r="C205" t="str">
         <v>目的源名称不能为空</v>
       </c>
@@ -2027,6 +2639,9 @@
       <c r="A206" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.drawer.vmwa9tf76i</v>
       </c>
+      <c r="B206" t="str">
+        <v>请输入目的源名称</v>
+      </c>
       <c r="C206" t="str">
         <v>请输入目的源名称</v>
       </c>
@@ -2035,6 +2650,9 @@
       <c r="A207" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.drawer.6973zbnt1wk</v>
       </c>
+      <c r="B207" t="str">
+        <v>请选择同步对象</v>
+      </c>
       <c r="C207" t="str">
         <v>请选择同步对象</v>
       </c>
@@ -2043,6 +2661,9 @@
       <c r="A208" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.drawer.5u6m68xs7v6</v>
       </c>
+      <c r="B208" t="str">
+        <v>方案描述</v>
+      </c>
       <c r="C208" t="str">
         <v>方案描述</v>
       </c>
@@ -2051,6 +2672,9 @@
       <c r="A209" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.drawer.t3bend5cdmq</v>
       </c>
+      <c r="B209" t="str">
+        <v>请输入方案描述</v>
+      </c>
       <c r="C209" t="str">
         <v>请输入方案描述</v>
       </c>
@@ -2059,6 +2683,9 @@
       <c r="A210" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.drawer.ywu4do2altd</v>
       </c>
+      <c r="B210" t="str">
+        <v>请选择目的表</v>
+      </c>
       <c r="C210" t="str">
         <v>请选择目的表</v>
       </c>
@@ -2067,6 +2694,9 @@
       <c r="A211" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.drawer.5ynyp00ian4</v>
       </c>
+      <c r="B211" t="str">
+        <v>请选择主标签绑定的字段</v>
+      </c>
       <c r="C211" t="str">
         <v>请选择主标签绑定的字段</v>
       </c>
@@ -2075,6 +2705,9 @@
       <c r="A212" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.main.bh6e3tzii5</v>
       </c>
+      <c r="B212" t="str">
+        <v>数据表</v>
+      </c>
       <c r="C212" t="str">
         <v>数据表</v>
       </c>
@@ -2083,6 +2716,9 @@
       <c r="A213" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.main.314snpt0uf6</v>
       </c>
+      <c r="B213" t="str">
+        <v>已映射/字段数</v>
+      </c>
       <c r="C213" t="str">
         <v>已映射/字段数</v>
       </c>
@@ -2091,6 +2727,9 @@
       <c r="A214" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.main.nfmxnys5ozt</v>
       </c>
+      <c r="B214" t="str">
+        <v>已被使用</v>
+      </c>
       <c r="C214" t="str">
         <v>已被使用</v>
       </c>
@@ -2099,6 +2738,9 @@
       <c r="A215" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.main.sv51d9olqdi</v>
       </c>
+      <c r="B215" t="str">
+        <v>删除</v>
+      </c>
       <c r="C215" t="str">
         <v>删除</v>
       </c>
@@ -2107,6 +2749,9 @@
       <c r="A216" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.main.uaj8a3mq69</v>
       </c>
+      <c r="B216" t="str">
+        <v>你确定要删除该目的源吗？</v>
+      </c>
       <c r="C216" t="str">
         <v>你确定要删除该目的源吗？</v>
       </c>
@@ -2115,6 +2760,9 @@
       <c r="A217" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.search.6101doefae8</v>
       </c>
+      <c r="B217" t="str">
+        <v>请输入目的源名称关键字</v>
+      </c>
       <c r="C217" t="str">
         <v>请输入目的源名称关键字</v>
       </c>
@@ -2123,6 +2771,9 @@
       <c r="A218" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.store.gzikr4o96re</v>
       </c>
+      <c r="B218" t="str">
+        <v>新建成功</v>
+      </c>
       <c r="C218" t="str">
         <v>新建成功</v>
       </c>
@@ -2131,6 +2782,9 @@
       <c r="A219" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.store.hz4myn73qbp</v>
       </c>
+      <c r="B219" t="str">
+        <v>删除成功</v>
+      </c>
       <c r="C219" t="str">
         <v>删除成功</v>
       </c>
@@ -2139,6 +2793,9 @@
       <c r="A220" t="str">
         <v>ide.src.page-manage.page-aim-source.source-list.store.o07pkyecrw</v>
       </c>
+      <c r="B220" t="str">
+        <v>名称已存在</v>
+      </c>
       <c r="C220" t="str">
         <v>名称已存在</v>
       </c>
@@ -2147,6 +2804,9 @@
       <c r="A221" t="str">
         <v>ide.src.page-manage.page-aim-source.tag-config.main.2vfpdytl49n</v>
       </c>
+      <c r="B221" t="str">
+        <v>所属对象</v>
+      </c>
       <c r="C221" t="str">
         <v>所属对象</v>
       </c>
@@ -2155,6 +2815,9 @@
       <c r="A222" t="str">
         <v>ide.src.page-manage.page-aim-source.tag-config.main.ew4yksxl3s</v>
       </c>
+      <c r="B222" t="str">
+        <v>字段名</v>
+      </c>
       <c r="C222" t="str">
         <v>字段名</v>
       </c>
@@ -2163,6 +2826,9 @@
       <c r="A223" t="str">
         <v>ide.src.page-manage.page-aim-source.tag-config.main.npdy40q0f2</v>
       </c>
+      <c r="B223" t="str">
+        <v>字段标识</v>
+      </c>
       <c r="C223" t="str">
         <v>字段标识</v>
       </c>
@@ -2171,6 +2837,9 @@
       <c r="A224" t="str">
         <v>ide.src.page-manage.page-aim-source.tag-config.main.4vdaf0u39s9</v>
       </c>
+      <c r="B224" t="str">
+        <v>字段：</v>
+      </c>
       <c r="C224" t="str">
         <v>字段：</v>
       </c>
@@ -2179,6 +2848,9 @@
       <c r="A225" t="str">
         <v>ide.src.page-manage.page-aim-source.tag-config.main.rixtmuv1sg</v>
       </c>
+      <c r="B225" t="str">
+        <v>标签：</v>
+      </c>
       <c r="C225" t="str">
         <v>标签：</v>
       </c>
@@ -2187,6 +2859,9 @@
       <c r="A226" t="str">
         <v>ide.src.page-manage.page-aim-source.tag-config.main.5l9g09wegwb</v>
       </c>
+      <c r="B226" t="str">
+        <v>{mappingDataFieldName}(字段)与{mappingTagName}(标签)数据类型不匹配， 绑定失败</v>
+      </c>
       <c r="C226" t="str">
         <v>{mappingDataFieldName}(字段)与{mappingTagName}(标签)数据类型不匹配， 绑定失败</v>
       </c>
@@ -2195,6 +2870,9 @@
       <c r="A227" t="str">
         <v>ide.src.page-manage.page-aim-source.tag-config.store.82gceg0du65</v>
       </c>
+      <c r="B227" t="str">
+        <v>操作失败</v>
+      </c>
       <c r="C227" t="str">
         <v>操作失败</v>
       </c>
@@ -2203,6 +2881,9 @@
       <c r="A228" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.list.imf5yhtwj8c</v>
       </c>
+      <c r="B228" t="str">
+        <v>有权限</v>
+      </c>
       <c r="C228" t="str">
         <v>有权限</v>
       </c>
@@ -2211,6 +2892,9 @@
       <c r="A229" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.list.bty454nguz</v>
       </c>
+      <c r="B229" t="str">
+        <v>租户</v>
+      </c>
       <c r="C229" t="str">
         <v>租户</v>
       </c>
@@ -2219,6 +2903,9 @@
       <c r="A230" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.list.0ho0lb3mlo86</v>
       </c>
+      <c r="B230" t="str">
+        <v>申请</v>
+      </c>
       <c r="C230" t="str">
         <v>申请</v>
       </c>
@@ -2227,6 +2914,9 @@
       <c r="A231" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.list.hkbkoz3q5y</v>
       </c>
+      <c r="B231" t="str">
+        <v>批量申请({rowKeysLength})</v>
+      </c>
       <c r="C231" t="str">
         <v>批量申请({rowKeysLength})</v>
       </c>
@@ -2235,6 +2925,9 @@
       <c r="A232" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.modal.cgf5yip49xe</v>
       </c>
+      <c r="B232" t="str">
+        <v>标签申请</v>
+      </c>
       <c r="C232" t="str">
         <v>标签申请</v>
       </c>
@@ -2243,6 +2936,9 @@
       <c r="A233" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.modal.1ryjx988194</v>
       </c>
+      <c r="B233" t="str">
+        <v>选择的标签</v>
+      </c>
       <c r="C233" t="str">
         <v>选择的标签</v>
       </c>
@@ -2251,6 +2947,9 @@
       <c r="A234" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.modal.0snlii7b6ll</v>
       </c>
+      <c r="B234" t="str">
+        <v>使用项目</v>
+      </c>
       <c r="C234" t="str">
         <v>使用项目</v>
       </c>
@@ -2259,6 +2958,9 @@
       <c r="A235" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.modal.g9fsitnnhb</v>
       </c>
+      <c r="B235" t="str">
+        <v>请选择申请时长</v>
+      </c>
       <c r="C235" t="str">
         <v>请选择申请时长</v>
       </c>
@@ -2267,6 +2969,9 @@
       <c r="A236" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.modal.2kpo3ify5lj</v>
       </c>
+      <c r="B236" t="str">
+        <v>自定义时长</v>
+      </c>
       <c r="C236" t="str">
         <v>自定义时长</v>
       </c>
@@ -2275,6 +2980,9 @@
       <c r="A237" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.modal.v8jpa624wk</v>
       </c>
+      <c r="B237" t="str">
+        <v>请选择自定义时长</v>
+      </c>
       <c r="C237" t="str">
         <v>请选择自定义时长</v>
       </c>
@@ -2283,6 +2991,9 @@
       <c r="A238" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.modal.533ni2z1rta</v>
       </c>
+      <c r="B238" t="str">
+        <v>请选择申请时间</v>
+      </c>
       <c r="C238" t="str">
         <v>请选择申请时间</v>
       </c>
@@ -2291,6 +3002,9 @@
       <c r="A239" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.modal.6lbexqjjvlf</v>
       </c>
+      <c r="B239" t="str">
+        <v>请输入申请理由</v>
+      </c>
       <c r="C239" t="str">
         <v>请输入申请理由</v>
       </c>
@@ -2299,6 +3013,9 @@
       <c r="A240" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.search.1t6olgootk4j</v>
       </c>
+      <c r="B240" t="str">
+        <v>未申请</v>
+      </c>
       <c r="C240" t="str">
         <v>未申请</v>
       </c>
@@ -2307,6 +3024,9 @@
       <c r="A241" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.search.6ohvobkx2kg</v>
       </c>
+      <c r="B241" t="str">
+        <v>请输入搜索关键词</v>
+      </c>
       <c r="C241" t="str">
         <v>请输入搜索关键词</v>
       </c>
@@ -2315,6 +3035,9 @@
       <c r="A242" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.search.mm14ehjy90e</v>
       </c>
+      <c r="B242" t="str">
+        <v>搜索</v>
+      </c>
       <c r="C242" t="str">
         <v>搜索</v>
       </c>
@@ -2323,6 +3046,9 @@
       <c r="A243" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.search.84qb5v0ewny</v>
       </c>
+      <c r="B243" t="str">
+        <v>权限状态</v>
+      </c>
       <c r="C243" t="str">
         <v>权限状态</v>
       </c>
@@ -2331,6 +3057,9 @@
       <c r="A244" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.tab.hl9dz7f8p4j</v>
       </c>
+      <c r="B244" t="str">
+        <v>公共标签</v>
+      </c>
       <c r="C244" t="str">
         <v>公共标签</v>
       </c>
@@ -2339,6 +3068,9 @@
       <c r="A245" t="str">
         <v>ide.src.page-manage.page-common-tag.common-tag.tab.ibmbvhhebg</v>
       </c>
+      <c r="B245" t="str">
+        <v>标签体系</v>
+      </c>
       <c r="C245" t="str">
         <v>标签体系</v>
       </c>
@@ -2347,6 +3079,9 @@
       <c r="A246" t="str">
         <v>ide.src.page-manage.page-common-tag.detail.main.ilm7zazygy</v>
       </c>
+      <c r="B246" t="str">
+        <v>是否枚举</v>
+      </c>
       <c r="C246" t="str">
         <v>是否枚举</v>
       </c>
@@ -2355,6 +3090,9 @@
       <c r="A247" t="str">
         <v>ide.src.page-manage.page-common-tag.detail.main.hv8quje3qk</v>
       </c>
+      <c r="B247" t="str">
+        <v>创建者</v>
+      </c>
       <c r="C247" t="str">
         <v>创建者</v>
       </c>
@@ -2363,6 +3101,9 @@
       <c r="A248" t="str">
         <v>ide.src.page-manage.page-common-tag.detail.main.2ziwjluj78c</v>
       </c>
+      <c r="B248" t="str">
+        <v>绑定方式</v>
+      </c>
       <c r="C248" t="str">
         <v>绑定方式</v>
       </c>
@@ -2371,6 +3112,9 @@
       <c r="A249" t="str">
         <v>ide.src.page-manage.page-common-tag.detail.main.mfs279f7xcc</v>
       </c>
+      <c r="B249" t="str">
+        <v>衍生标签</v>
+      </c>
       <c r="C249" t="str">
         <v>衍生标签</v>
       </c>
@@ -2379,6 +3123,9 @@
       <c r="A250" t="str">
         <v>ide.src.page-manage.page-common-tag.detail.main.vwwmvcib39m</v>
       </c>
+      <c r="B250" t="str">
+        <v>基础标签</v>
+      </c>
       <c r="C250" t="str">
         <v>基础标签</v>
       </c>
@@ -2387,6 +3134,9 @@
       <c r="A251" t="str">
         <v>ide.src.page-manage.page-common-tag.detail.main.dz497pguc9</v>
       </c>
+      <c r="B251" t="str">
+        <v>主标签</v>
+      </c>
       <c r="C251" t="str">
         <v>主标签</v>
       </c>
@@ -2395,6 +3145,9 @@
       <c r="A252" t="str">
         <v>ide.src.page-manage.page-object-model.detail.q19x51sjr7</v>
       </c>
+      <c r="B252" t="str">
+        <v>对象标识</v>
+      </c>
       <c r="C252" t="str">
         <v>对象标识</v>
       </c>
@@ -2403,6 +3156,9 @@
       <c r="A253" t="str">
         <v>ide.src.page-manage.page-object-model.detail.qksgujny9q</v>
       </c>
+      <c r="B253" t="str">
+        <v>对象类型</v>
+      </c>
       <c r="C253" t="str">
         <v>对象类型</v>
       </c>
@@ -2411,6 +3167,9 @@
       <c r="A254" t="str">
         <v>ide.src.page-manage.page-object-model.detail.ml3nv2hkkdo</v>
       </c>
+      <c r="B254" t="str">
+        <v>对象类目</v>
+      </c>
       <c r="C254" t="str">
         <v>对象类目</v>
       </c>
@@ -2419,6 +3178,9 @@
       <c r="A255" t="str">
         <v>ide.src.page-manage.page-object-model.detail.3fpa4r1400q</v>
       </c>
+      <c r="B255" t="str">
+        <v>待发布</v>
+      </c>
       <c r="C255" t="str">
         <v>待发布</v>
       </c>
@@ -2427,6 +3189,9 @@
       <c r="A256" t="str">
         <v>ide.src.page-manage.page-object-model.detail.xs4lzzgw79d</v>
       </c>
+      <c r="B256" t="str">
+        <v>发布</v>
+      </c>
       <c r="C256" t="str">
         <v>发布</v>
       </c>
@@ -2435,6 +3200,9 @@
       <c r="A257" t="str">
         <v>ide.src.page-manage.page-object-model.detail.mayalaiwna</v>
       </c>
+      <c r="B257" t="str">
+        <v>已发布</v>
+      </c>
       <c r="C257" t="str">
         <v>已发布</v>
       </c>
@@ -2443,6 +3211,9 @@
       <c r="A258" t="str">
         <v>ide.src.page-manage.page-object-model.detail.a24dcsgx9g8</v>
       </c>
+      <c r="B258" t="str">
+        <v>取消发布</v>
+      </c>
       <c r="C258" t="str">
         <v>取消发布</v>
       </c>
@@ -2451,6 +3222,9 @@
       <c r="A259" t="str">
         <v>ide.src.page-manage.page-object-model.detail.9o263cdwzol</v>
       </c>
+      <c r="B259" t="str">
+        <v>标签类目</v>
+      </c>
       <c r="C259" t="str">
         <v>标签类目</v>
       </c>
@@ -2459,6 +3233,9 @@
       <c r="A260" t="str">
         <v>ide.src.page-manage.page-object-model.detail.aksa7mk6v55</v>
       </c>
+      <c r="B260" t="str">
+        <v>{typeCodeMap2}总数</v>
+      </c>
       <c r="C260" t="str">
         <v>{typeCodeMap2}总数</v>
       </c>
@@ -2467,6 +3244,9 @@
       <c r="A261" t="str">
         <v>ide.src.page-manage.page-object-model.detail.jhbpjoxq84</v>
       </c>
+      <c r="B261" t="str">
+        <v>跟该{typeCodeMap1}相关的{typeCodeMap2}总数</v>
+      </c>
       <c r="C261" t="str">
         <v>跟该{typeCodeMap1}相关的{typeCodeMap2}总数</v>
       </c>
@@ -2475,6 +3255,9 @@
       <c r="A262" t="str">
         <v>ide.src.page-manage.page-object-model.detail.pl1ceawzje9</v>
       </c>
+      <c r="B262" t="str">
+        <v>相关项目数</v>
+      </c>
       <c r="C262" t="str">
         <v>相关项目数</v>
       </c>
@@ -2483,6 +3266,9 @@
       <c r="A263" t="str">
         <v>ide.src.page-manage.page-object-model.detail.t4h6rz6gex9</v>
       </c>
+      <c r="B263" t="str">
+        <v>使用该对象的项目总数</v>
+      </c>
       <c r="C263" t="str">
         <v>使用该对象的项目总数</v>
       </c>
@@ -2491,6 +3277,9 @@
       <c r="A264" t="str">
         <v>ide.src.page-manage.page-object-model.detail.wih18jbc78</v>
       </c>
+      <c r="B264" t="str">
+        <v>数据表数</v>
+      </c>
       <c r="C264" t="str">
         <v>数据表数</v>
       </c>
@@ -2499,6 +3288,9 @@
       <c r="A265" t="str">
         <v>ide.src.page-manage.page-object-model.detail.20ysvy4w8zt</v>
       </c>
+      <c r="B265" t="str">
+        <v>该对象绑定的数据表总数</v>
+      </c>
       <c r="C265" t="str">
         <v>该对象绑定的数据表总数</v>
       </c>
@@ -2507,6 +3299,9 @@
       <c r="A266" t="str">
         <v>ide.src.page-manage.page-object-model.detail.oq3u9e6e36</v>
       </c>
+      <c r="B266" t="str">
+        <v>标签总数</v>
+      </c>
       <c r="C266" t="str">
         <v>标签总数</v>
       </c>
@@ -2515,6 +3310,9 @@
       <c r="A267" t="str">
         <v>ide.src.page-manage.page-object-model.detail.jjhghyku4sk</v>
       </c>
+      <c r="B267" t="str">
+        <v>已发布的标签总数</v>
+      </c>
       <c r="C267" t="str">
         <v>已发布的标签总数</v>
       </c>
@@ -2523,6 +3321,9 @@
       <c r="A268" t="str">
         <v>ide.src.page-manage.page-object-model.detail.rnj5knhzw8</v>
       </c>
+      <c r="B268" t="str">
+        <v>对象视图</v>
+      </c>
       <c r="C268" t="str">
         <v>对象视图</v>
       </c>
@@ -2531,6 +3332,9 @@
       <c r="A269" t="str">
         <v>ide.src.page-manage.page-object-model.main.5th4b1lc22f</v>
       </c>
+      <c r="B269" t="str">
+        <v>没有任何对象，请在当前页面新建对象！</v>
+      </c>
       <c r="C269" t="str">
         <v>没有任何对象，请在当前页面新建对象！</v>
       </c>
@@ -2539,6 +3343,9 @@
       <c r="A270" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.data-table.dj3ldmburap</v>
       </c>
+      <c r="B270" t="str">
+        <v>添加项目</v>
+      </c>
       <c r="C270" t="str">
         <v>添加项目</v>
       </c>
@@ -2547,6 +3354,9 @@
       <c r="A271" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.data-table.u90bcgs8ckr</v>
       </c>
+      <c r="B271" t="str">
+        <v>标签数/字段数</v>
+      </c>
       <c r="C271" t="str">
         <v>标签数/字段数</v>
       </c>
@@ -2555,6 +3365,9 @@
       <c r="A272" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.data-table.krv1lhnv6t</v>
       </c>
+      <c r="B272" t="str">
+        <v>多表关联模式设置</v>
+      </c>
       <c r="C272" t="str">
         <v>多表关联模式设置</v>
       </c>
@@ -2563,6 +3376,9 @@
       <c r="A273" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.data-table.88hgvqh24rm</v>
       </c>
+      <c r="B273" t="str">
+        <v>请输入数据表名称关键字</v>
+      </c>
       <c r="C273" t="str">
         <v>请输入数据表名称关键字</v>
       </c>
@@ -2571,6 +3387,9 @@
       <c r="A274" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.drawer-create.4t6c1m6rpnr</v>
       </c>
+      <c r="B274" t="str">
+        <v>所属类目</v>
+      </c>
       <c r="C274" t="str">
         <v>所属类目</v>
       </c>
@@ -2579,6 +3398,9 @@
       <c r="A275" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.drawer-create.7g6e5biv0hp</v>
       </c>
+      <c r="B275" t="str">
+        <v>枚举显示值</v>
+      </c>
       <c r="C275" t="str">
         <v>枚举显示值</v>
       </c>
@@ -2587,6 +3409,9 @@
       <c r="A276" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.drawer-create.w3weeojwq6</v>
       </c>
+      <c r="B276" t="str">
+        <v>若标签值为枚举型，可将枚举代码值显示为易理解的值，例如：{"0":"女","1":"男"}</v>
+      </c>
       <c r="C276" t="str">
         <v>若标签值为枚举型，可将枚举代码值显示为易理解的值，例如：{"0":"女","1":"男"}</v>
       </c>
@@ -2595,6 +3420,9 @@
       <c r="A277" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.drawer-create.7qxovvpt6pn</v>
       </c>
+      <c r="B277" t="str">
+        <v>业务逻辑</v>
+      </c>
       <c r="C277" t="str">
         <v>业务逻辑</v>
       </c>
@@ -2603,6 +3431,9 @@
       <c r="A278" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.drawer-create.rmsiuz92s3k</v>
       </c>
+      <c r="B278" t="str">
+        <v>请输入正确的JSON格式</v>
+      </c>
       <c r="C278" t="str">
         <v>请输入正确的JSON格式</v>
       </c>
@@ -2611,6 +3442,9 @@
       <c r="A279" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.drawer-create.gw3veamtpvv</v>
       </c>
+      <c r="B279" t="str">
+        <v>名称与关键字重复</v>
+      </c>
       <c r="C279" t="str">
         <v>名称与关键字重复</v>
       </c>
@@ -2619,6 +3453,9 @@
       <c r="A280" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.drawer-create.3cw1uc8uafd</v>
       </c>
+      <c r="B280" t="str">
+        <v>编辑标签</v>
+      </c>
       <c r="C280" t="str">
         <v>编辑标签</v>
       </c>
@@ -2627,6 +3464,9 @@
       <c r="A281" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.drawer-create.s5rfkq7s99</v>
       </c>
+      <c r="B281" t="str">
+        <v>新建标签</v>
+      </c>
       <c r="C281" t="str">
         <v>新建标签</v>
       </c>
@@ -2635,6 +3475,9 @@
       <c r="A282" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.main.u1ln4g746r</v>
       </c>
+      <c r="B282" t="str">
+        <v>{typeCodeMap4}总数</v>
+      </c>
       <c r="C282" t="str">
         <v>{typeCodeMap4}总数</v>
       </c>
@@ -2643,6 +3486,9 @@
       <c r="A283" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.main.vdfr59d0o9s</v>
       </c>
+      <c r="B283" t="str">
+        <v>已经发布的关联{typeCodeMap4}总数</v>
+      </c>
       <c r="C283" t="str">
         <v>已经发布的关联{typeCodeMap4}总数</v>
       </c>
@@ -2651,6 +3497,9 @@
       <c r="A284" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.main.ps8jdn62w8s</v>
       </c>
+      <c r="B284" t="str">
+        <v>使用项目数</v>
+      </c>
       <c r="C284" t="str">
         <v>使用项目数</v>
       </c>
@@ -2659,6 +3508,9 @@
       <c r="A285" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.main.t88g7n6dj79</v>
       </c>
+      <c r="B285" t="str">
+        <v>租户下，项目的使用数</v>
+      </c>
       <c r="C285" t="str">
         <v>租户下，项目的使用数</v>
       </c>
@@ -2667,6 +3519,9 @@
       <c r="A286" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.main.jr6l9imczaq</v>
       </c>
+      <c r="B286" t="str">
+        <v>租户下，项目中添加的数据表数</v>
+      </c>
       <c r="C286" t="str">
         <v>租户下，项目中添加的数据表数</v>
       </c>
@@ -2675,6 +3530,9 @@
       <c r="A287" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.main.hjacvsfeses</v>
       </c>
+      <c r="B287" t="str">
+        <v>租户下，已经发布的标签总数（不包括主标签）</v>
+      </c>
       <c r="C287" t="str">
         <v>租户下，已经发布的标签总数（不包括主标签）</v>
       </c>
@@ -2683,6 +3541,9 @@
       <c r="A288" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.main.e6qy2b1e2kq</v>
       </c>
+      <c r="B288" t="str">
+        <v>业务视图</v>
+      </c>
       <c r="C288" t="str">
         <v>业务视图</v>
       </c>
@@ -2691,6 +3552,9 @@
       <c r="A289" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.modal-relate-table.0q694a4v5</v>
       </c>
+      <c r="B289" t="str">
+        <v>主表模式</v>
+      </c>
       <c r="C289" t="str">
         <v>主表模式</v>
       </c>
@@ -2699,6 +3563,9 @@
       <c r="A290" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.modal-relate-table.kb731af45no</v>
       </c>
+      <c r="B290" t="str">
+        <v>并集模式</v>
+      </c>
       <c r="C290" t="str">
         <v>并集模式</v>
       </c>
@@ -2707,6 +3574,9 @@
       <c r="A291" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.modal-relate-table.txddtj347i</v>
       </c>
+      <c r="B291" t="str">
+        <v>关联实体下无可用的数据表？</v>
+      </c>
       <c r="C291" t="str">
         <v>关联实体下无可用的数据表？</v>
       </c>
@@ -2715,6 +3585,9 @@
       <c r="A292" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.modal-relate-table.hxaj29czrip</v>
       </c>
+      <c r="B292" t="str">
+        <v>去对象配置中添加</v>
+      </c>
       <c r="C292" t="str">
         <v>去对象配置中添加</v>
       </c>
@@ -2723,6 +3596,9 @@
       <c r="A293" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.modal-relate-table.7h3wac034y3</v>
       </c>
+      <c r="B293" t="str">
+        <v>请选择数据表</v>
+      </c>
       <c r="C293" t="str">
         <v>请选择数据表</v>
       </c>
@@ -2731,6 +3607,9 @@
       <c r="A294" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.modal-relate-table.l659ednp4c</v>
       </c>
+      <c r="B294" t="str">
+        <v>主标签绑定的字段</v>
+      </c>
       <c r="C294" t="str">
         <v>主标签绑定的字段</v>
       </c>
@@ -2739,6 +3618,9 @@
       <c r="A295" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.modal-relate-table.m5inicr74ce</v>
       </c>
+      <c r="B295" t="str">
+        <v>主标签配置</v>
+      </c>
       <c r="C295" t="str">
         <v>主标签配置</v>
       </c>
@@ -2747,6 +3629,9 @@
       <c r="A296" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.modal-relate-table.qx9somxgnc</v>
       </c>
+      <c r="B296" t="str">
+        <v>请选择{entity1Name}绑定的字段</v>
+      </c>
       <c r="C296" t="str">
         <v>请选择{entity1Name}绑定的字段</v>
       </c>
@@ -2755,6 +3640,9 @@
       <c r="A297" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.modal-relate-table.7bshmo5w6sa</v>
       </c>
+      <c r="B297" t="str">
+        <v>请选择{entity2Name}绑定的字段</v>
+      </c>
       <c r="C297" t="str">
         <v>请选择{entity2Name}绑定的字段</v>
       </c>
@@ -2763,6 +3651,9 @@
       <c r="A298" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.tag-list.hyc6hqhiwj8</v>
       </c>
+      <c r="B298" t="str">
+        <v>创建方</v>
+      </c>
       <c r="C298" t="str">
         <v>创建方</v>
       </c>
@@ -2771,6 +3662,9 @@
       <c r="A299" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.tag-list.l8szpls536</v>
       </c>
+      <c r="B299" t="str">
+        <v>标签被删除后不可恢复，确定删除？</v>
+      </c>
       <c r="C299" t="str">
         <v>标签被删除后不可恢复，确定删除？</v>
       </c>
@@ -2779,6 +3673,9 @@
       <c r="A300" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.tag-list.ncn8t6qj01d</v>
       </c>
+      <c r="B300" t="str">
+        <v>请输入标签名称关键字</v>
+      </c>
       <c r="C300" t="str">
         <v>请输入标签名称关键字</v>
       </c>
@@ -2787,6 +3684,9 @@
       <c r="A301" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.use-project.v1drer78dg</v>
       </c>
+      <c r="B301" t="str">
+        <v>项目名称</v>
+      </c>
       <c r="C301" t="str">
         <v>项目名称</v>
       </c>
@@ -2795,6 +3695,9 @@
       <c r="A302" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.use-project.n7rzujk1s3n</v>
       </c>
+      <c r="B302" t="str">
+        <v>项目描述</v>
+      </c>
       <c r="C302" t="str">
         <v>项目描述</v>
       </c>
@@ -2803,6 +3706,9 @@
       <c r="A303" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.use-project.20rj2ebb35m</v>
       </c>
+      <c r="B303" t="str">
+        <v>所有者</v>
+      </c>
       <c r="C303" t="str">
         <v>所有者</v>
       </c>
@@ -2811,6 +3717,9 @@
       <c r="A304" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.use-project.sk57orq1yt8</v>
       </c>
+      <c r="B304" t="str">
+        <v>生产基础标签/衍生标签</v>
+      </c>
       <c r="C304" t="str">
         <v>生产基础标签/衍生标签</v>
       </c>
@@ -2819,6 +3728,9 @@
       <c r="A305" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.use-project.wz1cq2qyt7s</v>
       </c>
+      <c r="B305" t="str">
+        <v>使用标签数</v>
+      </c>
       <c r="C305" t="str">
         <v>使用标签数</v>
       </c>
@@ -2827,6 +3739,9 @@
       <c r="A306" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-detail.use-project.oaa6hlayvx</v>
       </c>
+      <c r="B306" t="str">
+        <v>请输入项目名称关键字</v>
+      </c>
       <c r="C306" t="str">
         <v>请输入项目名称关键字</v>
       </c>
@@ -2835,6 +3750,9 @@
       <c r="A307" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.main.9c8ou0oxjir</v>
       </c>
+      <c r="B307" t="str">
+        <v>对象名称</v>
+      </c>
       <c r="C307" t="str">
         <v>对象名称</v>
       </c>
@@ -2843,6 +3761,9 @@
       <c r="A308" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.main.mkwucyqm93</v>
       </c>
+      <c r="B308" t="str">
+        <v>加工方案数</v>
+      </c>
       <c r="C308" t="str">
         <v>加工方案数</v>
       </c>
@@ -2851,6 +3772,9 @@
       <c r="A309" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.modal-category.aps4bfdj6ls</v>
       </c>
+      <c r="B309" t="str">
+        <v>类目名称</v>
+      </c>
       <c r="C309" t="str">
         <v>类目名称</v>
       </c>
@@ -2859,6 +3783,9 @@
       <c r="A310" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.modal-category.n5fnnbqmunm</v>
       </c>
+      <c r="B310" t="str">
+        <v>编辑{title}</v>
+      </c>
       <c r="C310" t="str">
         <v>编辑{title}</v>
       </c>
@@ -2867,6 +3794,9 @@
       <c r="A311" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.modal-category.n8jyftw6qej</v>
       </c>
+      <c r="B311" t="str">
+        <v>添加{title}</v>
+      </c>
       <c r="C311" t="str">
         <v>添加{title}</v>
       </c>
@@ -2875,6 +3805,9 @@
       <c r="A312" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.modal-move.0e0hc9fvvfzc</v>
       </c>
+      <c r="B312" t="str">
+        <v>移动至</v>
+      </c>
       <c r="C312" t="str">
         <v>移动至</v>
       </c>
@@ -2883,6 +3816,9 @@
       <c r="A313" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.modal-select-tag.njsm9f1qxjq</v>
       </c>
+      <c r="B313" t="str">
+        <v>选择标签</v>
+      </c>
       <c r="C313" t="str">
         <v>选择标签</v>
       </c>
@@ -2891,6 +3827,9 @@
       <c r="A314" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.modal-select-tag.rvng2hxqg6f</v>
       </c>
+      <c r="B314" t="str">
+        <v>已选择 {selectedRowKeysLength} 项</v>
+      </c>
       <c r="C314" t="str">
         <v>已选择 {selectedRowKeysLength} 项</v>
       </c>
@@ -2899,6 +3838,9 @@
       <c r="A315" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.tag-class-list.ppebrch1tgf</v>
       </c>
+      <c r="B315" t="str">
+        <v>没有任何标签，请在当前页面选择标签！</v>
+      </c>
       <c r="C315" t="str">
         <v>没有任何标签，请在当前页面选择标签！</v>
       </c>
@@ -2907,6 +3849,9 @@
       <c r="A316" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.tag-class-list.vzvrj7cdfdm</v>
       </c>
+      <c r="B316" t="str">
+        <v>没有任何标签</v>
+      </c>
       <c r="C316" t="str">
         <v>没有任何标签</v>
       </c>
@@ -2915,6 +3860,9 @@
       <c r="A317" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.tag-class-list.4yjzz3iouct</v>
       </c>
+      <c r="B317" t="str">
+        <v>批量移动至</v>
+      </c>
       <c r="C317" t="str">
         <v>批量移动至</v>
       </c>
@@ -2923,6 +3871,9 @@
       <c r="A318" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.tag-class-list.mlfiqqzpa5</v>
       </c>
+      <c r="B318" t="str">
+        <v>请输入关键字搜索</v>
+      </c>
       <c r="C318" t="str">
         <v>请输入关键字搜索</v>
       </c>
@@ -2931,6 +3882,9 @@
       <c r="A319" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.tag-class-tree.2cqbroy9rpb</v>
       </c>
+      <c r="B319" t="str">
+        <v>新建子类目</v>
+      </c>
       <c r="C319" t="str">
         <v>新建子类目</v>
       </c>
@@ -2939,6 +3893,9 @@
       <c r="A320" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.tag-class-tree.gmj7k8sckal</v>
       </c>
+      <c r="B320" t="str">
+        <v>确认删除标签类目？</v>
+      </c>
       <c r="C320" t="str">
         <v>确认删除标签类目？</v>
       </c>
@@ -2947,6 +3904,9 @@
       <c r="A321" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.tag-class.xjzws3o94am</v>
       </c>
+      <c r="B321" t="str">
+        <v>上级类目</v>
+      </c>
       <c r="C321" t="str">
         <v>上级类目</v>
       </c>
@@ -2955,6 +3915,9 @@
       <c r="A322" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.tag-class.1203puv1emsd</v>
       </c>
+      <c r="B322" t="str">
+        <v>默认类目</v>
+      </c>
       <c r="C322" t="str">
         <v>默认类目</v>
       </c>
@@ -2963,6 +3926,9 @@
       <c r="A323" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.tag-tree-action.yljseiudwm9</v>
       </c>
+      <c r="B323" t="str">
+        <v>一级类目</v>
+      </c>
       <c r="C323" t="str">
         <v>一级类目</v>
       </c>
@@ -2971,6 +3937,9 @@
       <c r="A324" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.object-list.tag-tree-action.lc5yqvdlpt</v>
       </c>
+      <c r="B324" t="str">
+        <v>新建一级类目</v>
+      </c>
       <c r="C324" t="str">
         <v>新建一级类目</v>
       </c>
@@ -2979,6 +3948,9 @@
       <c r="A325" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.util.w573kvk96qc</v>
       </c>
+      <c r="B325" t="str">
+        <v>删除对象类目</v>
+      </c>
       <c r="C325" t="str">
         <v>删除对象类目</v>
       </c>
@@ -2987,6 +3959,9 @@
       <c r="A326" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.util.7kua0nnpxl</v>
       </c>
+      <c r="B326" t="str">
+        <v>对象类目被删除后不可恢复，确定删除？</v>
+      </c>
       <c r="C326" t="str">
         <v>对象类目被删除后不可恢复，确定删除？</v>
       </c>
@@ -2995,6 +3970,9 @@
       <c r="A327" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.util.mjrcnsa6e5i</v>
       </c>
+      <c r="B327" t="str">
+        <v>删除对象</v>
+      </c>
       <c r="C327" t="str">
         <v>删除对象</v>
       </c>
@@ -3003,6 +3981,9 @@
       <c r="A328" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.util.4y6nlm9ng53</v>
       </c>
+      <c r="B328" t="str">
+        <v>对象被删除后不可恢复，确定删除？</v>
+      </c>
       <c r="C328" t="str">
         <v>对象被删除后不可恢复，确定删除？</v>
       </c>
@@ -3011,6 +3992,9 @@
       <c r="A329" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.util.b78dpbz8x4u</v>
       </c>
+      <c r="B329" t="str">
+        <v>简单关系</v>
+      </c>
       <c r="C329" t="str">
         <v>简单关系</v>
       </c>
@@ -3019,6 +4003,9 @@
       <c r="A330" t="str">
         <v>ide.src.page-manage.page-object-model.object-list.util.gc2qgcsh5xa</v>
       </c>
+      <c r="B330" t="str">
+        <v>复杂关系</v>
+      </c>
       <c r="C330" t="str">
         <v>复杂关系</v>
       </c>
@@ -3027,6 +4014,9 @@
       <c r="A331" t="str">
         <v>ide.src.page-manage.page-object-model.tree-action.znat69vvyk8</v>
       </c>
+      <c r="B331" t="str">
+        <v>新建对象类目</v>
+      </c>
       <c r="C331" t="str">
         <v>新建对象类目</v>
       </c>
@@ -3035,6 +4025,9 @@
       <c r="A332" t="str">
         <v>ide.src.page-manage.page-object-model.tree-action.w44lfomptlh</v>
       </c>
+      <c r="B332" t="str">
+        <v>请输入对象名称搜索</v>
+      </c>
       <c r="C332" t="str">
         <v>请输入对象名称搜索</v>
       </c>
@@ -3043,6 +4036,9 @@
       <c r="A333" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.4vgxc3rn2u7</v>
       </c>
+      <c r="B333" t="str">
+        <v>请选择两个关联的实体</v>
+      </c>
       <c r="C333" t="str">
         <v>请选择两个关联的实体</v>
       </c>
@@ -3051,6 +4047,9 @@
       <c r="A334" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.yeikxw04gaf</v>
       </c>
+      <c r="B334" t="str">
+        <v>编辑{typeCodeMap3}</v>
+      </c>
       <c r="C334" t="str">
         <v>编辑{typeCodeMap3}</v>
       </c>
@@ -3059,6 +4058,9 @@
       <c r="A335" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.9mjhaej02y4</v>
       </c>
+      <c r="B335" t="str">
+        <v>添加{typeCodeMap3}</v>
+      </c>
       <c r="C335" t="str">
         <v>添加{typeCodeMap3}</v>
       </c>
@@ -3067,6 +4069,9 @@
       <c r="A336" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.ptd7orh6gg</v>
       </c>
+      <c r="B336" t="str">
+        <v>基础信息</v>
+      </c>
       <c r="C336" t="str">
         <v>基础信息</v>
       </c>
@@ -3075,6 +4080,9 @@
       <c r="A337" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.4z843gbk25j</v>
       </c>
+      <c r="B337" t="str">
+        <v>对象名称不能为空</v>
+      </c>
       <c r="C337" t="str">
         <v>对象名称不能为空</v>
       </c>
@@ -3083,6 +4091,9 @@
       <c r="A338" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.vpc39wx5xms</v>
       </c>
+      <c r="B338" t="str">
+        <v>请输入对象名称</v>
+      </c>
       <c r="C338" t="str">
         <v>请输入对象名称</v>
       </c>
@@ -3091,6 +4102,9 @@
       <c r="A339" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.0e0a01pvn6yg</v>
       </c>
+      <c r="B339" t="str">
+        <v>对象标识不能为空</v>
+      </c>
       <c r="C339" t="str">
         <v>对象标识不能为空</v>
       </c>
@@ -3099,6 +4113,9 @@
       <c r="A340" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.f62kn4hkjm4</v>
       </c>
+      <c r="B340" t="str">
+        <v>请输入对象标识</v>
+      </c>
       <c r="C340" t="str">
         <v>请输入对象标识</v>
       </c>
@@ -3107,6 +4124,9 @@
       <c r="A341" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.krbi0krgz8l</v>
       </c>
+      <c r="B341" t="str">
+        <v>请选择所属类目</v>
+      </c>
       <c r="C341" t="str">
         <v>请选择所属类目</v>
       </c>
@@ -3115,6 +4135,9 @@
       <c r="A342" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.tk268r21mpn</v>
       </c>
+      <c r="B342" t="str">
+        <v>对象描述</v>
+      </c>
       <c r="C342" t="str">
         <v>对象描述</v>
       </c>
@@ -3123,6 +4146,9 @@
       <c r="A343" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.4eqciox3yoa</v>
       </c>
+      <c r="B343" t="str">
+        <v>请输入对象描述</v>
+      </c>
       <c r="C343" t="str">
         <v>请输入对象描述</v>
       </c>
@@ -3131,6 +4157,9 @@
       <c r="A344" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.k1vpfaigngf</v>
       </c>
+      <c r="B344" t="str">
+        <v>实体类型</v>
+      </c>
       <c r="C344" t="str">
         <v>实体类型</v>
       </c>
@@ -3139,6 +4168,9 @@
       <c r="A345" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.t6yhosxc4j</v>
       </c>
+      <c r="B345" t="str">
+        <v>请选择实体类型</v>
+      </c>
       <c r="C345" t="str">
         <v>请选择实体类型</v>
       </c>
@@ -3147,6 +4179,9 @@
       <c r="A346" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.a764wskap5b</v>
       </c>
+      <c r="B346" t="str">
+        <v>常规实体</v>
+      </c>
       <c r="C346" t="str">
         <v>常规实体</v>
       </c>
@@ -3155,6 +4190,9 @@
       <c r="A347" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.q2eaj356vef</v>
       </c>
+      <c r="B347" t="str">
+        <v>关系类型</v>
+      </c>
       <c r="C347" t="str">
         <v>关系类型</v>
       </c>
@@ -3163,6 +4201,9 @@
       <c r="A348" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.xhx4r3tcklg</v>
       </c>
+      <c r="B348" t="str">
+        <v>请选择关系类型</v>
+      </c>
       <c r="C348" t="str">
         <v>请选择关系类型</v>
       </c>
@@ -3171,6 +4212,9 @@
       <c r="A349" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.38za17m6p8j</v>
       </c>
+      <c r="B349" t="str">
+        <v>标签名称不能为空</v>
+      </c>
       <c r="C349" t="str">
         <v>标签名称不能为空</v>
       </c>
@@ -3179,6 +4223,9 @@
       <c r="A350" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.c5eda83dykd</v>
       </c>
+      <c r="B350" t="str">
+        <v>请输入标签名称</v>
+      </c>
       <c r="C350" t="str">
         <v>请输入标签名称</v>
       </c>
@@ -3187,6 +4234,9 @@
       <c r="A351" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.0p91suzxe2rc</v>
       </c>
+      <c r="B351" t="str">
+        <v>标签标识不能为空</v>
+      </c>
       <c r="C351" t="str">
         <v>标签标识不能为空</v>
       </c>
@@ -3195,6 +4245,9 @@
       <c r="A352" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.khev1cf6ibj</v>
       </c>
+      <c r="B352" t="str">
+        <v>请输入标签标识</v>
+      </c>
       <c r="C352" t="str">
         <v>请输入标签标识</v>
       </c>
@@ -3203,6 +4256,9 @@
       <c r="A353" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.iijbq0fz7x</v>
       </c>
+      <c r="B353" t="str">
+        <v>请选择数据类型</v>
+      </c>
       <c r="C353" t="str">
         <v>请选择数据类型</v>
       </c>
@@ -3211,6 +4267,9 @@
       <c r="A354" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.dqn9qha3xn7</v>
       </c>
+      <c r="B354" t="str">
+        <v>请输入业务逻辑</v>
+      </c>
       <c r="C354" t="str">
         <v>请输入业务逻辑</v>
       </c>
@@ -3219,6 +4278,9 @@
       <c r="A355" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.vbtuljbt1z</v>
       </c>
+      <c r="B355" t="str">
+        <v>关联实体</v>
+      </c>
       <c r="C355" t="str">
         <v>关联实体</v>
       </c>
@@ -3227,6 +4289,9 @@
       <c r="A356" t="str">
         <v>ide.src.page-manage.page-object-model.tree-drawer-object.9eeb8rl00lg</v>
       </c>
+      <c r="B356" t="str">
+        <v>请选择关联实体</v>
+      </c>
       <c r="C356" t="str">
         <v>请选择关联实体</v>
       </c>
@@ -3235,6 +4300,9 @@
       <c r="A357" t="str">
         <v>ide.src.page-manage.page-object-model.tree-modal-category.ccndgjgllw</v>
       </c>
+      <c r="B357" t="str">
+        <v>编辑对象类目</v>
+      </c>
       <c r="C357" t="str">
         <v>编辑对象类目</v>
       </c>
@@ -3243,6 +4311,9 @@
       <c r="A358" t="str">
         <v>ide.src.page-manage.page-object-model.tree-modal-category.gyvotw5kfow</v>
       </c>
+      <c r="B358" t="str">
+        <v>对象类目详情</v>
+      </c>
       <c r="C358" t="str">
         <v>对象类目详情</v>
       </c>
@@ -3251,6 +4322,9 @@
       <c r="A359" t="str">
         <v>ide.src.page-manage.page-object-model.tree.f9v0w313nhg</v>
       </c>
+      <c r="B359" t="str">
+        <v>新建对象</v>
+      </c>
       <c r="C359" t="str">
         <v>新建对象</v>
       </c>
@@ -3259,6 +4333,9 @@
       <c r="A360" t="str">
         <v>ide.src.page-manage.page-object-model.tree.nvv28b0yoc</v>
       </c>
+      <c r="B360" t="str">
+        <v>查看对象类目</v>
+      </c>
       <c r="C360" t="str">
         <v>查看对象类目</v>
       </c>
@@ -3267,6 +4344,9 @@
       <c r="A361" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.app-list.is5q9klgisq</v>
       </c>
+      <c r="B361" t="str">
+        <v>业务场景</v>
+      </c>
       <c r="C361" t="str">
         <v>业务场景</v>
       </c>
@@ -3275,6 +4355,9 @@
       <c r="A362" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.app-list.zr1psz6lu9</v>
       </c>
+      <c r="B362" t="str">
+        <v>群体洞察</v>
+      </c>
       <c r="C362" t="str">
         <v>群体洞察</v>
       </c>
@@ -3283,6 +4366,9 @@
       <c r="A363" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.app-list.ozx1ldgfkls</v>
       </c>
+      <c r="B363" t="str">
+        <v>数据查询</v>
+      </c>
       <c r="C363" t="str">
         <v>数据查询</v>
       </c>
@@ -3291,6 +4377,9 @@
       <c r="A364" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.app-list.p685gd2zzcr</v>
       </c>
+      <c r="B364" t="str">
+        <v>标签应用名称</v>
+      </c>
       <c r="C364" t="str">
         <v>标签应用名称</v>
       </c>
@@ -3299,6 +4388,9 @@
       <c r="A365" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.app-list.iy4vstimw8s</v>
       </c>
+      <c r="B365" t="str">
+        <v>应用类型</v>
+      </c>
       <c r="C365" t="str">
         <v>应用类型</v>
       </c>
@@ -3307,6 +4399,9 @@
       <c r="A366" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.main.fs909ssx1tn</v>
       </c>
+      <c r="B366" t="str">
+        <v>目的源数</v>
+      </c>
       <c r="C366" t="str">
         <v>目的源数</v>
       </c>
@@ -3315,6 +4410,9 @@
       <c r="A367" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.main.031g55ixlnxt</v>
       </c>
+      <c r="B367" t="str">
+        <v>包括该标签被标签同步或者目的源管理的映射的总数。举个例子，员工.性别这个标签被标签同步到2个数据源，被目的源管理里映射了2个目的源。总目的源数是4</v>
+      </c>
       <c r="C367" t="str">
         <v>包括该标签被标签同步或者目的源管理的映射的总数。举个例子，员工.性别这个标签被标签同步到2个数据源，被目的源管理里映射了2个目的源。总目的源数是4</v>
       </c>
@@ -3323,6 +4421,9 @@
       <c r="A368" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.main.40y9kbpr4qg</v>
       </c>
+      <c r="B368" t="str">
+        <v>加工方案引用数</v>
+      </c>
       <c r="C368" t="str">
         <v>加工方案引用数</v>
       </c>
@@ -3331,6 +4432,9 @@
       <c r="A369" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.main.4027s1pvpaw</v>
       </c>
+      <c r="B369" t="str">
+        <v>项目内该标签被加工方案的引用数</v>
+      </c>
       <c r="C369" t="str">
         <v>项目内该标签被加工方案的引用数</v>
       </c>
@@ -3339,6 +4443,9 @@
       <c r="A370" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.main.nh79sa2cn9</v>
       </c>
+      <c r="B370" t="str">
+        <v>标签应用数</v>
+      </c>
       <c r="C370" t="str">
         <v>标签应用数</v>
       </c>
@@ -3347,6 +4454,9 @@
       <c r="A371" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.main.lkteq1ka6z</v>
       </c>
+      <c r="B371" t="str">
+        <v>项目内，该标签被多少个数据查询引用+群体管理引用+API引用+业务场景引用</v>
+      </c>
       <c r="C371" t="str">
         <v>项目内，该标签被多少个数据查询引用+群体管理引用+API引用+业务场景引用</v>
       </c>
@@ -3355,6 +4465,9 @@
       <c r="A372" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.main.dbjefjdor19</v>
       </c>
+      <c r="B372" t="str">
+        <v>标签分析</v>
+      </c>
       <c r="C372" t="str">
         <v>标签分析</v>
       </c>
@@ -3363,6 +4476,9 @@
       <c r="A373" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.main.rjy3k6n968</v>
       </c>
+      <c r="B373" t="str">
+        <v>血缘分析</v>
+      </c>
       <c r="C373" t="str">
         <v>血缘分析</v>
       </c>
@@ -3371,6 +4487,9 @@
       <c r="A374" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.main.v9807zld4ae</v>
       </c>
+      <c r="B374" t="str">
+        <v>目的源列表</v>
+      </c>
       <c r="C374" t="str">
         <v>目的源列表</v>
       </c>
@@ -3379,6 +4498,9 @@
       <c r="A375" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.main.mq37rrr8kt</v>
       </c>
+      <c r="B375" t="str">
+        <v>标签应用列表</v>
+      </c>
       <c r="C375" t="str">
         <v>标签应用列表</v>
       </c>
@@ -3387,6 +4509,9 @@
       <c r="A376" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.storage-list.di8idc2fun</v>
       </c>
+      <c r="B376" t="str">
+        <v>目的数据源</v>
+      </c>
       <c r="C376" t="str">
         <v>目的数据源</v>
       </c>
@@ -3395,6 +4520,9 @@
       <c r="A377" t="str">
         <v>ide.src.page-manage.page-project-tag.detail.storage-list.8biidsm1yn4</v>
       </c>
+      <c r="B377" t="str">
+        <v>绑定字段</v>
+      </c>
       <c r="C377" t="str">
         <v>绑定字段</v>
       </c>
@@ -3403,6 +4531,9 @@
       <c r="A378" t="str">
         <v>ide.src.page-manage.page-project-tag.project-tag.lzp8o2hh5p</v>
       </c>
+      <c r="B378" t="str">
+        <v>项目标签</v>
+      </c>
       <c r="C378" t="str">
         <v>项目标签</v>
       </c>
@@ -3411,6 +4542,9 @@
       <c r="A379" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-list.main.ugupxw8o22n</v>
       </c>
+      <c r="B379" t="str">
+        <v>有效</v>
+      </c>
       <c r="C379" t="str">
         <v>有效</v>
       </c>
@@ -3419,6 +4553,9 @@
       <c r="A380" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-list.main.ydeyj2zacxj</v>
       </c>
+      <c r="B380" t="str">
+        <v>失效</v>
+      </c>
       <c r="C380" t="str">
         <v>失效</v>
       </c>
@@ -3427,6 +4564,9 @@
       <c r="A381" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-list.main.wfk6dc3r7hn</v>
       </c>
+      <c r="B381" t="str">
+        <v>使用权限状态</v>
+      </c>
       <c r="C381" t="str">
         <v>使用权限状态</v>
       </c>
@@ -3435,6 +4575,9 @@
       <c r="A382" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-list.main.68om79cer04</v>
       </c>
+      <c r="B382" t="str">
+        <v>交回权限</v>
+      </c>
       <c r="C382" t="str">
         <v>交回权限</v>
       </c>
@@ -3443,6 +4586,9 @@
       <c r="A383" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-list.main.zyie3afhm2</v>
       </c>
+      <c r="B383" t="str">
+        <v>去新建标签</v>
+      </c>
       <c r="C383" t="str">
         <v>去新建标签</v>
       </c>
@@ -3451,6 +4597,9 @@
       <c r="A384" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-list.main.fg2cu199qz9</v>
       </c>
+      <c r="B384" t="str">
+        <v>没有任何标签，去标签维护新建标签吧!</v>
+      </c>
       <c r="C384" t="str">
         <v>没有任何标签，去标签维护新建标签吧!</v>
       </c>
@@ -3459,6 +4608,9 @@
       <c r="A385" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-list.modal-apply.kqmswz28zq</v>
       </c>
+      <c r="B385" t="str">
+        <v>权限申请</v>
+      </c>
       <c r="C385" t="str">
         <v>权限申请</v>
       </c>
@@ -3467,6 +4619,9 @@
       <c r="A386" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-list.modal-back.ruudwdz5she</v>
       </c>
+      <c r="B386" t="str">
+        <v>确定交回该标签的使用权限吗？</v>
+      </c>
       <c r="C386" t="str">
         <v>确定交回该标签的使用权限吗？</v>
       </c>
@@ -3475,6 +4630,9 @@
       <c r="A387" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-list.modal-back.9bqnlzr28p</v>
       </c>
+      <c r="B387" t="str">
+        <v>交回权限后将导致该项目无法使用该标签，请谨慎操作。</v>
+      </c>
       <c r="C387" t="str">
         <v>交回权限后将导致该项目无法使用该标签，请谨慎操作。</v>
       </c>
@@ -3483,6 +4641,9 @@
       <c r="A388" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-list.modal-scene.gdcm7jituxg</v>
       </c>
+      <c r="B388" t="str">
+        <v>场景类目</v>
+      </c>
       <c r="C388" t="str">
         <v>场景类目</v>
       </c>
@@ -3491,6 +4652,9 @@
       <c r="A389" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-list.modal-scene.lydu0f9s6</v>
       </c>
+      <c r="B389" t="str">
+        <v>没有类目？ 去场景中创建类目</v>
+      </c>
       <c r="C389" t="str">
         <v>没有类目？ 去场景中创建类目</v>
       </c>
@@ -3499,6 +4663,9 @@
       <c r="A390" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-list.modal-scene.05eq374dkpuu</v>
       </c>
+      <c r="B390" t="str">
+        <v>添加到业务场景</v>
+      </c>
       <c r="C390" t="str">
         <v>添加到业务场景</v>
       </c>
@@ -3507,6 +4674,9 @@
       <c r="A391" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-system.detail.qtu77t9ha8</v>
       </c>
+      <c r="B391" t="str">
+        <v>申请权限</v>
+      </c>
       <c r="C391" t="str">
         <v>申请权限</v>
       </c>
@@ -3515,6 +4685,9 @@
       <c r="A392" t="str">
         <v>ide.src.page-manage.page-project-tag.tag-system.tree-action.sseq75z4s6</v>
       </c>
+      <c r="B392" t="str">
+        <v>请输入关键字</v>
+      </c>
       <c r="C392" t="str">
         <v>请输入关键字</v>
       </c>
@@ -3523,6 +4696,9 @@
       <c r="A393" t="str">
         <v>ide.src.page-manage.page-sync-result.search.7qjykzh2stv</v>
       </c>
+      <c r="B393" t="str">
+        <v>请输入计划名称关键字</v>
+      </c>
       <c r="C393" t="str">
         <v>请输入计划名称关键字</v>
       </c>
@@ -3531,6 +4707,9 @@
       <c r="A394" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-modal-cate.2cyv7gh30h3</v>
       </c>
+      <c r="B394" t="str">
+        <v>选择所属类目</v>
+      </c>
       <c r="C394" t="str">
         <v>选择所属类目</v>
       </c>
@@ -3539,6 +4718,9 @@
       <c r="A395" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-modal-edit.zwcmh88spor</v>
       </c>
+      <c r="B395" t="str">
+        <v>名称不可为空</v>
+      </c>
       <c r="C395" t="str">
         <v>名称不可为空</v>
       </c>
@@ -3547,6 +4729,9 @@
       <c r="A396" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-modal-edit.5gv19r5reie</v>
       </c>
+      <c r="B396" t="str">
+        <v>不超过32个字，允许中文、英文、数字或下划线</v>
+      </c>
       <c r="C396" t="str">
         <v>不超过32个字，允许中文、英文、数字或下划线</v>
       </c>
@@ -3555,6 +4740,9 @@
       <c r="A397" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-modal-edit.dv90olp2t26</v>
       </c>
+      <c r="B397" t="str">
+        <v>标签标识不可为空</v>
+      </c>
       <c r="C397" t="str">
         <v>标签标识不可为空</v>
       </c>
@@ -3563,6 +4751,9 @@
       <c r="A398" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-modal-edit.lk32glvsr9s</v>
       </c>
+      <c r="B398" t="str">
+        <v>不超过32个字，允许英文、数字或下划线，必须以英文开头</v>
+      </c>
       <c r="C398" t="str">
         <v>不超过32个字，允许英文、数字或下划线，必须以英文开头</v>
       </c>
@@ -3571,6 +4762,9 @@
       <c r="A399" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-modal-edit.15hh6r64c0b</v>
       </c>
+      <c r="B399" t="str">
+        <v>请下拉选择</v>
+      </c>
       <c r="C399" t="str">
         <v>请下拉选择</v>
       </c>
@@ -3579,6 +4773,9 @@
       <c r="A400" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-modal-edit.xpms8dkz1t</v>
       </c>
+      <c r="B400" t="str">
+        <v>不能超过128个字符</v>
+      </c>
       <c r="C400" t="str">
         <v>不能超过128个字符</v>
       </c>
@@ -3587,6 +4784,9 @@
       <c r="A401" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-modal-edit.ajw5v43uji</v>
       </c>
+      <c r="B401" t="str">
+        <v>请选择标签类目</v>
+      </c>
       <c r="C401" t="str">
         <v>请选择标签类目</v>
       </c>
@@ -3595,6 +4795,9 @@
       <c r="A402" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-modal-edit.lzrrqtsqjgk</v>
       </c>
+      <c r="B402" t="str">
+        <v>业务逻辑不能超过128个字符</v>
+      </c>
       <c r="C402" t="str">
         <v>业务逻辑不能超过128个字符</v>
       </c>
@@ -3603,6 +4806,9 @@
       <c r="A403" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-modal-edit.5r46uz9x11b</v>
       </c>
+      <c r="B403" t="str">
+        <v>标签表示的业务逻辑，例如“该用户的手机号”，不超过128个字</v>
+      </c>
       <c r="C403" t="str">
         <v>标签表示的业务逻辑，例如“该用户的手机号”，不超过128个字</v>
       </c>
@@ -3611,6 +4817,9 @@
       <c r="A404" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-one.l46g9vfk2k</v>
       </c>
+      <c r="B404" t="str">
+        <v>配置状态</v>
+      </c>
       <c r="C404" t="str">
         <v>配置状态</v>
       </c>
@@ -3619,6 +4828,9 @@
       <c r="A405" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-one.08rkfw56dlng</v>
       </c>
+      <c r="B405" t="str">
+        <v>已配置</v>
+      </c>
       <c r="C405" t="str">
         <v>已配置</v>
       </c>
@@ -3627,6 +4839,9 @@
       <c r="A406" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-one.k6tc0vxgvc</v>
       </c>
+      <c r="B406" t="str">
+        <v>待配置</v>
+      </c>
       <c r="C406" t="str">
         <v>待配置</v>
       </c>
@@ -3635,6 +4850,9 @@
       <c r="A407" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-one.ei6a3d394f</v>
       </c>
+      <c r="B407" t="str">
+        <v>字段绑定的标签是否发布</v>
+      </c>
       <c r="C407" t="str">
         <v>字段绑定的标签是否发布</v>
       </c>
@@ -3643,6 +4861,9 @@
       <c r="A408" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-one.kpitwb1mdsn</v>
       </c>
+      <c r="B408" t="str">
+        <v>未发布</v>
+      </c>
       <c r="C408" t="str">
         <v>未发布</v>
       </c>
@@ -3651,6 +4872,9 @@
       <c r="A409" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-one.2t0e7l5jdww</v>
       </c>
+      <c r="B409" t="str">
+        <v>仅展示未发布</v>
+      </c>
       <c r="C409" t="str">
         <v>仅展示未发布</v>
       </c>
@@ -3659,6 +4883,9 @@
       <c r="A410" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-three.7358fgalxex</v>
       </c>
+      <c r="B410" t="str">
+        <v>创建成功</v>
+      </c>
       <c r="C410" t="str">
         <v>创建成功</v>
       </c>
@@ -3667,6 +4894,9 @@
       <c r="A411" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-three.ltwqy06gxgq</v>
       </c>
+      <c r="B411" t="str">
+        <v>数据表名称： {successResultTableName||'-'}</v>
+      </c>
       <c r="C411" t="str">
         <v>数据表名称： {successResultTableName||'-'}</v>
       </c>
@@ -3675,6 +4905,9 @@
       <c r="A412" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-three.up3f8lg7258</v>
       </c>
+      <c r="B412" t="str">
+        <v>数据源： {successResultStorageName||'-'}</v>
+      </c>
       <c r="C412" t="str">
         <v>数据源： {successResultStorageName||'-'}</v>
       </c>
@@ -3683,6 +4916,9 @@
       <c r="A413" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-three.0c2qpczzy638</v>
       </c>
+      <c r="B413" t="str">
+        <v>数据源类型： {successResultStorageTypeName||'-'}</v>
+      </c>
       <c r="C413" t="str">
         <v>数据源类型： {successResultStorageTypeName||'-'}</v>
       </c>
@@ -3691,6 +4927,9 @@
       <c r="A414" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-three.xraz9z8uvg</v>
       </c>
+      <c r="B414" t="str">
+        <v>已配置/关联： {successResultField||'-'} / {successResultAssociatedField||'-'}</v>
+      </c>
       <c r="C414" t="str">
         <v>已配置/关联： {successResultField||'-'} / {successResultAssociatedField||'-'}</v>
       </c>
@@ -3699,6 +4938,9 @@
       <c r="A415" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-two.fpsks5z6ei</v>
       </c>
+      <c r="B415" t="str">
+        <v>关联的字段</v>
+      </c>
       <c r="C415" t="str">
         <v>关联的字段</v>
       </c>
@@ -3707,6 +4949,9 @@
       <c r="A416" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-two.714e3sh7iec</v>
       </c>
+      <c r="B416" t="str">
+        <v>确认结果</v>
+      </c>
       <c r="C416" t="str">
         <v>确认结果</v>
       </c>
@@ -3715,6 +4960,9 @@
       <c r="A417" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-two.vihwihdu9vk</v>
       </c>
+      <c r="B417" t="str">
+        <v>选择结果：可新建标签</v>
+      </c>
       <c r="C417" t="str">
         <v>选择结果：可新建标签</v>
       </c>
@@ -3723,6 +4971,9 @@
       <c r="A418" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-two.okzo733f94e</v>
       </c>
+      <c r="B418" t="str">
+        <v>个，新建失败</v>
+      </c>
       <c r="C418" t="str">
         <v>个，新建失败</v>
       </c>
@@ -3731,6 +4982,9 @@
       <c r="A419" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-two.m6s9662nehb</v>
       </c>
+      <c r="B419" t="str">
+        <v>个</v>
+      </c>
       <c r="C419" t="str">
         <v>个</v>
       </c>
@@ -3739,6 +4993,9 @@
       <c r="A420" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-two.i8ug19snd8h</v>
       </c>
+      <c r="B420" t="str">
+        <v>若您不选择标签所属类目，那么标签将被放在该对象的默认类目中</v>
+      </c>
       <c r="C420" t="str">
         <v>若您不选择标签所属类目，那么标签将被放在该对象的默认类目中</v>
       </c>
@@ -3747,6 +5004,9 @@
       <c r="A421" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field-step-two.2zish1fv063</v>
       </c>
+      <c r="B421" t="str">
+        <v>生成的标签是否直接发布</v>
+      </c>
       <c r="C421" t="str">
         <v>生成的标签是否直接发布</v>
       </c>
@@ -3755,6 +5015,9 @@
       <c r="A422" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field.zobzgmm5y</v>
       </c>
+      <c r="B422" t="str">
+        <v>选择字段</v>
+      </c>
       <c r="C422" t="str">
         <v>选择字段</v>
       </c>
@@ -3763,6 +5026,9 @@
       <c r="A423" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field.ctsk0hmfag</v>
       </c>
+      <c r="B423" t="str">
+        <v>填写配置信息</v>
+      </c>
       <c r="C423" t="str">
         <v>填写配置信息</v>
       </c>
@@ -3771,6 +5037,9 @@
       <c r="A424" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field.7i73j0om993</v>
       </c>
+      <c r="B424" t="str">
+        <v>标签配置</v>
+      </c>
       <c r="C424" t="str">
         <v>标签配置</v>
       </c>
@@ -3779,6 +5048,9 @@
       <c r="A425" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field.kpiieqt46x</v>
       </c>
+      <c r="B425" t="str">
+        <v>下一步</v>
+      </c>
       <c r="C425" t="str">
         <v>下一步</v>
       </c>
@@ -3787,6 +5059,9 @@
       <c r="A426" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.config-field.m6ae9pj50gh</v>
       </c>
+      <c r="B426" t="str">
+        <v>上一步</v>
+      </c>
       <c r="C426" t="str">
         <v>上一步</v>
       </c>
@@ -3795,6 +5070,9 @@
       <c r="A427" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.drawer-datasheet.xfyxryslnl</v>
       </c>
+      <c r="B427" t="str">
+        <v>数据表信息</v>
+      </c>
       <c r="C427" t="str">
         <v>数据表信息</v>
       </c>
@@ -3803,6 +5081,9 @@
       <c r="A428" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.drawer-datasheet.9280v5oxlb</v>
       </c>
+      <c r="B428" t="str">
+        <v>数据表：</v>
+      </c>
       <c r="C428" t="str">
         <v>数据表：</v>
       </c>
@@ -3811,6 +5092,9 @@
       <c r="A429" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.drawer-datasheet.bretiemno57</v>
       </c>
+      <c r="B429" t="str">
+        <v>数据源：</v>
+      </c>
       <c r="C429" t="str">
         <v>数据源：</v>
       </c>
@@ -3819,6 +5103,9 @@
       <c r="A430" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.drawer-datasheet.4tr90vbf69o</v>
       </c>
+      <c r="B430" t="str">
+        <v>where条件：</v>
+      </c>
       <c r="C430" t="str">
         <v>where条件：</v>
       </c>
@@ -3827,6 +5114,9 @@
       <c r="A431" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.drawer-datasheet.lh1d5j87nsp</v>
       </c>
+      <c r="B431" t="str">
+        <v>主标签绑定的字段：</v>
+      </c>
       <c r="C431" t="str">
         <v>主标签绑定的字段：</v>
       </c>
@@ -3835,6 +5125,9 @@
       <c r="A432" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.editWhereCondition.f7kj5qwu6d9</v>
       </c>
+      <c r="B432" t="str">
+        <v>请校验where条件</v>
+      </c>
       <c r="C432" t="str">
         <v>请校验where条件</v>
       </c>
@@ -3843,6 +5136,9 @@
       <c r="A433" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.editWhereCondition.xe0xza7r8gn</v>
       </c>
+      <c r="B433" t="str">
+        <v>编辑关联表</v>
+      </c>
       <c r="C433" t="str">
         <v>编辑关联表</v>
       </c>
@@ -3851,6 +5147,9 @@
       <c r="A434" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.editWhereCondition.p11v3wtwm3s</v>
       </c>
+      <c r="B434" t="str">
+        <v>where条件</v>
+      </c>
       <c r="C434" t="str">
         <v>where条件</v>
       </c>
@@ -3859,6 +5158,9 @@
       <c r="A435" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.editWhereCondition.elzwuwuv14f</v>
       </c>
+      <c r="B435" t="str">
+        <v>请输入查询语句的where条件，该查询语句的返回结果将作为对象绑定的数据。例如：sex=“男” and age&gt;30</v>
+      </c>
       <c r="C435" t="str">
         <v>请输入查询语句的where条件，该查询语句的返回结果将作为对象绑定的数据。例如：sex=“男” and age&gt;30</v>
       </c>
@@ -3867,6 +5169,9 @@
       <c r="A436" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.editWhereCondition.u809rsu579</v>
       </c>
+      <c r="B436" t="str">
+        <v>校验</v>
+      </c>
       <c r="C436" t="str">
         <v>校验</v>
       </c>
@@ -3875,6 +5180,9 @@
       <c r="A437" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.index.3fht0cqc4ht</v>
       </c>
+      <c r="B437" t="str">
+        <v>数据表名称</v>
+      </c>
       <c r="C437" t="str">
         <v>数据表名称</v>
       </c>
@@ -3883,6 +5191,9 @@
       <c r="A438" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.index.ezv6dabtsu</v>
       </c>
+      <c r="B438" t="str">
+        <v>已配置/字段数</v>
+      </c>
       <c r="C438" t="str">
         <v>已配置/字段数</v>
       </c>
@@ -3891,6 +5202,9 @@
       <c r="A439" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.index.t92gg012q38</v>
       </c>
+      <c r="B439" t="str">
+        <v>已有标签被使用</v>
+      </c>
       <c r="C439" t="str">
         <v>已有标签被使用</v>
       </c>
@@ -3899,6 +5213,9 @@
       <c r="A440" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.index.ljiw9occ1j</v>
       </c>
+      <c r="B440" t="str">
+        <v>你确定要移除该数据表吗？</v>
+      </c>
       <c r="C440" t="str">
         <v>你确定要移除该数据表吗？</v>
       </c>
@@ -3907,6 +5224,9 @@
       <c r="A441" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.index.ovoicz21id</v>
       </c>
+      <c r="B441" t="str">
+        <v>配置标签</v>
+      </c>
       <c r="C441" t="str">
         <v>配置标签</v>
       </c>
@@ -3915,6 +5235,9 @@
       <c r="A442" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.index.76fxoibbzic</v>
       </c>
+      <c r="B442" t="str">
+        <v>添加数据表</v>
+      </c>
       <c r="C442" t="str">
         <v>添加数据表</v>
       </c>
@@ -3923,6 +5246,9 @@
       <c r="A443" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.modal-add-table.65wuhngev18</v>
       </c>
+      <c r="B443" t="str">
+        <v>添加关联表</v>
+      </c>
       <c r="C443" t="str">
         <v>添加关联表</v>
       </c>
@@ -3931,6 +5257,9 @@
       <c r="A444" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.modal-add-table.azd6tsw45f</v>
       </c>
+      <c r="B444" t="str">
+        <v>从关联实体的数据表中选择</v>
+      </c>
       <c r="C444" t="str">
         <v>从关联实体的数据表中选择</v>
       </c>
@@ -3939,6 +5268,9 @@
       <c r="A445" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.store-tag.6tb3qd7rd8n</v>
       </c>
+      <c r="B445" t="str">
+        <v>创建失败</v>
+      </c>
       <c r="C445" t="str">
         <v>创建失败</v>
       </c>
@@ -3947,6 +5279,9 @@
       <c r="A446" t="str">
         <v>ide.src.page-manage.page-tag-model.data-sheet.store.g1i21g89xn</v>
       </c>
+      <c r="B446" t="str">
+        <v>校验成功</v>
+      </c>
       <c r="C446" t="str">
         <v>校验成功</v>
       </c>
@@ -3955,14 +5290,20 @@
       <c r="A447" t="str">
         <v>ide.src.page-manage.page-tag-model.field-list.index.axernry5crc</v>
       </c>
+      <c r="B447" t="str">
+        <v>配置标签</v>
+      </c>
       <c r="C447" t="str">
-        <v>生成标签</v>
+        <v>配置标签</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="str">
         <v>ide.src.page-manage.page-tag-model.field-list.index.aghycqeyy64</v>
       </c>
+      <c r="B448" t="str">
+        <v>取消配置</v>
+      </c>
       <c r="C448" t="str">
         <v>取消配置</v>
       </c>
@@ -3971,6 +5312,9 @@
       <c r="A449" t="str">
         <v>ide.src.page-manage.page-tag-model.main.rqocnq83yup</v>
       </c>
+      <c r="B449" t="str">
+        <v>项目下未配置对象，请在当前页面配置对象！</v>
+      </c>
       <c r="C449" t="str">
         <v>项目下未配置对象，请在当前页面配置对象！</v>
       </c>
@@ -3979,6 +5323,9 @@
       <c r="A450" t="str">
         <v>ide.src.page-manage.page-tag-model.main.g8k2rewcjve</v>
       </c>
+      <c r="B450" t="str">
+        <v>没有任何对象</v>
+      </c>
       <c r="C450" t="str">
         <v>没有任何对象</v>
       </c>
@@ -3987,6 +5334,9 @@
       <c r="A451" t="str">
         <v>ide.src.page-manage.page-tag-model.object-detail.i7bh5qx9s1</v>
       </c>
+      <c r="B451" t="str">
+        <v>确定移除对象？</v>
+      </c>
       <c r="C451" t="str">
         <v>确定移除对象？</v>
       </c>
@@ -3995,6 +5345,9 @@
       <c r="A452" t="str">
         <v>ide.src.page-manage.page-tag-model.object-detail.r72jk77r77</v>
       </c>
+      <c r="B452" t="str">
+        <v>项目内添加的数据表</v>
+      </c>
       <c r="C452" t="str">
         <v>项目内添加的数据表</v>
       </c>
@@ -4003,6 +5356,9 @@
       <c r="A453" t="str">
         <v>ide.src.page-manage.page-tag-model.object-detail.95cmv865qub</v>
       </c>
+      <c r="B453" t="str">
+        <v>已发布即已发布的标签数，项目内创建且发布的标签数</v>
+      </c>
       <c r="C453" t="str">
         <v>已发布即已发布的标签数，项目内创建且发布的标签数</v>
       </c>
@@ -4011,6 +5367,9 @@
       <c r="A454" t="str">
         <v>ide.src.page-manage.page-tag-model.object-detail.rcrvimlwund</v>
       </c>
+      <c r="B454" t="str">
+        <v>引用标签数</v>
+      </c>
       <c r="C454" t="str">
         <v>引用标签数</v>
       </c>
@@ -4019,6 +5378,9 @@
       <c r="A455" t="str">
         <v>ide.src.page-manage.page-tag-model.object-detail.qw0z1fwvubb</v>
       </c>
+      <c r="B455" t="str">
+        <v>项目内从其他项目申请或授权过来的标签数（有使用权限）</v>
+      </c>
       <c r="C455" t="str">
         <v>项目内从其他项目申请或授权过来的标签数（有使用权限）</v>
       </c>
@@ -4027,6 +5389,9 @@
       <c r="A456" t="str">
         <v>ide.src.page-manage.page-tag-model.object-view-drawer.yf5ke0yct0s</v>
       </c>
+      <c r="B456" t="str">
+        <v>对象类型：</v>
+      </c>
       <c r="C456" t="str">
         <v>对象类型：</v>
       </c>
@@ -4035,6 +5400,9 @@
       <c r="A457" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config-batch.step-one.xh0uieuqz7m</v>
       </c>
+      <c r="B457" t="str">
+        <v>展示标签状态为已发布的标签</v>
+      </c>
       <c r="C457" t="str">
         <v>展示标签状态为已发布的标签</v>
       </c>
@@ -4043,6 +5411,9 @@
       <c r="A458" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config-batch.step-two.v3crt7yina</v>
       </c>
+      <c r="B458" t="str">
+        <v>绑定的标签是否直接发布</v>
+      </c>
       <c r="C458" t="str">
         <v>绑定的标签是否直接发布</v>
       </c>
@@ -4051,6 +5422,9 @@
       <c r="A459" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config-batch.step-two.xcpjx1nr71n</v>
       </c>
+      <c r="B459" t="str">
+        <v>加工方案</v>
+      </c>
       <c r="C459" t="str">
         <v>加工方案</v>
       </c>
@@ -4059,6 +5433,9 @@
       <c r="A460" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config-batch.step-two.rezskwnjeyf</v>
       </c>
+      <c r="B460" t="str">
+        <v>标签英文名</v>
+      </c>
       <c r="C460" t="str">
         <v>标签英文名</v>
       </c>
@@ -4067,6 +5444,9 @@
       <c r="A461" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config-batch.step-two.sqnqfvltw4j</v>
       </c>
+      <c r="B461" t="str">
+        <v>标签中文名</v>
+      </c>
       <c r="C461" t="str">
         <v>标签中文名</v>
       </c>
@@ -4075,6 +5455,9 @@
       <c r="A462" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config-batch.step-two.9clicvdx2d</v>
       </c>
+      <c r="B462" t="str">
+        <v>标签已发布无法删除映射</v>
+      </c>
       <c r="C462" t="str">
         <v>标签已发布无法删除映射</v>
       </c>
@@ -4083,6 +5466,9 @@
       <c r="A463" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config-batch.step-two.ob4m2pmgtto</v>
       </c>
+      <c r="B463" t="str">
+        <v>使用中无法删除映射</v>
+      </c>
       <c r="C463" t="str">
         <v>使用中无法删除映射</v>
       </c>
@@ -4091,6 +5477,9 @@
       <c r="A464" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config-batch.step-two.txgvm1r43o</v>
       </c>
+      <c r="B464" t="str">
+        <v>{mappingItemTagName}(标签)与{mappingItemDataFieldName}(字段)数据类型不匹配， 绑定失败</v>
+      </c>
       <c r="C464" t="str">
         <v>{mappingItemTagName}(标签)与{mappingItemDataFieldName}(字段)数据类型不匹配， 绑定失败</v>
       </c>
@@ -4099,6 +5488,9 @@
       <c r="A465" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config-batch.step-two.1ecch5wk3kx</v>
       </c>
+      <c r="B465" t="str">
+        <v>{successLength}个标签映射成功，{errorLength}个标签映射失败</v>
+      </c>
       <c r="C465" t="str">
         <v>{successLength}个标签映射成功，{errorLength}个标签映射失败</v>
       </c>
@@ -4107,6 +5499,9 @@
       <c r="A466" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config-batch.store.a6ttkst1gyn</v>
       </c>
+      <c r="B466" t="str">
+        <v>发布成功</v>
+      </c>
       <c r="C466" t="str">
         <v>发布成功</v>
       </c>
@@ -4115,6 +5510,9 @@
       <c r="A467" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config-batch.store.40aw73ubna9</v>
       </c>
+      <c r="B467" t="str">
+        <v>发布失败</v>
+      </c>
       <c r="C467" t="str">
         <v>发布失败</v>
       </c>
@@ -4123,6 +5521,9 @@
       <c r="A468" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config.main.1a8izao82so</v>
       </c>
+      <c r="B468" t="str">
+        <v>基础标签绑定</v>
+      </c>
       <c r="C468" t="str">
         <v>基础标签绑定</v>
       </c>
@@ -4131,6 +5532,9 @@
       <c r="A469" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config.main.j31zfb050go</v>
       </c>
+      <c r="B469" t="str">
+        <v>衍生标签绑定</v>
+      </c>
       <c r="C469" t="str">
         <v>衍生标签绑定</v>
       </c>
@@ -4139,6 +5543,9 @@
       <c r="A470" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-config.main.5d1c5z9uagn</v>
       </c>
+      <c r="B470" t="str">
+        <v>{mapTagName}(标签)与{mapDataFieldName}(字段)数据类型不匹配， 绑定失败</v>
+      </c>
       <c r="C470" t="str">
         <v>{mapTagName}(标签)与{mapDataFieldName}(字段)数据类型不匹配， 绑定失败</v>
       </c>
@@ -4147,6 +5554,9 @@
       <c r="A471" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-detail.main.4mbb3gsyvv6</v>
       </c>
+      <c r="B471" t="str">
+        <v>被多少个项目申请使用，包括所属项目</v>
+      </c>
       <c r="C471" t="str">
         <v>被多少个项目申请使用，包括所属项目</v>
       </c>
@@ -4155,6 +5565,9 @@
       <c r="A472" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-detail.main.lvnyequb3x</v>
       </c>
+      <c r="B472" t="str">
+        <v>该标签租户下被加工方案的引用数</v>
+      </c>
       <c r="C472" t="str">
         <v>该标签租户下被加工方案的引用数</v>
       </c>
@@ -4163,6 +5576,9 @@
       <c r="A473" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-detail.main.q0oj5peunwg</v>
       </c>
+      <c r="B473" t="str">
+        <v>租户下，该标签被多少个数据查询引用+群体管理引用+API引用+业务场景引用</v>
+      </c>
       <c r="C473" t="str">
         <v>租户下，该标签被多少个数据查询引用+群体管理引用+API引用+业务场景引用</v>
       </c>
@@ -4171,6 +5587,9 @@
       <c r="A474" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-detail1.main.ga0dkpzjpsq</v>
       </c>
+      <c r="B474" t="str">
+        <v>标签血缘</v>
+      </c>
       <c r="C474" t="str">
         <v>标签血缘</v>
       </c>
@@ -4179,6 +5598,9 @@
       <c r="A475" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.drawer-inherit-list.lwh8k7jyum</v>
       </c>
+      <c r="B475" t="str">
+        <v>唯一标识</v>
+      </c>
       <c r="C475" t="str">
         <v>唯一标识</v>
       </c>
@@ -4187,6 +5609,9 @@
       <c r="A476" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.drawer-inherit-list.krqks0olqu</v>
       </c>
+      <c r="B476" t="str">
+        <v>使用中的标签, 不可移除</v>
+      </c>
       <c r="C476" t="str">
         <v>使用中的标签, 不可移除</v>
       </c>
@@ -4195,6 +5620,9 @@
       <c r="A477" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.drawer-inherit-list.3ngxij32725</v>
       </c>
+      <c r="B477" t="str">
+        <v>确定移除？</v>
+      </c>
       <c r="C477" t="str">
         <v>确定移除？</v>
       </c>
@@ -4203,6 +5631,9 @@
       <c r="A478" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.drawer-inherit-list.6rzqd8p64g7</v>
       </c>
+      <c r="B478" t="str">
+        <v>请输入标签关键字</v>
+      </c>
       <c r="C478" t="str">
         <v>请输入标签关键字</v>
       </c>
@@ -4211,6 +5642,9 @@
       <c r="A479" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.drawer-inherit-tree.jkrcru8u6</v>
       </c>
+      <c r="B479" t="str">
+        <v>展示不可继承的标签</v>
+      </c>
       <c r="C479" t="str">
         <v>展示不可继承的标签</v>
       </c>
@@ -4219,6 +5653,9 @@
       <c r="A480" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.drawer-inherit-tree.hhf5qe4tfy</v>
       </c>
+      <c r="B480" t="str">
+        <v>请输入标签名称搜索</v>
+      </c>
       <c r="C480" t="str">
         <v>请输入标签名称搜索</v>
       </c>
@@ -4227,6 +5664,9 @@
       <c r="A481" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.main.08fwpftty43c</v>
       </c>
+      <c r="B481" t="str">
+        <v>绑定</v>
+      </c>
       <c r="C481" t="str">
         <v>绑定</v>
       </c>
@@ -4235,6 +5675,9 @@
       <c r="A482" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.main.v8o61gr7eeb</v>
       </c>
+      <c r="B482" t="str">
+        <v>确定移除租户下标签？</v>
+      </c>
       <c r="C482" t="str">
         <v>确定移除租户下标签？</v>
       </c>
@@ -4243,6 +5686,9 @@
       <c r="A483" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.main.9cobnm296j6</v>
       </c>
+      <c r="B483" t="str">
+        <v>确认发布？</v>
+      </c>
       <c r="C483" t="str">
         <v>确认发布？</v>
       </c>
@@ -4251,6 +5697,9 @@
       <c r="A484" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.main.e2m7j9snhbg</v>
       </c>
+      <c r="B484" t="str">
+        <v>确认解绑？</v>
+      </c>
       <c r="C484" t="str">
         <v>确认解绑？</v>
       </c>
@@ -4259,6 +5708,9 @@
       <c r="A485" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.main.5n4f0xo7uzf</v>
       </c>
+      <c r="B485" t="str">
+        <v>解绑</v>
+      </c>
       <c r="C485" t="str">
         <v>解绑</v>
       </c>
@@ -4267,6 +5719,9 @@
       <c r="A486" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.main.8qsv9py158c</v>
       </c>
+      <c r="B486" t="str">
+        <v>确认取消发布？</v>
+      </c>
       <c r="C486" t="str">
         <v>确认取消发布？</v>
       </c>
@@ -4275,6 +5730,9 @@
       <c r="A487" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.main.akndhvsabkj</v>
       </c>
+      <c r="B487" t="str">
+        <v>授权</v>
+      </c>
       <c r="C487" t="str">
         <v>授权</v>
       </c>
@@ -4283,6 +5741,9 @@
       <c r="A488" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.main.sanswpjatfc</v>
       </c>
+      <c r="B488" t="str">
+        <v>回收</v>
+      </c>
       <c r="C488" t="str">
         <v>回收</v>
       </c>
@@ -4291,6 +5752,9 @@
       <c r="A489" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.main.2mn8z380crc</v>
       </c>
+      <c r="B489" t="str">
+        <v>没有任何标签，去新建标签吧</v>
+      </c>
       <c r="C489" t="str">
         <v>没有任何标签，去新建标签吧</v>
       </c>
@@ -4299,6 +5763,9 @@
       <c r="A490" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.main.cen2ew5ntnr</v>
       </c>
+      <c r="B490" t="str">
+        <v>批量发布({publishRowKeysLength})</v>
+      </c>
       <c r="C490" t="str">
         <v>批量发布({publishRowKeysLength})</v>
       </c>
@@ -4307,6 +5774,9 @@
       <c r="A491" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.main.k6710jvgtnk</v>
       </c>
+      <c r="B491" t="str">
+        <v>批量绑定</v>
+      </c>
       <c r="C491" t="str">
         <v>批量绑定</v>
       </c>
@@ -4315,6 +5785,9 @@
       <c r="A492" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.main.l43rimqp13</v>
       </c>
+      <c r="B492" t="str">
+        <v>继承标签</v>
+      </c>
       <c r="C492" t="str">
         <v>继承标签</v>
       </c>
@@ -4323,6 +5796,9 @@
       <c r="A493" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.modal-apply.wey2k3xa6qn</v>
       </c>
+      <c r="B493" t="str">
+        <v>标签授权</v>
+      </c>
       <c r="C493" t="str">
         <v>标签授权</v>
       </c>
@@ -4331,6 +5807,9 @@
       <c r="A494" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.modal-apply.z0d0ehl5669</v>
       </c>
+      <c r="B494" t="str">
+        <v>授权项目</v>
+      </c>
       <c r="C494" t="str">
         <v>授权项目</v>
       </c>
@@ -4339,6 +5818,9 @@
       <c r="A495" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.modal-apply.21zat642jjj</v>
       </c>
+      <c r="B495" t="str">
+        <v>请选择授权项目</v>
+      </c>
       <c r="C495" t="str">
         <v>请选择授权项目</v>
       </c>
@@ -4347,6 +5829,9 @@
       <c r="A496" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.modal-apply.n9bidtn3008</v>
       </c>
+      <c r="B496" t="str">
+        <v>有效时长</v>
+      </c>
       <c r="C496" t="str">
         <v>有效时长</v>
       </c>
@@ -4355,6 +5840,9 @@
       <c r="A497" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.modal-apply.7l4iu7e6mog</v>
       </c>
+      <c r="B497" t="str">
+        <v>请选择有效时长</v>
+      </c>
       <c r="C497" t="str">
         <v>请选择有效时长</v>
       </c>
@@ -4363,6 +5851,9 @@
       <c r="A498" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.modal-back.oh88gcracm</v>
       </c>
+      <c r="B498" t="str">
+        <v>回收权限</v>
+      </c>
       <c r="C498" t="str">
         <v>回收权限</v>
       </c>
@@ -4371,6 +5862,9 @@
       <c r="A499" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.modal-back.unqv1x1j6g</v>
       </c>
+      <c r="B499" t="str">
+        <v>回收项目</v>
+      </c>
       <c r="C499" t="str">
         <v>回收项目</v>
       </c>
@@ -4379,6 +5873,9 @@
       <c r="A500" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.modal-back.72y75x63q2g</v>
       </c>
+      <c r="B500" t="str">
+        <v>请选择回收项目</v>
+      </c>
       <c r="C500" t="str">
         <v>请选择回收项目</v>
       </c>
@@ -4387,6 +5884,9 @@
       <c r="A501" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.modal-back.95o5szgswfe</v>
       </c>
+      <c r="B501" t="str">
+        <v>当前标签未授权给任何项目</v>
+      </c>
       <c r="C501" t="str">
         <v>当前标签未授权给任何项目</v>
       </c>
@@ -4395,6 +5895,9 @@
       <c r="A502" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.tag-list.search.hkdxzb1n1yo</v>
       </c>
+      <c r="B502" t="str">
+        <v>请输入标签名称关键字搜索</v>
+      </c>
       <c r="C502" t="str">
         <v>请输入标签名称关键字搜索</v>
       </c>
@@ -4403,6 +5906,9 @@
       <c r="A503" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.util.6vguv9zkjx</v>
       </c>
+      <c r="B503" t="str">
+        <v>待绑定</v>
+      </c>
       <c r="C503" t="str">
         <v>待绑定</v>
       </c>
@@ -4411,6 +5917,9 @@
       <c r="A504" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.util.ehdjmjcod79</v>
       </c>
+      <c r="B504" t="str">
+        <v>下架</v>
+      </c>
       <c r="C504" t="str">
         <v>下架</v>
       </c>
@@ -4419,6 +5928,9 @@
       <c r="A505" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.util.ery4goj9mco</v>
       </c>
+      <c r="B505" t="str">
+        <v>上架</v>
+      </c>
       <c r="C505" t="str">
         <v>上架</v>
       </c>
@@ -4427,6 +5939,9 @@
       <c r="A506" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.util.1a990qgw6rz</v>
       </c>
+      <c r="B506" t="str">
+        <v>下架审批中</v>
+      </c>
       <c r="C506" t="str">
         <v>下架审批中</v>
       </c>
@@ -4435,6 +5950,9 @@
       <c r="A507" t="str">
         <v>ide.src.page-manage.page-tag-model.tag-model.util.2e6uh3pfdxv</v>
       </c>
+      <c r="B507" t="str">
+        <v>上架审批中</v>
+      </c>
       <c r="C507" t="str">
         <v>上架审批中</v>
       </c>
@@ -4443,6 +5961,9 @@
       <c r="A508" t="str">
         <v>ide.src.page-manage.page-tag-model.tree.select-object-list.lpc3wv8ycr</v>
       </c>
+      <c r="B508" t="str">
+        <v>添加人</v>
+      </c>
       <c r="C508" t="str">
         <v>添加人</v>
       </c>
@@ -4451,6 +5972,9 @@
       <c r="A509" t="str">
         <v>ide.src.page-manage.page-tag-model.tree.select-object-list.1spysrxo318</v>
       </c>
+      <c r="B509" t="str">
+        <v>标签数</v>
+      </c>
       <c r="C509" t="str">
         <v>标签数</v>
       </c>
@@ -4459,6 +5983,9 @@
       <c r="A510" t="str">
         <v>ide.src.page-manage.page-tag-model.tree.select-object-list.gkdk87fcfnp</v>
       </c>
+      <c r="B510" t="str">
+        <v>使用中的对象, 不可移除</v>
+      </c>
       <c r="C510" t="str">
         <v>使用中的对象, 不可移除</v>
       </c>
@@ -4467,6 +5994,9 @@
       <c r="A511" t="str">
         <v>ide.src.page-manage.page-tag-model.tree.select-object-list.fbkn1gnmxqb</v>
       </c>
+      <c r="B511" t="str">
+        <v>请输入对象关键字</v>
+      </c>
       <c r="C511" t="str">
         <v>请输入对象关键字</v>
       </c>
@@ -4475,6 +6005,9 @@
       <c r="A512" t="str">
         <v>ide.src.page-manage.page-tag-model.util.sfkcb1tsp7</v>
       </c>
+      <c r="B512" t="str">
+        <v>未关联</v>
+      </c>
       <c r="C512" t="str">
         <v>未关联</v>
       </c>
@@ -4483,6 +6016,9 @@
       <c r="A513" t="str">
         <v>ide.src.page-manage.page-tag-model.util.zu3bnu97jtf</v>
       </c>
+      <c r="B513" t="str">
+        <v>已关联</v>
+      </c>
       <c r="C513" t="str">
         <v>已关联</v>
       </c>
@@ -4491,6 +6027,9 @@
       <c r="A514" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.config-info.59dxyj6ypgi</v>
       </c>
+      <c r="B514" t="str">
+        <v>配置目的表</v>
+      </c>
       <c r="C514" t="str">
         <v>配置目的表</v>
       </c>
@@ -4499,6 +6038,9 @@
       <c r="A515" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.config-info.85dk1zuhe9h</v>
       </c>
+      <c r="B515" t="str">
+        <v>表</v>
+      </c>
       <c r="C515" t="str">
         <v>表</v>
       </c>
@@ -4507,6 +6049,9 @@
       <c r="A516" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.config-info.fgii8tqth9f</v>
       </c>
+      <c r="B516" t="str">
+        <v>配置同步标签</v>
+      </c>
       <c r="C516" t="str">
         <v>配置同步标签</v>
       </c>
@@ -4515,6 +6060,9 @@
       <c r="A517" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.config-info.mzpcc18sdb</v>
       </c>
+      <c r="B517" t="str">
+        <v>同步标签总数：</v>
+      </c>
       <c r="C517" t="str">
         <v>同步标签总数：</v>
       </c>
@@ -4523,6 +6071,9 @@
       <c r="A518" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.config-info.7n32w7krh6d</v>
       </c>
+      <c r="B518" t="str">
+        <v>同步标签：</v>
+      </c>
       <c r="C518" t="str">
         <v>同步标签：</v>
       </c>
@@ -4531,6 +6082,9 @@
       <c r="A519" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.config-info.iejk9zbmj4</v>
       </c>
+      <c r="B519" t="str">
+        <v>调度配置</v>
+      </c>
       <c r="C519" t="str">
         <v>调度配置</v>
       </c>
@@ -4539,6 +6093,9 @@
       <c r="A520" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.config-info.y6c22kjlsuj</v>
       </c>
+      <c r="B520" t="str">
+        <v>调度类型</v>
+      </c>
       <c r="C520" t="str">
         <v>调度类型</v>
       </c>
@@ -4547,6 +6104,9 @@
       <c r="A521" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.config-info.he3cdw5lqaj</v>
       </c>
+      <c r="B521" t="str">
+        <v>调度周期</v>
+      </c>
       <c r="C521" t="str">
         <v>调度周期</v>
       </c>
@@ -4555,6 +6115,9 @@
       <c r="A522" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.config-info.3rzdvudbw2h</v>
       </c>
+      <c r="B522" t="str">
+        <v>调度时间</v>
+      </c>
       <c r="C522" t="str">
         <v>调度时间</v>
       </c>
@@ -4563,6 +6126,9 @@
       <c r="A523" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.main.m38f67oruj</v>
       </c>
+      <c r="B523" t="str">
+        <v>配置信息</v>
+      </c>
       <c r="C523" t="str">
         <v>配置信息</v>
       </c>
@@ -4571,6 +6137,9 @@
       <c r="A524" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.main.x2izvfk9gwh</v>
       </c>
+      <c r="B524" t="str">
+        <v>运行记录</v>
+      </c>
       <c r="C524" t="str">
         <v>运行记录</v>
       </c>
@@ -4579,6 +6148,9 @@
       <c r="A525" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.main.rjxbzeiw5pg</v>
       </c>
+      <c r="B525" t="str">
+        <v>未完成</v>
+      </c>
       <c r="C525" t="str">
         <v>未完成</v>
       </c>
@@ -4587,6 +6159,9 @@
       <c r="A526" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.main.yf96acx8evb</v>
       </c>
+      <c r="B526" t="str">
+        <v>提交成功</v>
+      </c>
       <c r="C526" t="str">
         <v>提交成功</v>
       </c>
@@ -4595,6 +6170,9 @@
       <c r="A527" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.main.2n0b3tsdnkb</v>
       </c>
+      <c r="B527" t="str">
+        <v>提交失败</v>
+      </c>
       <c r="C527" t="str">
         <v>提交失败</v>
       </c>
@@ -4603,6 +6181,9 @@
       <c r="A528" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.main.huk8rr9jxlj</v>
       </c>
+      <c r="B528" t="str">
+        <v>提交中</v>
+      </c>
       <c r="C528" t="str">
         <v>提交中</v>
       </c>
@@ -4611,6 +6192,9 @@
       <c r="A529" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.main.0doda0qa0mh</v>
       </c>
+      <c r="B529" t="str">
+        <v>更新成功</v>
+      </c>
       <c r="C529" t="str">
         <v>更新成功</v>
       </c>
@@ -4619,6 +6203,9 @@
       <c r="A530" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.main.xsc1gk9ooy</v>
       </c>
+      <c r="B530" t="str">
+        <v>更新失败</v>
+      </c>
       <c r="C530" t="str">
         <v>更新失败</v>
       </c>
@@ -4627,6 +6214,9 @@
       <c r="A531" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.main.kl5h1dt6a5o</v>
       </c>
+      <c r="B531" t="str">
+        <v>更新中</v>
+      </c>
       <c r="C531" t="str">
         <v>更新中</v>
       </c>
@@ -4635,6 +6225,9 @@
       <c r="A532" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.modal-log.btekxc28nyd</v>
       </c>
+      <c r="B532" t="str">
+        <v>日志</v>
+      </c>
       <c r="C532" t="str">
         <v>日志</v>
       </c>
@@ -4643,6 +6236,9 @@
       <c r="A533" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.run-record.yoe34ygwt6e</v>
       </c>
+      <c r="B533" t="str">
+        <v>运行中</v>
+      </c>
       <c r="C533" t="str">
         <v>运行中</v>
       </c>
@@ -4651,6 +6247,9 @@
       <c r="A534" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.run-record.ifoapcxe4mr</v>
       </c>
+      <c r="B534" t="str">
+        <v>运行失败</v>
+      </c>
       <c r="C534" t="str">
         <v>运行失败</v>
       </c>
@@ -4659,6 +6258,9 @@
       <c r="A535" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.run-record.predyi8le4m</v>
       </c>
+      <c r="B535" t="str">
+        <v>运行成功</v>
+      </c>
       <c r="C535" t="str">
         <v>运行成功</v>
       </c>
@@ -4667,6 +6269,9 @@
       <c r="A536" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.run-record.mgayut83ss9</v>
       </c>
+      <c r="B536" t="str">
+        <v>记录ID</v>
+      </c>
       <c r="C536" t="str">
         <v>记录ID</v>
       </c>
@@ -4675,6 +6280,9 @@
       <c r="A537" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.run-record.d0x84mwaaw</v>
       </c>
+      <c r="B537" t="str">
+        <v>运行开始时间</v>
+      </c>
       <c r="C537" t="str">
         <v>运行开始时间</v>
       </c>
@@ -4683,6 +6291,9 @@
       <c r="A538" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.run-record.zmmrwqefyue</v>
       </c>
+      <c r="B538" t="str">
+        <v>运行结束时间</v>
+      </c>
       <c r="C538" t="str">
         <v>运行结束时间</v>
       </c>
@@ -4691,6 +6302,9 @@
       <c r="A539" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.run-record.md2u2058o6h</v>
       </c>
+      <c r="B539" t="str">
+        <v>运行状态</v>
+      </c>
       <c r="C539" t="str">
         <v>运行状态</v>
       </c>
@@ -4699,6 +6313,9 @@
       <c r="A540" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.run-record.zrctvxz3f2k</v>
       </c>
+      <c r="B540" t="str">
+        <v>记录数</v>
+      </c>
       <c r="C540" t="str">
         <v>记录数</v>
       </c>
@@ -4707,6 +6324,9 @@
       <c r="A541" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.run-record.5vouwbhc3g6</v>
       </c>
+      <c r="B541" t="str">
+        <v>重跑</v>
+      </c>
       <c r="C541" t="str">
         <v>重跑</v>
       </c>
@@ -4715,6 +6335,9 @@
       <c r="A542" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.run-record.untqehrrk6c</v>
       </c>
+      <c r="B542" t="str">
+        <v>查看日志</v>
+      </c>
       <c r="C542" t="str">
         <v>查看日志</v>
       </c>
@@ -4723,6 +6346,9 @@
       <c r="A543" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.run-record.wlsmb4ud0m</v>
       </c>
+      <c r="B543" t="str">
+        <v>请选择运行状态</v>
+      </c>
       <c r="C543" t="str">
         <v>请选择运行状态</v>
       </c>
@@ -4731,6 +6357,9 @@
       <c r="A544" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.run-record.3uzg1q7hy1s</v>
       </c>
+      <c r="B544" t="str">
+        <v>运行日期</v>
+      </c>
       <c r="C544" t="str">
         <v>运行日期</v>
       </c>
@@ -4739,6 +6368,9 @@
       <c r="A545" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-detail.store.8ix9ytimdyp</v>
       </c>
+      <c r="B545" t="str">
+        <v>每天</v>
+      </c>
       <c r="C545" t="str">
         <v>每天</v>
       </c>
@@ -4747,6 +6379,9 @@
       <c r="A546" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.drawer-edit-list.zqbz4cv42d</v>
       </c>
+      <c r="B546" t="str">
+        <v>输入不能为空</v>
+      </c>
       <c r="C546" t="str">
         <v>输入不能为空</v>
       </c>
@@ -4755,6 +6390,9 @@
       <c r="A547" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.drawer-edit-list.ayznvn4x7nj</v>
       </c>
+      <c r="B547" t="str">
+        <v>目标字段名不能重复</v>
+      </c>
       <c r="C547" t="str">
         <v>目标字段名不能重复</v>
       </c>
@@ -4763,6 +6401,9 @@
       <c r="A548" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.drawer-edit-list.n8qav2egadc</v>
       </c>
+      <c r="B548" t="str">
+        <v>目标字段名</v>
+      </c>
       <c r="C548" t="str">
         <v>目标字段名</v>
       </c>
@@ -4771,6 +6412,9 @@
       <c r="A549" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.drawer-edit-list.ulr4ztxvlyf</v>
       </c>
+      <c r="B549" t="str">
+        <v>目标表字段数据类型</v>
+      </c>
       <c r="C549" t="str">
         <v>目标表字段数据类型</v>
       </c>
@@ -4779,6 +6423,9 @@
       <c r="A550" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.drawer-edit-list.i96ax7trodd</v>
       </c>
+      <c r="B550" t="str">
+        <v>保存</v>
+      </c>
       <c r="C550" t="str">
         <v>保存</v>
       </c>
@@ -4787,6 +6434,9 @@
       <c r="A551" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.drawer-edit-list.7gij9ot1mnl</v>
       </c>
+      <c r="B551" t="str">
+        <v>全部清空</v>
+      </c>
       <c r="C551" t="str">
         <v>全部清空</v>
       </c>
@@ -4795,6 +6445,9 @@
       <c r="A552" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.drawer-edit-tree.m9vqety4h3</v>
       </c>
+      <c r="B552" t="str">
+        <v>全选</v>
+      </c>
       <c r="C552" t="str">
         <v>全选</v>
       </c>
@@ -4803,6 +6456,9 @@
       <c r="A553" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.drawer-edit.dwo7hiv1p6</v>
       </c>
+      <c r="B553" t="str">
+        <v>编辑同步计划</v>
+      </c>
       <c r="C553" t="str">
         <v>编辑同步计划</v>
       </c>
@@ -4811,6 +6467,9 @@
       <c r="A554" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.drawer.tfevsz6gs4</v>
       </c>
+      <c r="B554" t="str">
+        <v>新建同步计划</v>
+      </c>
       <c r="C554" t="str">
         <v>新建同步计划</v>
       </c>
@@ -4819,6 +6478,9 @@
       <c r="A555" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.drawer.wzshlw2v4y</v>
       </c>
+      <c r="B555" t="str">
+        <v>预览保存</v>
+      </c>
       <c r="C555" t="str">
         <v>预览保存</v>
       </c>
@@ -4827,6 +6489,9 @@
       <c r="A556" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.main.882htd8mhmo</v>
       </c>
+      <c r="B556" t="str">
+        <v>计划名称</v>
+      </c>
       <c r="C556" t="str">
         <v>计划名称</v>
       </c>
@@ -4835,6 +6500,9 @@
       <c r="A557" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.main.hjbky8f7hd</v>
       </c>
+      <c r="B557" t="str">
+        <v>使用中/标签数</v>
+      </c>
       <c r="C557" t="str">
         <v>使用中/标签数</v>
       </c>
@@ -4843,6 +6511,9 @@
       <c r="A558" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.main.49eh1rzoz65</v>
       </c>
+      <c r="B558" t="str">
+        <v>最近提交时间</v>
+      </c>
       <c r="C558" t="str">
         <v>最近提交时间</v>
       </c>
@@ -4851,6 +6522,9 @@
       <c r="A559" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.main.m121153o0vp</v>
       </c>
+      <c r="B559" t="str">
+        <v>周期调度</v>
+      </c>
       <c r="C559" t="str">
         <v>周期调度</v>
       </c>
@@ -4859,6 +6533,9 @@
       <c r="A560" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.main.l5pr8jfpdt8</v>
       </c>
+      <c r="B560" t="str">
+        <v>启动</v>
+      </c>
       <c r="C560" t="str">
         <v>启动</v>
       </c>
@@ -4867,6 +6544,9 @@
       <c r="A561" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.main.cbv22vdspwp</v>
       </c>
+      <c r="B561" t="str">
+        <v>暂停</v>
+      </c>
       <c r="C561" t="str">
         <v>暂停</v>
       </c>
@@ -4875,6 +6555,9 @@
       <c r="A562" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.main.k2rwrgspl4o</v>
       </c>
+      <c r="B562" t="str">
+        <v>计划状态</v>
+      </c>
       <c r="C562" t="str">
         <v>计划状态</v>
       </c>
@@ -4883,6 +6566,9 @@
       <c r="A563" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.main.5y9seazaxhc</v>
       </c>
+      <c r="B563" t="str">
+        <v>最近运行状态</v>
+      </c>
       <c r="C563" t="str">
         <v>最近运行状态</v>
       </c>
@@ -4891,6 +6577,9 @@
       <c r="A564" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.main.r93qum4tmg</v>
       </c>
+      <c r="B564" t="str">
+        <v>提交日志</v>
+      </c>
       <c r="C564" t="str">
         <v>提交日志</v>
       </c>
@@ -4899,6 +6588,9 @@
       <c r="A565" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.main.wpy3sz11tp</v>
       </c>
+      <c r="B565" t="str">
+        <v>你确定要删除吗？</v>
+      </c>
       <c r="C565" t="str">
         <v>你确定要删除吗？</v>
       </c>
@@ -4907,6 +6599,9 @@
       <c r="A566" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.main.xovkki7ebu</v>
       </c>
+      <c r="B566" t="str">
+        <v>你确定要执行吗？</v>
+      </c>
       <c r="C566" t="str">
         <v>你确定要执行吗？</v>
       </c>
@@ -4915,6 +6610,9 @@
       <c r="A567" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.main.ico2ygdkj9</v>
       </c>
+      <c r="B567" t="str">
+        <v>执行</v>
+      </c>
       <c r="C567" t="str">
         <v>执行</v>
       </c>
@@ -4923,6 +6621,9 @@
       <c r="A568" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.main.icb4115qg1i</v>
       </c>
+      <c r="B568" t="str">
+        <v>你确定要暂停吗？</v>
+      </c>
       <c r="C568" t="str">
         <v>你确定要暂停吗？</v>
       </c>
@@ -4931,6 +6632,9 @@
       <c r="A569" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.modal-start.s1eg8zhip0p</v>
       </c>
+      <c r="B569" t="str">
+        <v>启动周期调度</v>
+      </c>
       <c r="C569" t="str">
         <v>启动周期调度</v>
       </c>
@@ -4939,6 +6643,9 @@
       <c r="A570" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.modal-start.gqzpzl1sv4r</v>
       </c>
+      <c r="B570" t="str">
+        <v>调度周期不能为空</v>
+      </c>
       <c r="C570" t="str">
         <v>调度周期不能为空</v>
       </c>
@@ -4947,6 +6654,9 @@
       <c r="A571" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.modal-start.py6hq3ix0g8</v>
       </c>
+      <c r="B571" t="str">
+        <v>调度</v>
+      </c>
       <c r="C571" t="str">
         <v>调度</v>
       </c>
@@ -4955,6 +6665,9 @@
       <c r="A572" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-one.3xm9wutswb9</v>
       </c>
+      <c r="B572" t="str">
+        <v>计划名称不能为空</v>
+      </c>
       <c r="C572" t="str">
         <v>计划名称不能为空</v>
       </c>
@@ -4963,6 +6676,9 @@
       <c r="A573" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-one.3ktdud8rvz6</v>
       </c>
+      <c r="B573" t="str">
+        <v>请输入计划名称</v>
+      </c>
       <c r="C573" t="str">
         <v>请输入计划名称</v>
       </c>
@@ -4971,6 +6687,9 @@
       <c r="A574" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-one.6zd732vlszu</v>
       </c>
+      <c r="B574" t="str">
+        <v>目的源</v>
+      </c>
       <c r="C574" t="str">
         <v>目的源</v>
       </c>
@@ -4979,6 +6698,9 @@
       <c r="A575" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-one.o28pul7s3u</v>
       </c>
+      <c r="B575" t="str">
+        <v>若无可用的数据源，请先去</v>
+      </c>
       <c r="C575" t="str">
         <v>若无可用的数据源，请先去</v>
       </c>
@@ -4987,6 +6709,9 @@
       <c r="A576" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-one.h3ozye9vojw</v>
       </c>
+      <c r="B576" t="str">
+        <v>后台配置-基础配置</v>
+      </c>
       <c r="C576" t="str">
         <v>后台配置-基础配置</v>
       </c>
@@ -4995,6 +6720,9 @@
       <c r="A577" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-one.u8mq35frfym</v>
       </c>
+      <c r="B577" t="str">
+        <v>中添加目的数据源</v>
+      </c>
       <c r="C577" t="str">
         <v>中添加目的数据源</v>
       </c>
@@ -5003,6 +6731,9 @@
       <c r="A578" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-one.1zqrsmr1kc3</v>
       </c>
+      <c r="B578" t="str">
+        <v>请选择目的源</v>
+      </c>
       <c r="C578" t="str">
         <v>请选择目的源</v>
       </c>
@@ -5011,6 +6742,9 @@
       <c r="A579" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-one.aeuprk6e6c</v>
       </c>
+      <c r="B579" t="str">
+        <v>请选择所属对象</v>
+      </c>
       <c r="C579" t="str">
         <v>请选择所属对象</v>
       </c>
@@ -5019,6 +6753,9 @@
       <c r="A580" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-one.cna70avlgoj</v>
       </c>
+      <c r="B580" t="str">
+        <v>自定义目的表</v>
+      </c>
       <c r="C580" t="str">
         <v>自定义目的表</v>
       </c>
@@ -5027,6 +6764,9 @@
       <c r="A581" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-one.fqn16w8hfcf</v>
       </c>
+      <c r="B581" t="str">
+        <v>表名</v>
+      </c>
       <c r="C581" t="str">
         <v>表名</v>
       </c>
@@ -5035,6 +6775,9 @@
       <c r="A582" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-one.7l4fplaaicb</v>
       </c>
+      <c r="B582" t="str">
+        <v>表名不能为空</v>
+      </c>
       <c r="C582" t="str">
         <v>表名不能为空</v>
       </c>
@@ -5043,6 +6786,9 @@
       <c r="A583" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-one.450whn0yz9y</v>
       </c>
+      <c r="B583" t="str">
+        <v>请输入表名称</v>
+      </c>
       <c r="C583" t="str">
         <v>请输入表名称</v>
       </c>
@@ -5051,6 +6797,9 @@
       <c r="A584" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-three.zuis6z8dlya</v>
       </c>
+      <c r="B584" t="str">
+        <v>基本信息</v>
+      </c>
       <c r="C584" t="str">
         <v>基本信息</v>
       </c>
@@ -5059,6 +6808,9 @@
       <c r="A585" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-three.o5xmbmtg9qr</v>
       </c>
+      <c r="B585" t="str">
+        <v>方案名称</v>
+      </c>
       <c r="C585" t="str">
         <v>方案名称</v>
       </c>
@@ -5067,6 +6819,9 @@
       <c r="A586" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-three.kopjxtrup1</v>
       </c>
+      <c r="B586" t="str">
+        <v>配置目的源</v>
+      </c>
       <c r="C586" t="str">
         <v>配置目的源</v>
       </c>
@@ -5075,6 +6830,9 @@
       <c r="A587" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-three.kygcc96f09k</v>
       </c>
+      <c r="B587" t="str">
+        <v>您确定要提交该同步计划吗?</v>
+      </c>
       <c r="C587" t="str">
         <v>您确定要提交该同步计划吗?</v>
       </c>
@@ -5083,6 +6841,9 @@
       <c r="A588" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-three.6sqnqzjhm2q</v>
       </c>
+      <c r="B588" t="str">
+        <v>是的</v>
+      </c>
       <c r="C588" t="str">
         <v>是的</v>
       </c>
@@ -5091,6 +6852,9 @@
       <c r="A589" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.step-three.gqb95qcjngv</v>
       </c>
+      <c r="B589" t="str">
+        <v>提交</v>
+      </c>
       <c r="C589" t="str">
         <v>提交</v>
       </c>
@@ -5099,6 +6863,9 @@
       <c r="A590" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.store-drawer.e5ts5izctvj</v>
       </c>
+      <c r="B590" t="str">
+        <v>表名已存在</v>
+      </c>
       <c r="C590" t="str">
         <v>表名已存在</v>
       </c>
@@ -5107,6 +6874,9 @@
       <c r="A591" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.store.rgn76ck5bt</v>
       </c>
+      <c r="B591" t="str">
+        <v>启动成功</v>
+      </c>
       <c r="C591" t="str">
         <v>启动成功</v>
       </c>
@@ -5115,6 +6885,9 @@
       <c r="A592" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.store.g33kpym7a9s</v>
       </c>
+      <c r="B592" t="str">
+        <v>启动失败</v>
+      </c>
       <c r="C592" t="str">
         <v>启动失败</v>
       </c>
@@ -5123,6 +6896,9 @@
       <c r="A593" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.store.9nh3b00j4hp</v>
       </c>
+      <c r="B593" t="str">
+        <v>暂停成功</v>
+      </c>
       <c r="C593" t="str">
         <v>暂停成功</v>
       </c>
@@ -5131,6 +6907,9 @@
       <c r="A594" t="str">
         <v>ide.src.page-manage.page-tag-sync.sync-list.store.9k59qn8o8ye</v>
       </c>
+      <c r="B594" t="str">
+        <v>暂停失败</v>
+      </c>
       <c r="C594" t="str">
         <v>暂停失败</v>
       </c>
@@ -5139,6 +6918,9 @@
       <c r="A595" t="str">
         <v>ide.src.page-manage.page-tag-sync.util.17pxvua4hny</v>
       </c>
+      <c r="B595" t="str">
+        <v>手动执行</v>
+      </c>
       <c r="C595" t="str">
         <v>手动执行</v>
       </c>
@@ -5147,6 +6929,9 @@
       <c r="A596" t="str">
         <v>ide.src.page-overview.cloud.8e89dfeyryv</v>
       </c>
+      <c r="B596" t="str">
+        <v>对象云图</v>
+      </c>
       <c r="C596" t="str">
         <v>对象云图</v>
       </c>
@@ -5155,6 +6940,9 @@
       <c r="A597" t="str">
         <v>ide.src.page-overview.cloud.pygifm5t3ra</v>
       </c>
+      <c r="B597" t="str">
+        <v>实体：</v>
+      </c>
       <c r="C597" t="str">
         <v>实体：</v>
       </c>
@@ -5163,6 +6951,9 @@
       <c r="A598" t="str">
         <v>ide.src.page-overview.cloud.p9lyn2gdup</v>
       </c>
+      <c r="B598" t="str">
+        <v>关系：</v>
+      </c>
       <c r="C598" t="str">
         <v>关系：</v>
       </c>
@@ -5171,6 +6962,9 @@
       <c r="A599" t="str">
         <v>ide.src.page-overview.distribute.8tqgeh77op</v>
       </c>
+      <c r="B599" t="str">
+        <v>实体标签</v>
+      </c>
       <c r="C599" t="str">
         <v>实体标签</v>
       </c>
@@ -5179,6 +6973,9 @@
       <c r="A600" t="str">
         <v>ide.src.page-overview.distribute.rvs314iz1x</v>
       </c>
+      <c r="B600" t="str">
+        <v>关系标签</v>
+      </c>
       <c r="C600" t="str">
         <v>关系标签</v>
       </c>
@@ -5187,6 +6984,9 @@
       <c r="A601" t="str">
         <v>ide.src.page-overview.distribute.42pjjvwmv2r</v>
       </c>
+      <c r="B601" t="str">
+        <v>对象类型分布</v>
+      </c>
       <c r="C601" t="str">
         <v>对象类型分布</v>
       </c>
@@ -5195,6 +6995,9 @@
       <c r="A602" t="str">
         <v>ide.src.page-overview.distribute.lwj2stvaomo</v>
       </c>
+      <c r="B602" t="str">
+        <v>标签资产分布</v>
+      </c>
       <c r="C602" t="str">
         <v>标签资产分布</v>
       </c>
@@ -5203,6 +7006,9 @@
       <c r="A603" t="str">
         <v>ide.src.page-overview.distribute.4j9ggxmudb4</v>
       </c>
+      <c r="B603" t="str">
+        <v>标签类型分布</v>
+      </c>
       <c r="C603" t="str">
         <v>标签类型分布</v>
       </c>
@@ -5211,6 +7017,9 @@
       <c r="A604" t="str">
         <v>ide.src.page-overview.line.0lgkec2vqirn</v>
       </c>
+      <c r="B604" t="str">
+        <v>标签使用统计</v>
+      </c>
       <c r="C604" t="str">
         <v>标签使用统计</v>
       </c>
@@ -5219,6 +7028,9 @@
       <c r="A605" t="str">
         <v>ide.src.page-overview.overview-card.hgz5da0c39w</v>
       </c>
+      <c r="B605" t="str">
+        <v>实体总数</v>
+      </c>
       <c r="C605" t="str">
         <v>实体总数</v>
       </c>
@@ -5227,6 +7039,9 @@
       <c r="A606" t="str">
         <v>ide.src.page-overview.overview-card.an9demw8kea</v>
       </c>
+      <c r="B606" t="str">
+        <v>已经发布的实体总数</v>
+      </c>
       <c r="C606" t="str">
         <v>已经发布的实体总数</v>
       </c>
@@ -5235,6 +7050,9 @@
       <c r="A607" t="str">
         <v>ide.src.page-overview.overview-card.9mt20zw5pum</v>
       </c>
+      <c r="B607" t="str">
+        <v>关系总数</v>
+      </c>
       <c r="C607" t="str">
         <v>关系总数</v>
       </c>
@@ -5243,6 +7061,9 @@
       <c r="A608" t="str">
         <v>ide.src.page-overview.overview-card.96umvipy52w</v>
       </c>
+      <c r="B608" t="str">
+        <v>已经发布的关系总数</v>
+      </c>
       <c r="C608" t="str">
         <v>已经发布的关系总数</v>
       </c>
@@ -5251,6 +7072,9 @@
       <c r="A609" t="str">
         <v>ide.src.page-overview.overview-card.j85uwoylf18</v>
       </c>
+      <c r="B609" t="str">
+        <v>项目总数</v>
+      </c>
       <c r="C609" t="str">
         <v>项目总数</v>
       </c>
@@ -5259,6 +7083,9 @@
       <c r="A610" t="str">
         <v>ide.src.page-overview.overview-card.9ljmmozjrr</v>
       </c>
+      <c r="B610" t="str">
+        <v>授权标签中心的项目总数</v>
+      </c>
       <c r="C610" t="str">
         <v>授权标签中心的项目总数</v>
       </c>
@@ -5267,6 +7094,9 @@
       <c r="A611" t="str">
         <v>ide.src.page-overview.overview-card.dwoezp52np8</v>
       </c>
+      <c r="B611" t="str">
+        <v>基础数据</v>
+      </c>
       <c r="C611" t="str">
         <v>基础数据</v>
       </c>
@@ -5275,6 +7105,9 @@
       <c r="A612" t="str">
         <v>ide.src.page-overview.tag-rank.phqhrnfl1n</v>
       </c>
+      <c r="B612" t="str">
+        <v>次</v>
+      </c>
       <c r="C612" t="str">
         <v>次</v>
       </c>
@@ -5283,6 +7116,9 @@
       <c r="A613" t="str">
         <v>ide.src.page-overview.tag-rank.k9wmmrjxcf</v>
       </c>
+      <c r="B613" t="str">
+        <v>天</v>
+      </c>
       <c r="C613" t="str">
         <v>天</v>
       </c>
@@ -5291,6 +7127,9 @@
       <c r="A614" t="str">
         <v>ide.src.page-overview.tag-rank.h6izg4ddl1n</v>
       </c>
+      <c r="B614" t="str">
+        <v>生产标签数项目 TOP5</v>
+      </c>
       <c r="C614" t="str">
         <v>生产标签数项目 TOP5</v>
       </c>
@@ -5299,6 +7138,9 @@
       <c r="A615" t="str">
         <v>ide.src.page-overview.tag-rank.a90b5oh8yxn</v>
       </c>
+      <c r="B615" t="str">
+        <v>昨日标签调用次数 TOP5</v>
+      </c>
       <c r="C615" t="str">
         <v>昨日标签调用次数 TOP5</v>
       </c>
@@ -5307,6 +7149,9 @@
       <c r="A616" t="str">
         <v>ide.src.page-overview.tag-rank.agu40qqutir</v>
       </c>
+      <c r="B616" t="str">
+        <v>冷门标签 TOP5</v>
+      </c>
       <c r="C616" t="str">
         <v>冷门标签 TOP5</v>
       </c>
@@ -5315,6 +7160,9 @@
       <c r="A617" t="str">
         <v>ide.src.page-overview.tag-rank.91qv4s5hil5</v>
       </c>
+      <c r="B617" t="str">
+        <v>标签累计调用次数 TOP5</v>
+      </c>
       <c r="C617" t="str">
         <v>标签累计调用次数 TOP5</v>
       </c>
@@ -5323,6 +7171,9 @@
       <c r="A618" t="str">
         <v>ide.src.page-overview.util.4skc4y5kfdf</v>
       </c>
+      <c r="B618" t="str">
+        <v>日期: {paramAxisValue}&lt;br /&gt;总调用次数: {paramsData}</v>
+      </c>
       <c r="C618" t="str">
         <v>日期: {paramAxisValue}&lt;br /&gt;总调用次数: {paramsData}</v>
       </c>
@@ -5331,6 +7182,9 @@
       <c r="A619" t="str">
         <v>ide.src.page-process.code-component.log-panel.2w14wesn6dy</v>
       </c>
+      <c r="B619" t="str">
+        <v>点击可以清空已有的日志</v>
+      </c>
       <c r="C619" t="str">
         <v>点击可以清空已有的日志</v>
       </c>
@@ -5339,6 +7193,9 @@
       <c r="A620" t="str">
         <v>ide.src.page-process.code-component.log-panel.53aiqkiy0uw</v>
       </c>
+      <c r="B620" t="str">
+        <v>清空日志</v>
+      </c>
       <c r="C620" t="str">
         <v>清空日志</v>
       </c>
@@ -5347,6 +7204,9 @@
       <c r="A621" t="str">
         <v>ide.src.page-process.code-component.log-panel.alo8sselbbc</v>
       </c>
+      <c r="B621" t="str">
+        <v>运行结果{index}</v>
+      </c>
       <c r="C621" t="str">
         <v>运行结果{index}</v>
       </c>
@@ -5355,6 +7215,9 @@
       <c r="A622" t="str">
         <v>ide.src.page-process.code-component.result-table.ke0eq3liovk</v>
       </c>
+      <c r="B622" t="str">
+        <v>获取{taskInstanceId}的结果失败!</v>
+      </c>
       <c r="C622" t="str">
         <v>获取{taskInstanceId}的结果失败!</v>
       </c>
@@ -5363,6 +7226,9 @@
       <c r="A623" t="str">
         <v>ide.src.page-process.code-component.result-table.43ui2fu4qri</v>
       </c>
+      <c r="B623" t="str">
+        <v>序号</v>
+      </c>
       <c r="C623" t="str">
         <v>序号</v>
       </c>
@@ -5371,6 +7237,9 @@
       <c r="A624" t="str">
         <v>ide.src.page-process.schema-detail.config-info.ca3eiune9je</v>
       </c>
+      <c r="B624" t="str">
+        <v>逻辑配置</v>
+      </c>
       <c r="C624" t="str">
         <v>逻辑配置</v>
       </c>
@@ -5379,6 +7248,9 @@
       <c r="A625" t="str">
         <v>ide.src.page-process.schema-detail.config-info.fhtygnt5bdf</v>
       </c>
+      <c r="B625" t="str">
+        <v>标签数/字段数：</v>
+      </c>
       <c r="C625" t="str">
         <v>标签数/字段数：</v>
       </c>
@@ -5387,6 +7259,9 @@
       <c r="A626" t="str">
         <v>ide.src.page-process.schema-detail.main.tua55dlv62t</v>
       </c>
+      <c r="B626" t="str">
+        <v>方案类型</v>
+      </c>
       <c r="C626" t="str">
         <v>方案类型</v>
       </c>
@@ -5395,6 +7270,9 @@
       <c r="A627" t="str">
         <v>ide.src.page-process.schema-detail.main.qxjr69vf03o</v>
       </c>
+      <c r="B627" t="str">
+        <v>物理表</v>
+      </c>
       <c r="C627" t="str">
         <v>物理表</v>
       </c>
@@ -5403,6 +7281,9 @@
       <c r="A628" t="str">
         <v>ide.src.page-process.schema-list.config-drawer-two.wgiytjvdtje</v>
       </c>
+      <c r="B628" t="str">
+        <v>更新前</v>
+      </c>
       <c r="C628" t="str">
         <v>更新前</v>
       </c>
@@ -5411,6 +7292,9 @@
       <c r="A629" t="str">
         <v>ide.src.page-process.schema-list.config-drawer-two.2mybooff8mq</v>
       </c>
+      <c r="B629" t="str">
+        <v>更新后</v>
+      </c>
       <c r="C629" t="str">
         <v>更新后</v>
       </c>
@@ -5419,6 +7303,9 @@
       <c r="A630" t="str">
         <v>ide.src.page-process.schema-list.config-drawer.jfbmkb7dj4o</v>
       </c>
+      <c r="B630" t="str">
+        <v>结果预览</v>
+      </c>
       <c r="C630" t="str">
         <v>结果预览</v>
       </c>
@@ -5427,6 +7314,9 @@
       <c r="A631" t="str">
         <v>ide.src.page-process.schema-list.config-form.7j9uobg1hij</v>
       </c>
+      <c r="B631" t="str">
+        <v>标签表示的业务逻辑，例如“该用户的手机号”，不超过100个字</v>
+      </c>
       <c r="C631" t="str">
         <v>标签表示的业务逻辑，例如“该用户的手机号”，不超过100个字</v>
       </c>
@@ -5435,6 +7325,9 @@
       <c r="A632" t="str">
         <v>ide.src.page-process.schema-list.config-form.joncuwqju4</v>
       </c>
+      <c r="B632" t="str">
+        <v>配置</v>
+      </c>
       <c r="C632" t="str">
         <v>配置</v>
       </c>
@@ -5443,6 +7336,9 @@
       <c r="A633" t="str">
         <v>ide.src.page-process.schema-list.config-form.7yt3glrq2rx</v>
       </c>
+      <c r="B633" t="str">
+        <v>点击左侧字段名称</v>
+      </c>
       <c r="C633" t="str">
         <v>点击左侧字段名称</v>
       </c>
@@ -5451,6 +7347,9 @@
       <c r="A634" t="str">
         <v>ide.src.page-process.schema-list.config-table.v0yomx1i6fk</v>
       </c>
+      <c r="B634" t="str">
+        <v>未配置</v>
+      </c>
       <c r="C634" t="str">
         <v>未配置</v>
       </c>
@@ -5459,6 +7358,9 @@
       <c r="A635" t="str">
         <v>ide.src.page-process.schema-list.config-table.8djz7ggbb12</v>
       </c>
+      <c r="B635" t="str">
+        <v>发布状态</v>
+      </c>
       <c r="C635" t="str">
         <v>发布状态</v>
       </c>
@@ -5467,6 +7369,9 @@
       <c r="A636" t="str">
         <v>ide.src.page-process.schema-list.config-table.1wmh1iuzsh2</v>
       </c>
+      <c r="B636" t="str">
+        <v>全部({allListLength})</v>
+      </c>
       <c r="C636" t="str">
         <v>全部({allListLength})</v>
       </c>
@@ -5475,6 +7380,9 @@
       <c r="A637" t="str">
         <v>ide.src.page-process.schema-list.config-table.nrxr2ulwcv8</v>
       </c>
+      <c r="B637" t="str">
+        <v>已配置({configNum})</v>
+      </c>
       <c r="C637" t="str">
         <v>已配置({configNum})</v>
       </c>
@@ -5483,6 +7391,9 @@
       <c r="A638" t="str">
         <v>ide.src.page-process.schema-list.config-table.1yk8r0ujgpm</v>
       </c>
+      <c r="B638" t="str">
+        <v>显示全部</v>
+      </c>
       <c r="C638" t="str">
         <v>显示全部</v>
       </c>
@@ -5491,6 +7402,9 @@
       <c r="A639" t="str">
         <v>ide.src.page-process.schema-list.config-table.hyvairvkdwj</v>
       </c>
+      <c r="B639" t="str">
+        <v>隐藏已发布</v>
+      </c>
       <c r="C639" t="str">
         <v>隐藏已发布</v>
       </c>
@@ -5499,6 +7413,9 @@
       <c r="A640" t="str">
         <v>ide.src.page-process.schema-list.config-table.b8zwfzrcze6</v>
       </c>
+      <c r="B640" t="str">
+        <v>请输入字段名称查询</v>
+      </c>
       <c r="C640" t="str">
         <v>请输入字段名称查询</v>
       </c>
@@ -5507,6 +7424,9 @@
       <c r="A641" t="str">
         <v>ide.src.page-process.schema-list.drawer-four.don8hj0zgrk</v>
       </c>
+      <c r="B641" t="str">
+        <v>分区配置</v>
+      </c>
       <c r="C641" t="str">
         <v>分区配置</v>
       </c>
@@ -5515,6 +7435,9 @@
       <c r="A642" t="str">
         <v>ide.src.page-process.schema-list.drawer-four.lz4ovsfwwri</v>
       </c>
+      <c r="B642" t="str">
+        <v>设置分区</v>
+      </c>
       <c r="C642" t="str">
         <v>设置分区</v>
       </c>
@@ -5523,6 +7446,9 @@
       <c r="A643" t="str">
         <v>ide.src.page-process.schema-list.drawer-four.uzh0eg21l3</v>
       </c>
+      <c r="B643" t="str">
+        <v>分区字段名</v>
+      </c>
       <c r="C643" t="str">
         <v>分区字段名</v>
       </c>
@@ -5531,6 +7457,9 @@
       <c r="A644" t="str">
         <v>ide.src.page-process.schema-list.drawer-four.5f44gqqmc27</v>
       </c>
+      <c r="B644" t="str">
+        <v>分区字段值</v>
+      </c>
       <c r="C644" t="str">
         <v>分区字段值</v>
       </c>
@@ -5539,6 +7468,9 @@
       <c r="A645" t="str">
         <v>ide.src.page-process.schema-list.drawer-one.lhw5n2z4lk</v>
       </c>
+      <c r="B645" t="str">
+        <v>是否保存方案</v>
+      </c>
       <c r="C645" t="str">
         <v>是否保存方案</v>
       </c>
@@ -5547,6 +7479,9 @@
       <c r="A646" t="str">
         <v>ide.src.page-process.schema-list.drawer-one.vksmn9iajzl</v>
       </c>
+      <c r="B646" t="str">
+        <v>方案名称不能为空</v>
+      </c>
       <c r="C646" t="str">
         <v>方案名称不能为空</v>
       </c>
@@ -5555,6 +7490,9 @@
       <c r="A647" t="str">
         <v>ide.src.page-process.schema-list.drawer-one.leon38a3qh</v>
       </c>
+      <c r="B647" t="str">
+        <v>请输入方案名称</v>
+      </c>
       <c r="C647" t="str">
         <v>请输入方案名称</v>
       </c>
@@ -5563,6 +7501,9 @@
       <c r="A648" t="str">
         <v>ide.src.page-process.schema-list.drawer-three.zas75mojsk</v>
       </c>
+      <c r="B648" t="str">
+        <v>分区字段值暂且只支持输入系统参数（cyctime、bizDate、bizMonth）</v>
+      </c>
       <c r="C648" t="str">
         <v>分区字段值暂且只支持输入系统参数（cyctime、bizDate、bizMonth）</v>
       </c>
@@ -5571,6 +7512,9 @@
       <c r="A649" t="str">
         <v>ide.src.page-process.schema-list.drawer-three.sp9sdduexoa</v>
       </c>
+      <c r="B649" t="str">
+        <v>分区字段名、分区字段值不能为空</v>
+      </c>
       <c r="C649" t="str">
         <v>分区字段名、分区字段值不能为空</v>
       </c>
@@ -5579,6 +7523,9 @@
       <c r="A650" t="str">
         <v>ide.src.page-process.schema-list.drawer-three.23t1njw3kdg</v>
       </c>
+      <c r="B650" t="str">
+        <v>分区字段名不能为空</v>
+      </c>
       <c r="C650" t="str">
         <v>分区字段名不能为空</v>
       </c>
@@ -5587,6 +7534,9 @@
       <c r="A651" t="str">
         <v>ide.src.page-process.schema-list.drawer-three.9zqhqo3vnyu</v>
       </c>
+      <c r="B651" t="str">
+        <v>分区字段值不能为空</v>
+      </c>
       <c r="C651" t="str">
         <v>分区字段值不能为空</v>
       </c>
@@ -5595,6 +7545,9 @@
       <c r="A652" t="str">
         <v>ide.src.page-process.schema-list.drawer-three.fol7th9dx9v</v>
       </c>
+      <c r="B652" t="str">
+        <v>请输入分区字段名</v>
+      </c>
       <c r="C652" t="str">
         <v>请输入分区字段名</v>
       </c>
@@ -5603,6 +7556,9 @@
       <c r="A653" t="str">
         <v>ide.src.page-process.schema-list.drawer-three.uiol0o2xyna</v>
       </c>
+      <c r="B653" t="str">
+        <v>请输入分区字段值</v>
+      </c>
       <c r="C653" t="str">
         <v>请输入分区字段值</v>
       </c>
@@ -5611,6 +7567,9 @@
       <c r="A654" t="str">
         <v>ide.src.page-process.schema-list.drawer-three.3f95udtgi91</v>
       </c>
+      <c r="B654" t="str">
+        <v>请选择调度类型</v>
+      </c>
       <c r="C654" t="str">
         <v>请选择调度类型</v>
       </c>
@@ -5619,6 +7578,9 @@
       <c r="A655" t="str">
         <v>ide.src.page-process.schema-list.drawer-two-code.mohvx2ntaeg</v>
       </c>
+      <c r="B655" t="str">
+        <v>请输入运行代码</v>
+      </c>
       <c r="C655" t="str">
         <v>请输入运行代码</v>
       </c>
@@ -5627,6 +7589,9 @@
       <c r="A656" t="str">
         <v>ide.src.page-process.schema-list.drawer-two-code.sx4six7pkh</v>
       </c>
+      <c r="B656" t="str">
+        <v>正在运行中，不可重复运行</v>
+      </c>
       <c r="C656" t="str">
         <v>正在运行中，不可重复运行</v>
       </c>
@@ -5635,6 +7600,9 @@
       <c r="A657" t="str">
         <v>ide.src.page-process.schema-list.drawer-two-code.xkjtzlkklch</v>
       </c>
+      <c r="B657" t="str">
+        <v>运行</v>
+      </c>
       <c r="C657" t="str">
         <v>运行</v>
       </c>
@@ -5643,6 +7611,9 @@
       <c r="A658" t="str">
         <v>ide.src.page-process.schema-list.drawer-two-code.tdfyvw66olg</v>
       </c>
+      <c r="B658" t="str">
+        <v>停止</v>
+      </c>
       <c r="C658" t="str">
         <v>停止</v>
       </c>
@@ -5651,6 +7622,9 @@
       <c r="A659" t="str">
         <v>ide.src.page-process.schema-list.drawer-two-code.c0h2be35k0k</v>
       </c>
+      <c r="B659" t="str">
+        <v>格式化</v>
+      </c>
       <c r="C659" t="str">
         <v>格式化</v>
       </c>
@@ -5659,6 +7633,9 @@
       <c r="A660" t="str">
         <v>ide.src.page-process.schema-list.drawer-two-params.stibscob8ig</v>
       </c>
+      <c r="B660" t="str">
+        <v>请输入运行参数</v>
+      </c>
       <c r="C660" t="str">
         <v>请输入运行参数</v>
       </c>
@@ -5667,6 +7644,9 @@
       <c r="A661" t="str">
         <v>ide.src.page-process.schema-list.drawer-two-params.fywkc30achr</v>
       </c>
+      <c r="B661" t="str">
+        <v>key值不能为空</v>
+      </c>
       <c r="C661" t="str">
         <v>key值不能为空</v>
       </c>
@@ -5675,6 +7655,9 @@
       <c r="A662" t="str">
         <v>ide.src.page-process.schema-list.drawer-two-params.t8gjart2g4</v>
       </c>
+      <c r="B662" t="str">
+        <v>value值不能为空</v>
+      </c>
       <c r="C662" t="str">
         <v>value值不能为空</v>
       </c>
@@ -5683,6 +7666,9 @@
       <c r="A663" t="str">
         <v>ide.src.page-process.schema-list.drawer-two-params.u1by3isdvm</v>
       </c>
+      <c r="B663" t="str">
+        <v>运行参数</v>
+      </c>
       <c r="C663" t="str">
         <v>运行参数</v>
       </c>
@@ -5691,6 +7677,9 @@
       <c r="A664" t="str">
         <v>ide.src.page-process.schema-list.drawer-two-params.rg3dw7tac3p</v>
       </c>
+      <c r="B664" t="str">
+        <v>用于配置运行时代码中的变量和替换该变量的值</v>
+      </c>
       <c r="C664" t="str">
         <v>用于配置运行时代码中的变量和替换该变量的值</v>
       </c>
@@ -5699,6 +7688,9 @@
       <c r="A665" t="str">
         <v>ide.src.page-process.schema-list.drawer-two-params.qb5zu3caf2s</v>
       </c>
+      <c r="B665" t="str">
+        <v>添加参数</v>
+      </c>
       <c r="C665" t="str">
         <v>添加参数</v>
       </c>
@@ -5707,6 +7699,9 @@
       <c r="A666" t="str">
         <v>ide.src.page-process.schema-list.drawer-two-tree.2tsi343i4g8</v>
       </c>
+      <c r="B666" t="str">
+        <v>函数</v>
+      </c>
       <c r="C666" t="str">
         <v>函数</v>
       </c>
@@ -5715,6 +7710,9 @@
       <c r="A667" t="str">
         <v>ide.src.page-process.schema-list.drawer.wpqsbs6wisc</v>
       </c>
+      <c r="B667" t="str">
+        <v>编辑加工方案</v>
+      </c>
       <c r="C667" t="str">
         <v>编辑加工方案</v>
       </c>
@@ -5723,6 +7721,9 @@
       <c r="A668" t="str">
         <v>ide.src.page-process.schema-list.drawer.exqsb5ca7ap</v>
       </c>
+      <c r="B668" t="str">
+        <v>新建加工方案</v>
+      </c>
       <c r="C668" t="str">
         <v>新建加工方案</v>
       </c>
@@ -5731,6 +7732,9 @@
       <c r="A669" t="str">
         <v>ide.src.page-process.schema-list.drawer.ue4y549a00i</v>
       </c>
+      <c r="B669" t="str">
+        <v>任务配置</v>
+      </c>
       <c r="C669" t="str">
         <v>任务配置</v>
       </c>
@@ -5739,6 +7743,9 @@
       <c r="A670" t="str">
         <v>ide.src.page-process.schema-list.main.q0jida1yspd</v>
       </c>
+      <c r="B670" t="str">
+        <v>方案状态</v>
+      </c>
       <c r="C670" t="str">
         <v>方案状态</v>
       </c>
@@ -5747,6 +7754,9 @@
       <c r="A671" t="str">
         <v>ide.src.page-process.schema-list.main.5jkkr5q47o3</v>
       </c>
+      <c r="B671" t="str">
+        <v>查看</v>
+      </c>
       <c r="C671" t="str">
         <v>查看</v>
       </c>
@@ -5755,6 +7765,9 @@
       <c r="A672" t="str">
         <v>ide.src.page-process.schema-list.main.egyy3dmbujw</v>
       </c>
+      <c r="B672" t="str">
+        <v>你确定要克隆吗？</v>
+      </c>
       <c r="C672" t="str">
         <v>你确定要克隆吗？</v>
       </c>
@@ -5763,6 +7776,9 @@
       <c r="A673" t="str">
         <v>ide.src.page-process.schema-list.main.amp58hp8b94</v>
       </c>
+      <c r="B673" t="str">
+        <v>克隆</v>
+      </c>
       <c r="C673" t="str">
         <v>克隆</v>
       </c>
@@ -5771,6 +7787,9 @@
       <c r="A674" t="str">
         <v>ide.src.page-process.schema-list.main.39hadb4qi1x</v>
       </c>
+      <c r="B674" t="str">
+        <v>更多</v>
+      </c>
       <c r="C674" t="str">
         <v>更多</v>
       </c>
@@ -5779,6 +7798,9 @@
       <c r="A675" t="str">
         <v>ide.src.page-process.schema-list.param-item.84c43ughhyw</v>
       </c>
+      <c r="B675" t="str">
+        <v>输入参数名</v>
+      </c>
       <c r="C675" t="str">
         <v>输入参数名</v>
       </c>
@@ -5787,6 +7809,9 @@
       <c r="A676" t="str">
         <v>ide.src.page-process.schema-list.param-item.z0ydh2qw4j</v>
       </c>
+      <c r="B676" t="str">
+        <v>输入参数值</v>
+      </c>
       <c r="C676" t="str">
         <v>输入参数值</v>
       </c>
@@ -5795,6 +7820,9 @@
       <c r="A677" t="str">
         <v>ide.src.page-process.schema-list.store-code.fu5tdj8j9k7</v>
       </c>
+      <c r="B677" t="str">
+        <v>运行日志</v>
+      </c>
       <c r="C677" t="str">
         <v>运行日志</v>
       </c>
@@ -5803,6 +7831,9 @@
       <c r="A678" t="str">
         <v>ide.src.page-process.schema-list.store-code.01j1molbbzsq</v>
       </c>
+      <c r="B678" t="str">
+        <v>TQL语法校验...waiting...TQL语法校验成功 正在提交...waiting...</v>
+      </c>
       <c r="C678" t="str">
         <v>TQL语法校验...waiting...TQL语法校验成功 正在提交...waiting...</v>
       </c>
@@ -5811,6 +7842,9 @@
       <c r="A679" t="str">
         <v>ide.src.page-process.schema-list.store-code.8c5olwf9ps</v>
       </c>
+      <c r="B679" t="str">
+        <v>TQL语法校验... waiting...   错误信息： {runLogDataLog}</v>
+      </c>
       <c r="C679" t="str">
         <v>TQL语法校验... waiting...   错误信息： {runLogDataLog}</v>
       </c>
@@ -5819,6 +7853,9 @@
       <c r="A680" t="str">
         <v>ide.src.page-process.schema-list.store-code.ai5tux36a8a</v>
       </c>
+      <c r="B680" t="str">
+        <v>TQL语法校验失败</v>
+      </c>
       <c r="C680" t="str">
         <v>TQL语法校验失败</v>
       </c>
@@ -5827,6 +7864,9 @@
       <c r="A681" t="str">
         <v>ide.src.page-process.schema-list.store-code.i82x77jygo</v>
       </c>
+      <c r="B681" t="str">
+        <v>运行TQL失败</v>
+      </c>
       <c r="C681" t="str">
         <v>运行TQL失败</v>
       </c>
@@ -5835,6 +7875,9 @@
       <c r="A682" t="str">
         <v>ide.src.page-process.schema-list.store-code.oi6szzzykkl</v>
       </c>
+      <c r="B682" t="str">
+        <v>正在提交... waiting... {dataLogContent}</v>
+      </c>
       <c r="C682" t="str">
         <v>正在提交... waiting... {dataLogContent}</v>
       </c>
@@ -5843,6 +7886,9 @@
       <c r="A683" t="str">
         <v>ide.src.page-process.schema-list.store-code.exs5cfzhap5</v>
       </c>
+      <c r="B683" t="str">
+        <v>作业运行成功(Finished)</v>
+      </c>
       <c r="C683" t="str">
         <v>作业运行成功(Finished)</v>
       </c>
@@ -5851,6 +7897,9 @@
       <c r="A684" t="str">
         <v>ide.src.page-process.schema-list.store-code.16poztxmzku</v>
       </c>
+      <c r="B684" t="str">
+        <v>系统异常！</v>
+      </c>
       <c r="C684" t="str">
         <v>系统异常！</v>
       </c>
@@ -5859,6 +7908,9 @@
       <c r="A685" t="str">
         <v>ide.src.page-process.schema-list.store-code.r39owm6ho4d</v>
       </c>
+      <c r="B685" t="str">
+        <v>网络不稳定，日志获取失败！</v>
+      </c>
       <c r="C685" t="str">
         <v>网络不稳定，日志获取失败！</v>
       </c>
@@ -5867,6 +7919,9 @@
       <c r="A686" t="str">
         <v>ide.src.page-process.schema-list.store-code.s8lcs6yvn6b</v>
       </c>
+      <c r="B686" t="str">
+        <v>获取日志</v>
+      </c>
       <c r="C686" t="str">
         <v>获取日志</v>
       </c>
@@ -5875,6 +7930,9 @@
       <c r="A687" t="str">
         <v>ide.src.page-process.schema-list.store-config.tr7psnyk0yr</v>
       </c>
+      <c r="B687" t="str">
+        <v>新建标签成功</v>
+      </c>
       <c r="C687" t="str">
         <v>新建标签成功</v>
       </c>
@@ -5883,6 +7941,9 @@
       <c r="A688" t="str">
         <v>ide.src.page-process.schema-list.store-config.tvemppc078h</v>
       </c>
+      <c r="B688" t="str">
+        <v>新建标签失败</v>
+      </c>
       <c r="C688" t="str">
         <v>新建标签失败</v>
       </c>
@@ -5891,6 +7952,9 @@
       <c r="A689" t="str">
         <v>ide.src.page-process.schema-list.store-config.8p8xj1lcz9w</v>
       </c>
+      <c r="B689" t="str">
+        <v>配置成功</v>
+      </c>
       <c r="C689" t="str">
         <v>配置成功</v>
       </c>
@@ -5899,6 +7963,9 @@
       <c r="A690" t="str">
         <v>ide.src.page-process.schema-list.store-config.uqrdf84wn8n</v>
       </c>
+      <c r="B690" t="str">
+        <v>配置失败</v>
+      </c>
       <c r="C690" t="str">
         <v>配置失败</v>
       </c>
@@ -5907,6 +7974,9 @@
       <c r="A691" t="str">
         <v>ide.src.page-process.schema-list.store-config.z20j59s61mb</v>
       </c>
+      <c r="B691" t="str">
+        <v>取消成功</v>
+      </c>
       <c r="C691" t="str">
         <v>取消成功</v>
       </c>
@@ -5915,6 +7985,9 @@
       <c r="A692" t="str">
         <v>ide.src.page-process.schema-list.store-drawer.hqdi7wxgw36</v>
       </c>
+      <c r="B692" t="str">
+        <v>保存成功</v>
+      </c>
       <c r="C692" t="str">
         <v>保存成功</v>
       </c>
@@ -5923,6 +7996,9 @@
       <c r="A693" t="str">
         <v>ide.src.page-process.schema-list.store-drawer.ba6ox0mh9e</v>
       </c>
+      <c r="B693" t="str">
+        <v>保存失败</v>
+      </c>
       <c r="C693" t="str">
         <v>保存失败</v>
       </c>
@@ -5931,6 +8007,9 @@
       <c r="A694" t="str">
         <v>ide.src.page-process.schema-list.store-list.r31921noq6n</v>
       </c>
+      <c r="B694" t="str">
+        <v>克隆成功</v>
+      </c>
       <c r="C694" t="str">
         <v>克隆成功</v>
       </c>
@@ -5939,6 +8018,9 @@
       <c r="A695" t="str">
         <v>ide.src.page-process.schema-list.store-list.rj1y5n9ca7m</v>
       </c>
+      <c r="B695" t="str">
+        <v>克隆失败</v>
+      </c>
       <c r="C695" t="str">
         <v>克隆失败</v>
       </c>
@@ -5947,6 +8029,9 @@
       <c r="A696" t="str">
         <v>ide.src.page-process.schema-list.store-list.v9ynk97t9b9</v>
       </c>
+      <c r="B696" t="str">
+        <v>删除失败</v>
+      </c>
       <c r="C696" t="str">
         <v>删除失败</v>
       </c>
@@ -5955,6 +8040,9 @@
       <c r="A697" t="str">
         <v>ide.src.page-process.tql-explain.main.kfi210eg3y</v>
       </c>
+      <c r="B697" t="str">
+        <v>TQL是什么</v>
+      </c>
       <c r="C697" t="str">
         <v>TQL是什么</v>
       </c>
@@ -5963,6 +8051,9 @@
       <c r="A698" t="str">
         <v>ide.src.page-process.tql-explain.main.0paq8ejns3n</v>
       </c>
+      <c r="B698" t="str">
+        <v>TQL查询数据</v>
+      </c>
       <c r="C698" t="str">
         <v>TQL查询数据</v>
       </c>
@@ -5971,6 +8062,9 @@
       <c r="A699" t="str">
         <v>ide.src.page-process.tql-explain.main.mg7s00a3i4l</v>
       </c>
+      <c r="B699" t="str">
+        <v>限制</v>
+      </c>
       <c r="C699" t="str">
         <v>限制</v>
       </c>
@@ -5979,6 +8073,9 @@
       <c r="A700" t="str">
         <v>ide.src.page-process.tql-explain.main.hh40lo0h1s4</v>
       </c>
+      <c r="B700" t="str">
+        <v>使用参数</v>
+      </c>
       <c r="C700" t="str">
         <v>使用参数</v>
       </c>
@@ -5987,6 +8084,9 @@
       <c r="A701" t="str">
         <v>ide.src.page-process.tql-explain.main.whcjuf3mvsf</v>
       </c>
+      <c r="B701" t="str">
+        <v>连接</v>
+      </c>
       <c r="C701" t="str">
         <v>连接</v>
       </c>
@@ -5995,6 +8095,9 @@
       <c r="A702" t="str">
         <v>ide.src.page-process.tql-explain.main.r0xj15nboh</v>
       </c>
+      <c r="B702" t="str">
+        <v>案例</v>
+      </c>
       <c r="C702" t="str">
         <v>案例</v>
       </c>
@@ -6003,6 +8106,9 @@
       <c r="A703" t="str">
         <v>ide.src.page-process.tql-explain.main.ad7p82ubg5</v>
       </c>
+      <c r="B703" t="str">
+        <v>对象object</v>
+      </c>
       <c r="C703" t="str">
         <v>对象object</v>
       </c>
@@ -6011,6 +8117,9 @@
       <c r="A704" t="str">
         <v>ide.src.page-process.tql-explain.main.ooj3mbo60c</v>
       </c>
+      <c r="B704" t="str">
+        <v>对象下的标签tag</v>
+      </c>
       <c r="C704" t="str">
         <v>对象下的标签tag</v>
       </c>
@@ -6019,6 +8128,9 @@
       <c r="A705" t="str">
         <v>ide.src.page-process.tql-explain.main.l3av6ltxmhp</v>
       </c>
+      <c r="B705" t="str">
+        <v>对象下绑定的表</v>
+      </c>
       <c r="C705" t="str">
         <v>对象下绑定的表</v>
       </c>
@@ -6027,6 +8139,9 @@
       <c r="A706" t="str">
         <v>ide.src.page-process.tql-explain.main.v7zkjkqqntp</v>
       </c>
+      <c r="B706" t="str">
+        <v>TQL例子</v>
+      </c>
       <c r="C706" t="str">
         <v>TQL例子</v>
       </c>
@@ -6035,6 +8150,9 @@
       <c r="A707" t="str">
         <v>ide.src.page-process.tql-explain.main.iizc5gd52g</v>
       </c>
+      <c r="B707" t="str">
+        <v>TQL（Tag Query Language）是标签查询语言，是一种基于业务逻辑模型的数据查询语言。标签查询语言与结构化查询语言（SQL）中的数据查询语言（DQL）类似，用以在业务逻辑模型之上从表中获得数据。TQL仅支持SELECT(不区分大小写)开头的语法，不支持 INSERT INTO、DELETE、UPDATE 等，常与WHERE，ORDER BY，GROUP BY等结合起来使用。语法上与mysql类似。业务逻辑模型即标签体系，通过Object对象、tag标签将库表中的数据重新组织。</v>
+      </c>
       <c r="C707" t="str">
         <v>TQL（Tag Query Language）是标签查询语言，是一种基于业务逻辑模型的数据查询语言。标签查询语言与结构化查询语言（SQL）中的数据查询语言（DQL）类似，用以在业务逻辑模型之上从表中获得数据。TQL仅支持SELECT(不区分大小写)开头的语法，不支持 INSERT INTO、DELETE、UPDATE 等，常与WHERE，ORDER BY，GROUP BY等结合起来使用。语法上与mysql类似。业务逻辑模型即标签体系，通过Object对象、tag标签将库表中的数据重新组织。</v>
       </c>
@@ -6043,6 +8161,9 @@
       <c r="A708" t="str">
         <v>ide.src.page-process.tql-explain.main.nmsdv5pcve</v>
       </c>
+      <c r="B708" t="str">
+        <v>TQL为数据查询而生，用户可以写如下通用SELECT模版语法：</v>
+      </c>
       <c r="C708" t="str">
         <v>TQL为数据查询而生，用户可以写如下通用SELECT模版语法：</v>
       </c>
@@ -6051,6 +8172,9 @@
       <c r="A709" t="str">
         <v>ide.src.page-process.tql-explain.main.gatujhh7y2r</v>
       </c>
+      <c r="B709" t="str">
+        <v>SELECT语句可以使用多个标签，会返回相应标签数据</v>
+      </c>
       <c r="C709" t="str">
         <v>SELECT语句可以使用多个标签，会返回相应标签数据</v>
       </c>
@@ -6059,6 +8183,9 @@
       <c r="A710" t="str">
         <v>ide.src.page-process.tql-explain.main.delu55vhwao</v>
       </c>
+      <c r="B710" t="str">
+        <v>你可以使用 WHERE 语句来包含任何条件</v>
+      </c>
       <c r="C710" t="str">
         <v>你可以使用 WHERE 语句来包含任何条件</v>
       </c>
@@ -6067,6 +8194,9 @@
       <c r="A711" t="str">
         <v>ide.src.page-process.tql-explain.main.ch3tyn5b1m8</v>
       </c>
+      <c r="B711" t="str">
+        <v>条件中某个标签为空时候，需要使用关键字IS NULL 来表示</v>
+      </c>
       <c r="C711" t="str">
         <v>条件中某个标签为空时候，需要使用关键字IS NULL 来表示</v>
       </c>
@@ -6075,6 +8205,9 @@
       <c r="A712" t="str">
         <v>ide.src.page-process.tql-explain.main.qmn40q2eii</v>
       </c>
+      <c r="B712" t="str">
+        <v>可以使用GROUP BY结合COUNT函数来分组统计</v>
+      </c>
       <c r="C712" t="str">
         <v>可以使用GROUP BY结合COUNT函数来分组统计</v>
       </c>
@@ -6083,6 +8216,9 @@
       <c r="A713" t="str">
         <v>ide.src.page-process.tql-explain.main.83vd0aymeuy</v>
       </c>
+      <c r="B713" t="str">
+        <v>可以使用ORDER BY 对结果进行排序</v>
+      </c>
       <c r="C713" t="str">
         <v>可以使用ORDER BY 对结果进行排序</v>
       </c>
@@ -6091,6 +8227,9 @@
       <c r="A714" t="str">
         <v>ide.src.page-process.tql-explain.main.6mytftch2go</v>
       </c>
+      <c r="B714" t="str">
+        <v>你可以使用 LIMIT 属性来设定返回的记录数，目前支持最大的记录条数为5000</v>
+      </c>
       <c r="C714" t="str">
         <v>你可以使用 LIMIT 属性来设定返回的记录数，目前支持最大的记录条数为5000</v>
       </c>
@@ -6099,6 +8238,9 @@
       <c r="A715" t="str">
         <v>ide.src.page-process.tql-explain.main.tn1xyebbzx</v>
       </c>
+      <c r="B715" t="str">
+        <v>不支持SELECT * 这种全量标签形式，必须要指定明确的查询列</v>
+      </c>
       <c r="C715" t="str">
         <v>不支持SELECT * 这种全量标签形式，必须要指定明确的查询列</v>
       </c>
@@ -6107,6 +8249,9 @@
       <c r="A716" t="str">
         <v>ide.src.page-process.tql-explain.main.xgk4wcv2z3</v>
       </c>
+      <c r="B716" t="str">
+        <v>标签、对象可以使用别名，但是别名不能是以"$" 开头的字符串</v>
+      </c>
       <c r="C716" t="str">
         <v>标签、对象可以使用别名，但是别名不能是以"$" 开头的字符串</v>
       </c>
@@ -6115,6 +8260,9 @@
       <c r="A717" t="str">
         <v>ide.src.page-process.tql-explain.main.4dky60h3q1p</v>
       </c>
+      <c r="B717" t="str">
+        <v>不支持子查询，类似如下这种</v>
+      </c>
       <c r="C717" t="str">
         <v>不支持子查询，类似如下这种</v>
       </c>
@@ -6123,6 +8271,9 @@
       <c r="A718" t="str">
         <v>ide.src.page-process.tql-explain.main.hv64z3qtv7r</v>
       </c>
+      <c r="B718" t="str">
+        <v>目前TQL仅支持如下的函数</v>
+      </c>
       <c r="C718" t="str">
         <v>目前TQL仅支持如下的函数</v>
       </c>
@@ -6131,6 +8282,9 @@
       <c r="A719" t="str">
         <v>ide.src.page-process.tql-explain.main.5jbagji56ua</v>
       </c>
+      <c r="B719" t="str">
+        <v>说明</v>
+      </c>
       <c r="C719" t="str">
         <v>说明</v>
       </c>
@@ -6139,6 +8293,9 @@
       <c r="A720" t="str">
         <v>ide.src.page-process.tql-explain.main.lbdisjeo35d</v>
       </c>
+      <c r="B720" t="str">
+        <v>返回指定列的平均值</v>
+      </c>
       <c r="C720" t="str">
         <v>返回指定列的平均值</v>
       </c>
@@ -6147,6 +8304,9 @@
       <c r="A721" t="str">
         <v>ide.src.page-process.tql-explain.main.7fww4bug0ed</v>
       </c>
+      <c r="B721" t="str">
+        <v>返回指定列中非NULL值/行的个数（当函数参数为星号*时不会忽略）</v>
+      </c>
       <c r="C721" t="str">
         <v>返回指定列中非NULL值/行的个数（当函数参数为星号*时不会忽略）</v>
       </c>
@@ -6155,6 +8315,9 @@
       <c r="A722" t="str">
         <v>ide.src.page-process.tql-explain.main.7ob9m0orrir</v>
       </c>
+      <c r="B722" t="str">
+        <v>返回指定列的最小值</v>
+      </c>
       <c r="C722" t="str">
         <v>返回指定列的最小值</v>
       </c>
@@ -6163,6 +8326,9 @@
       <c r="A723" t="str">
         <v>ide.src.page-process.tql-explain.main.bpqvcbeeesa</v>
       </c>
+      <c r="B723" t="str">
+        <v>返回指定列的最大值</v>
+      </c>
       <c r="C723" t="str">
         <v>返回指定列的最大值</v>
       </c>
@@ -6171,6 +8337,9 @@
       <c r="A724" t="str">
         <v>ide.src.page-process.tql-explain.main.xsdxy0dycp</v>
       </c>
+      <c r="B724" t="str">
+        <v>返回指定列的所有值之和</v>
+      </c>
       <c r="C724" t="str">
         <v>返回指定列的所有值之和</v>
       </c>
@@ -6179,6 +8348,9 @@
       <c r="A725" t="str">
         <v>ide.src.page-process.tql-explain.main.48hc18f22wa</v>
       </c>
+      <c r="B725" t="str">
+        <v>取str左边第start位置起，到end位置字长的字符串</v>
+      </c>
       <c r="C725" t="str">
         <v>取str左边第start位置起，到end位置字长的字符串</v>
       </c>
@@ -6187,6 +8359,9 @@
       <c r="A726" t="str">
         <v>ide.src.page-process.tql-explain.main.6ya3m722nmg</v>
       </c>
+      <c r="B726" t="str">
+        <v>依照字符串fmt格式化日期date值</v>
+      </c>
       <c r="C726" t="str">
         <v>依照字符串fmt格式化日期date值</v>
       </c>
@@ -6195,6 +8370,9 @@
       <c r="A727" t="str">
         <v>ide.src.page-process.tql-explain.main.4q449th6ume</v>
       </c>
+      <c r="B727" t="str">
+        <v>返回两个日期之间的天数</v>
+      </c>
       <c r="C727" t="str">
         <v>返回两个日期之间的天数</v>
       </c>
@@ -6203,6 +8381,9 @@
       <c r="A728" t="str">
         <v>ide.src.page-process.tql-explain.main.kzwrxtwwh0e</v>
       </c>
+      <c r="B728" t="str">
+        <v>WHERE条件中的参数格式必须为${参数名}</v>
+      </c>
       <c r="C728" t="str">
         <v>WHERE条件中的参数格式必须为${参数名}</v>
       </c>
@@ -6211,6 +8392,9 @@
       <c r="A729" t="str">
         <v>ide.src.page-process.tql-explain.main.54731o3km3l</v>
       </c>
+      <c r="B729" t="str">
+        <v>样例</v>
+      </c>
       <c r="C729" t="str">
         <v>样例</v>
       </c>
@@ -6219,6 +8403,9 @@
       <c r="A730" t="str">
         <v>ide.src.page-process.tql-explain.main.lbcpowxoi8d</v>
       </c>
+      <c r="B730" t="str">
+        <v>支持使用任何标签来作为排序的条件，从而返回排序后的查询结果</v>
+      </c>
       <c r="C730" t="str">
         <v>支持使用任何标签来作为排序的条件，从而返回排序后的查询结果</v>
       </c>
@@ -6227,6 +8414,9 @@
       <c r="A731" t="str">
         <v>ide.src.page-process.tql-explain.main.qb9pghg2ta</v>
       </c>
+      <c r="B731" t="str">
+        <v>支持设定多个标签来排序</v>
+      </c>
       <c r="C731" t="str">
         <v>支持设定多个标签来排序</v>
       </c>
@@ -6235,6 +8425,9 @@
       <c r="A732" t="str">
         <v>ide.src.page-process.tql-explain.main.7p30fw8yv23</v>
       </c>
+      <c r="B732" t="str">
+        <v>支持使用 ASC 或 DESC 关键字来设置查询结果是按升序或降序排列。 默认情况下，它是按升序ASC排列</v>
+      </c>
       <c r="C732" t="str">
         <v>支持使用 ASC 或 DESC 关键字来设置查询结果是按升序或降序排列。 默认情况下，它是按升序ASC排列</v>
       </c>
@@ -6243,6 +8436,9 @@
       <c r="A733" t="str">
         <v>ide.src.page-process.tql-explain.main.ze1lzzikkzf</v>
       </c>
+      <c r="B733" t="str">
+        <v>被排序的标签必须要出现在SELECT 后面的标签中，否则会查询失败</v>
+      </c>
       <c r="C733" t="str">
         <v>被排序的标签必须要出现在SELECT 后面的标签中，否则会查询失败</v>
       </c>
@@ -6251,6 +8447,9 @@
       <c r="A734" t="str">
         <v>ide.src.page-process.tql-explain.main.poji14si9w7</v>
       </c>
+      <c r="B734" t="str">
+        <v>GROUP BY 语句根据一个或多个列对结果集进行分组。在分组的列上我们可以使用 COUNT, SUM, AVG,等函数。被分组的标签必须要出现在SELECT 后面的标签中，否则会查询失败</v>
+      </c>
       <c r="C734" t="str">
         <v>GROUP BY 语句根据一个或多个列对结果集进行分组。在分组的列上我们可以使用 COUNT, SUM, AVG,等函数。被分组的标签必须要出现在SELECT 后面的标签中，否则会查询失败</v>
       </c>
@@ -6259,6 +8458,9 @@
       <c r="A735" t="str">
         <v>ide.src.page-process.tql-explain.main.xvy8l6rsbmd</v>
       </c>
+      <c r="B735" t="str">
+        <v>精确匹配：</v>
+      </c>
       <c r="C735" t="str">
         <v>精确匹配：</v>
       </c>
@@ -6267,6 +8469,9 @@
       <c r="A736" t="str">
         <v>ide.src.page-process.tql-explain.main.mqrve5rxizh</v>
       </c>
+      <c r="B736" t="str">
+        <v>id：用户传入的标签数据等于id</v>
+      </c>
       <c r="C736" t="str">
         <v>id：用户传入的标签数据等于id</v>
       </c>
@@ -6275,6 +8480,9 @@
       <c r="A737" t="str">
         <v>ide.src.page-process.tql-explain.main.ibsf74k81td</v>
       </c>
+      <c r="B737" t="str">
+        <v>前缀匹配：</v>
+      </c>
       <c r="C737" t="str">
         <v>前缀匹配：</v>
       </c>
@@ -6283,6 +8491,9 @@
       <c r="A738" t="str">
         <v>ide.src.page-process.tql-explain.main.r1as2s6ukw</v>
       </c>
+      <c r="B738" t="str">
+        <v>id%：标签数据以Id开头，以一至多个字符结尾</v>
+      </c>
       <c r="C738" t="str">
         <v>id%：标签数据以Id开头，以一至多个字符结尾</v>
       </c>
@@ -6291,6 +8502,9 @@
       <c r="A739" t="str">
         <v>ide.src.page-process.tql-explain.main.aabvj3h2s7r</v>
       </c>
+      <c r="B739" t="str">
+        <v>后缀匹配：</v>
+      </c>
       <c r="C739" t="str">
         <v>后缀匹配：</v>
       </c>
@@ -6299,6 +8513,9 @@
       <c r="A740" t="str">
         <v>ide.src.page-process.tql-explain.main.egkkpz11vxg</v>
       </c>
+      <c r="B740" t="str">
+        <v>%id：标签数据以一至多个任意字符开头，以Id结尾</v>
+      </c>
       <c r="C740" t="str">
         <v>%id：标签数据以一至多个任意字符开头，以Id结尾</v>
       </c>
@@ -6307,6 +8524,9 @@
       <c r="A741" t="str">
         <v>ide.src.page-process.tql-explain.main.opgwgo295x</v>
       </c>
+      <c r="B741" t="str">
+        <v>全模糊匹配：</v>
+      </c>
       <c r="C741" t="str">
         <v>全模糊匹配：</v>
       </c>
@@ -6315,6 +8535,9 @@
       <c r="A742" t="str">
         <v>ide.src.page-process.tql-explain.main.gcvpbxhjyow</v>
       </c>
+      <c r="B742" t="str">
+        <v>%id%：标签数据以一至多个任意字符开头，中间匹配Id，以一至多个任意字符结尾</v>
+      </c>
       <c r="C742" t="str">
         <v>%id%：标签数据以一至多个任意字符开头，中间匹配Id，以一至多个任意字符结尾</v>
       </c>
@@ -6323,6 +8546,9 @@
       <c r="A743" t="str">
         <v>ide.src.page-process.tql-explain.main.b33hve8v2b</v>
       </c>
+      <c r="B743" t="str">
+        <v>TQL的case when操作Mysql里面一样，支持：</v>
+      </c>
       <c r="C743" t="str">
         <v>TQL的case when操作Mysql里面一样，支持：</v>
       </c>
@@ -6331,6 +8557,9 @@
       <c r="A744" t="str">
         <v>ide.src.page-process.tql-explain.main.4acjechuse</v>
       </c>
+      <c r="B744" t="str">
+        <v>支持两种方式，简单case 函数，case搜索函数</v>
+      </c>
       <c r="C744" t="str">
         <v>支持两种方式，简单case 函数，case搜索函数</v>
       </c>
@@ -6339,6 +8568,9 @@
       <c r="A745" t="str">
         <v>ide.src.page-process.tql-explain.main.xoti6w8szuf</v>
       </c>
+      <c r="B745" t="str">
+        <v xml:space="preserve">                 -- 简单case 函数                 SELECT                  case sex                   when '1' then '男'                   when '2' then '女’                   else '其他' end sex                 FROM                   object_references [WHERE where_condition]                                    --case搜索函数                 SELECT                      case when sex = '1' then '男'                      when sex = '2' then '女'                      else '其他' end   sex                 FROM                   object_references [WHERE where_condition]                 </v>
+      </c>
       <c r="C745" t="str">
         <v xml:space="preserve">                 -- 简单case 函数                 SELECT                  case sex                   when '1' then '男'                   when '2' then '女’                   else '其他' end sex                 FROM                   object_references [WHERE where_condition]                                    --case搜索函数                 SELECT                      case when sex = '1' then '男'                      when sex = '2' then '女'                      else '其他' end   sex                 FROM                   object_references [WHERE where_condition]                 </v>
       </c>
@@ -6347,6 +8579,9 @@
       <c r="A746" t="str">
         <v>ide.src.page-process.tql-explain.main.tu52m5bespt</v>
       </c>
+      <c r="B746" t="str">
+        <v>TQL的连接操作Mysql里面一样，支持：</v>
+      </c>
       <c r="C746" t="str">
         <v>TQL的连接操作Mysql里面一样，支持：</v>
       </c>
@@ -6355,6 +8590,9 @@
       <c r="A747" t="str">
         <v>ide.src.page-process.tql-explain.main.5jnyq50v5iu</v>
       </c>
+      <c r="B747" t="str">
+        <v>INNER JOIN（内连接,或等值连接）：获取两个表中字段匹配关系的记录</v>
+      </c>
       <c r="C747" t="str">
         <v>INNER JOIN（内连接,或等值连接）：获取两个表中字段匹配关系的记录</v>
       </c>
@@ -6363,6 +8601,9 @@
       <c r="A748" t="str">
         <v>ide.src.page-process.tql-explain.main.mp51atuh1o</v>
       </c>
+      <c r="B748" t="str">
+        <v>LEFT JOIN（左连接）：获取左表所有记录，即使右表没有对应匹配的记录</v>
+      </c>
       <c r="C748" t="str">
         <v>LEFT JOIN（左连接）：获取左表所有记录，即使右表没有对应匹配的记录</v>
       </c>
@@ -6371,6 +8612,9 @@
       <c r="A749" t="str">
         <v>ide.src.page-process.tql-explain.main.usbic25ue3j</v>
       </c>
+      <c r="B749" t="str">
+        <v>RIGHT JOIN（右连接）： 与 LEFT JOIN 相反，用于获取右表所有记录，即使左表没有对应匹配的记录</v>
+      </c>
       <c r="C749" t="str">
         <v>RIGHT JOIN（右连接）： 与 LEFT JOIN 相反，用于获取右表所有记录，即使左表没有对应匹配的记录</v>
       </c>
@@ -6379,6 +8623,9 @@
       <c r="A750" t="str">
         <v>ide.src.page-process.tql-explain.main.k85z8n3der</v>
       </c>
+      <c r="B750" t="str">
+        <v>需求：加工出会员最近三十天购买金额、最近三十天下单次数</v>
+      </c>
       <c r="C750" t="str">
         <v>需求：加工出会员最近三十天购买金额、最近三十天下单次数</v>
       </c>
@@ -6387,6 +8634,9 @@
       <c r="A751" t="str">
         <v>ide.src.page-process.tql-explain.main.vahocmghs6</v>
       </c>
+      <c r="B751" t="str">
+        <v>在这里我们有如下对象和标签信息：</v>
+      </c>
       <c r="C751" t="str">
         <v>在这里我们有如下对象和标签信息：</v>
       </c>
@@ -6395,6 +8645,9 @@
       <c r="A752" t="str">
         <v>ide.src.page-process.tql-explain.main.ny94ikobsfp</v>
       </c>
+      <c r="B752" t="str">
+        <v>实体对象：会员（member）、购买记录（buyer）</v>
+      </c>
       <c r="C752" t="str">
         <v>实体对象：会员（member）、购买记录（buyer）</v>
       </c>
@@ -6403,6 +8656,9 @@
       <c r="A753" t="str">
         <v>ide.src.page-process.tql-explain.main.gfjeh45a1ct</v>
       </c>
+      <c r="B753" t="str">
+        <v>简单关系对象：会员产生购买记录（member_buyer）</v>
+      </c>
       <c r="C753" t="str">
         <v>简单关系对象：会员产生购买记录（member_buyer）</v>
       </c>
@@ -6411,6 +8667,9 @@
       <c r="A754" t="str">
         <v>ide.src.page-process.tql-explain.main.pm2dnjowwuk</v>
       </c>
+      <c r="B754" t="str">
+        <v>会员（member）：会员号（id_number）、手机号（phone）、姓名（name）、性别（sex）</v>
+      </c>
       <c r="C754" t="str">
         <v>会员（member）：会员号（id_number）、手机号（phone）、姓名（name）、性别（sex）</v>
       </c>
@@ -6419,6 +8678,9 @@
       <c r="A755" t="str">
         <v>ide.src.page-process.tql-explain.main.4m56536w4ts</v>
       </c>
+      <c r="B755" t="str">
+        <v>购买记录（buyer）：购买id（buyer_id）、购买时间（buyer_time）、购买金额（buyer_money）</v>
+      </c>
       <c r="C755" t="str">
         <v>购买记录（buyer）：购买id（buyer_id）、购买时间（buyer_time）、购买金额（buyer_money）</v>
       </c>
@@ -6427,6 +8689,9 @@
       <c r="A756" t="str">
         <v>ide.src.page-process.tql-explain.main.40bpvf8hffc</v>
       </c>
+      <c r="B756" t="str">
+        <v>会员产生购买记录（member_buyer）：购买id（buyer_id）、会员号（id_number）</v>
+      </c>
       <c r="C756" t="str">
         <v>会员产生购买记录（member_buyer）：购买id（buyer_id）、会员号（id_number）</v>
       </c>
@@ -6435,6 +8700,9 @@
       <c r="A757" t="str">
         <v>ide.src.page-process.tql-explain.main.gk9zsrcyqyq</v>
       </c>
+      <c r="B757" t="str">
+        <v>会员（member）：member</v>
+      </c>
       <c r="C757" t="str">
         <v>会员（member）：member</v>
       </c>
@@ -6443,6 +8711,9 @@
       <c r="A758" t="str">
         <v>ide.src.page-process.tql-explain.main.0ye4oxea7cr</v>
       </c>
+      <c r="B758" t="str">
+        <v>浏览记录（Browse）：Browse_record</v>
+      </c>
       <c r="C758" t="str">
         <v>浏览记录（Browse）：Browse_record</v>
       </c>
@@ -6451,6 +8722,9 @@
       <c r="A759" t="str">
         <v>ide.src.page-process.tql-explain.main.gkjrebl98qt</v>
       </c>
+      <c r="B759" t="str">
+        <v>购买记录（buyer）：buyer_record</v>
+      </c>
       <c r="C759" t="str">
         <v>购买记录（buyer）：buyer_record</v>
       </c>
@@ -6459,6 +8733,9 @@
       <c r="A760" t="str">
         <v>ide.src.page-process.tql-explain.main.vjfht0jb94g</v>
       </c>
+      <c r="B760" t="str">
+        <v>会员产生浏览记录（member_Browse）：Browse_record</v>
+      </c>
       <c r="C760" t="str">
         <v>会员产生浏览记录（member_Browse）：Browse_record</v>
       </c>
@@ -6467,6 +8744,9 @@
       <c r="A761" t="str">
         <v>ide.src.page-process.tql-explain.main.6tthne671ym</v>
       </c>
+      <c r="B761" t="str">
+        <v>分析：我们在写TQL的时候，无需关心表有几张，只需要从对象和标签角度出发，直接将对象当作表，标签当作字段来处理！，我们在编写TQL界面，自定义一个time参数，值为昨天</v>
+      </c>
       <c r="C761" t="str">
         <v>分析：我们在写TQL的时候，无需关心表有几张，只需要从对象和标签角度出发，直接将对象当作表，标签当作字段来处理！，我们在编写TQL界面，自定义一个time参数，值为昨天</v>
       </c>
@@ -6475,6 +8755,9 @@
       <c r="A762" t="str">
         <v>ide.src.page-process.tql-explain.main.4jn3njmm5mp</v>
       </c>
+      <c r="B762" t="str">
+        <v xml:space="preserve">               select                 member.id_number ,               case                  when member.sex = '1' then '男'                 when member.sex = '2' then '女'               else '未知' end sex,                 count（*） as charge,                 sum(buyer.buyer_money) as money               from                 member                 left join member_buyer  on member.id_number = member_buyer.id_number                 left join buyer on member_buyer.buyer_id = buyer.buyer_id                 where datediff(buyer.buyer_time,${time})&lt;=30               group by                 member.id_number，                 member.sex                 </v>
+      </c>
       <c r="C762" t="str">
         <v xml:space="preserve">               select                 member.id_number ,               case                  when member.sex = '1' then '男'                 when member.sex = '2' then '女'               else '未知' end sex,                 count（*） as charge,                 sum(buyer.buyer_money) as money               from                 member                 left join member_buyer  on member.id_number = member_buyer.id_number                 left join buyer on member_buyer.buyer_id = buyer.buyer_id                 where datediff(buyer.buyer_time,${time})&lt;=30               group by                 member.id_number，                 member.sex                 </v>
       </c>
@@ -6483,6 +8766,9 @@
       <c r="A763" t="str">
         <v>ide.src.page-process.util.8zgtl28kqsi</v>
       </c>
+      <c r="B763" t="str">
+        <v>每周</v>
+      </c>
       <c r="C763" t="str">
         <v>每周</v>
       </c>
@@ -6490,6 +8776,9 @@
     <row r="764">
       <c r="A764" t="str">
         <v>ide.src.page-process.util.5k119i8yd8t</v>
+      </c>
+      <c r="B764" t="str">
+        <v>每月</v>
       </c>
       <c r="C764" t="str">
         <v>每月</v>
